--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3972500</v>
+        <v>3416900</v>
       </c>
       <c r="E8" s="3">
-        <v>3968000</v>
+        <v>3765700</v>
       </c>
       <c r="F8" s="3">
-        <v>3782800</v>
+        <v>3834700</v>
       </c>
       <c r="G8" s="3">
-        <v>3857300</v>
+        <v>3830400</v>
       </c>
       <c r="H8" s="3">
-        <v>3565200</v>
+        <v>3651600</v>
       </c>
       <c r="I8" s="3">
+        <v>3723600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3441600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3429700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3183500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2964900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2846600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2543700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2426100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2452200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,8 +1042,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2166500</v>
+        <v>2435900</v>
       </c>
       <c r="E17" s="3">
-        <v>2159000</v>
+        <v>1949000</v>
       </c>
       <c r="F17" s="3">
-        <v>2122900</v>
+        <v>2091400</v>
       </c>
       <c r="G17" s="3">
-        <v>2157500</v>
+        <v>2084100</v>
       </c>
       <c r="H17" s="3">
-        <v>1852600</v>
+        <v>2049300</v>
       </c>
       <c r="I17" s="3">
+        <v>2082700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1788400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1671200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1479200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1238400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1183300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1005400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>954100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>969500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1805900</v>
+        <v>981000</v>
       </c>
       <c r="E18" s="3">
-        <v>1809000</v>
+        <v>1816700</v>
       </c>
       <c r="F18" s="3">
-        <v>1659900</v>
+        <v>1743300</v>
       </c>
       <c r="G18" s="3">
-        <v>1699800</v>
+        <v>1746200</v>
       </c>
       <c r="H18" s="3">
-        <v>1712600</v>
+        <v>1602400</v>
       </c>
       <c r="I18" s="3">
+        <v>1640900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1653200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1758500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1704300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1726600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1663300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1538300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1471900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1482700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1233,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-652700</v>
+        <v>-645300</v>
       </c>
       <c r="E20" s="3">
-        <v>-475800</v>
+        <v>-705600</v>
       </c>
       <c r="F20" s="3">
-        <v>-380900</v>
+        <v>-630000</v>
       </c>
       <c r="G20" s="3">
-        <v>-595500</v>
+        <v>-459300</v>
       </c>
       <c r="H20" s="3">
-        <v>-510400</v>
+        <v>-367700</v>
       </c>
       <c r="I20" s="3">
+        <v>-574800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-492700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-453200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-464500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-440600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-569300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-464400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-516300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-159000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1388100</v>
+        <v>539200</v>
       </c>
       <c r="E21" s="3">
-        <v>1466400</v>
+        <v>1289900</v>
       </c>
       <c r="F21" s="3">
-        <v>1413000</v>
+        <v>1340000</v>
       </c>
       <c r="G21" s="3">
-        <v>1233100</v>
+        <v>1415600</v>
       </c>
       <c r="H21" s="3">
-        <v>1324200</v>
+        <v>1364000</v>
       </c>
       <c r="I21" s="3">
+        <v>1190300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1278200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1431100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1361800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1409500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1207100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1180300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1053200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1415800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1153300</v>
+        <v>335700</v>
       </c>
       <c r="E23" s="3">
-        <v>1333200</v>
+        <v>1111100</v>
       </c>
       <c r="F23" s="3">
-        <v>1279000</v>
+        <v>1113300</v>
       </c>
       <c r="G23" s="3">
-        <v>1104300</v>
+        <v>1287000</v>
       </c>
       <c r="H23" s="3">
-        <v>1202200</v>
+        <v>1234600</v>
       </c>
       <c r="I23" s="3">
+        <v>1066100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1160500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1305300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1239800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1286000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1094000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1073900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>955700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1323700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>255200</v>
+        <v>50900</v>
       </c>
       <c r="E24" s="3">
-        <v>280800</v>
+        <v>230400</v>
       </c>
       <c r="F24" s="3">
-        <v>264200</v>
+        <v>246300</v>
       </c>
       <c r="G24" s="3">
-        <v>214500</v>
+        <v>271100</v>
       </c>
       <c r="H24" s="3">
-        <v>247700</v>
+        <v>255100</v>
       </c>
       <c r="I24" s="3">
+        <v>207100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>239100</v>
+      </c>
+      <c r="K24" s="3">
         <v>274800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>246900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>232200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>227700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>257500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>149000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>242800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>898100</v>
+        <v>284900</v>
       </c>
       <c r="E26" s="3">
-        <v>1052400</v>
+        <v>880700</v>
       </c>
       <c r="F26" s="3">
-        <v>1014800</v>
+        <v>866900</v>
       </c>
       <c r="G26" s="3">
-        <v>889800</v>
+        <v>1015900</v>
       </c>
       <c r="H26" s="3">
-        <v>954500</v>
+        <v>979600</v>
       </c>
       <c r="I26" s="3">
+        <v>858900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>921400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1030600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>992900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1053800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>866300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>816400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>806600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1080900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>868000</v>
+        <v>268900</v>
       </c>
       <c r="E27" s="3">
-        <v>1026800</v>
+        <v>853100</v>
       </c>
       <c r="F27" s="3">
-        <v>988400</v>
+        <v>837900</v>
       </c>
       <c r="G27" s="3">
-        <v>869500</v>
+        <v>991200</v>
       </c>
       <c r="H27" s="3">
-        <v>935000</v>
+        <v>954100</v>
       </c>
       <c r="I27" s="3">
+        <v>839300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1010200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>970300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1036700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>844700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>806700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>795100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1070100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,15 +1711,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-65500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>652700</v>
+        <v>645300</v>
       </c>
       <c r="E32" s="3">
-        <v>475800</v>
+        <v>705600</v>
       </c>
       <c r="F32" s="3">
-        <v>380900</v>
+        <v>630000</v>
       </c>
       <c r="G32" s="3">
-        <v>595500</v>
+        <v>459300</v>
       </c>
       <c r="H32" s="3">
-        <v>510400</v>
+        <v>367700</v>
       </c>
       <c r="I32" s="3">
+        <v>574800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>492700</v>
+      </c>
+      <c r="K32" s="3">
         <v>453200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>464500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>440600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>569300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>464400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>516300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>159000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>868000</v>
+        <v>268900</v>
       </c>
       <c r="E33" s="3">
-        <v>1026800</v>
+        <v>853100</v>
       </c>
       <c r="F33" s="3">
-        <v>988400</v>
+        <v>837900</v>
       </c>
       <c r="G33" s="3">
-        <v>869500</v>
+        <v>991200</v>
       </c>
       <c r="H33" s="3">
-        <v>935000</v>
+        <v>954100</v>
       </c>
       <c r="I33" s="3">
+        <v>839300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1010200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>970300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>971200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>844700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>806700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>795100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1070100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>868000</v>
+        <v>268900</v>
       </c>
       <c r="E35" s="3">
-        <v>1026800</v>
+        <v>853100</v>
       </c>
       <c r="F35" s="3">
-        <v>988400</v>
+        <v>837900</v>
       </c>
       <c r="G35" s="3">
-        <v>869500</v>
+        <v>991200</v>
       </c>
       <c r="H35" s="3">
-        <v>935000</v>
+        <v>954100</v>
       </c>
       <c r="I35" s="3">
+        <v>839300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1010200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>970300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>971200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>844700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>806700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>795100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1070100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2128,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2890700</v>
+        <v>27445600</v>
       </c>
       <c r="E41" s="3">
-        <v>2966700</v>
+        <v>3454700</v>
       </c>
       <c r="F41" s="3">
-        <v>3145200</v>
+        <v>2790500</v>
       </c>
       <c r="G41" s="3">
-        <v>3077400</v>
+        <v>2863900</v>
       </c>
       <c r="H41" s="3">
-        <v>3297200</v>
+        <v>3036100</v>
       </c>
       <c r="I41" s="3">
+        <v>2970700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3182900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2757500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3848300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2456600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2560100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3130900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2777200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2446800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>114112400</v>
+        <v>136090900</v>
       </c>
       <c r="E42" s="3">
-        <v>112815400</v>
+        <v>122474900</v>
       </c>
       <c r="F42" s="3">
-        <v>112375000</v>
+        <v>110156000</v>
       </c>
       <c r="G42" s="3">
-        <v>108779700</v>
+        <v>108903900</v>
       </c>
       <c r="H42" s="3">
-        <v>102573700</v>
+        <v>108478800</v>
       </c>
       <c r="I42" s="3">
+        <v>105008200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>99017300</v>
+      </c>
+      <c r="K42" s="3">
         <v>102777700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>104055200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>109982300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>97603900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>100635800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>107950900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>104933300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2274,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>441100</v>
+        <v>446200</v>
       </c>
       <c r="E47" s="3">
-        <v>439600</v>
+        <v>418600</v>
       </c>
       <c r="F47" s="3">
-        <v>416300</v>
+        <v>425800</v>
       </c>
       <c r="G47" s="3">
-        <v>391500</v>
+        <v>424400</v>
       </c>
       <c r="H47" s="3">
-        <v>396000</v>
+        <v>401900</v>
       </c>
       <c r="I47" s="3">
+        <v>377900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>382200</v>
+      </c>
+      <c r="K47" s="3">
         <v>375600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>393700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>413000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>532100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>550700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>564600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>545400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1364800</v>
+        <v>2226600</v>
       </c>
       <c r="E48" s="3">
-        <v>1333200</v>
+        <v>2243300</v>
       </c>
       <c r="F48" s="3">
-        <v>1344500</v>
+        <v>1317500</v>
       </c>
       <c r="G48" s="3">
-        <v>1342200</v>
+        <v>1287000</v>
       </c>
       <c r="H48" s="3">
-        <v>1351300</v>
+        <v>1297900</v>
       </c>
       <c r="I48" s="3">
+        <v>1295700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1304400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1304600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1314400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1291200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1326900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1311300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1379700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1345900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5584200</v>
+        <v>5551200</v>
       </c>
       <c r="E49" s="3">
-        <v>5640700</v>
+        <v>5389100</v>
       </c>
       <c r="F49" s="3">
-        <v>5700100</v>
+        <v>5390600</v>
       </c>
       <c r="G49" s="3">
-        <v>5627100</v>
+        <v>5445100</v>
       </c>
       <c r="H49" s="3">
-        <v>5652700</v>
+        <v>5502500</v>
       </c>
       <c r="I49" s="3">
+        <v>5432000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5456700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5594000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5551800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5348600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5466200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5152200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2307000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2267000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>389200</v>
+        <v>398200</v>
       </c>
       <c r="E52" s="3">
-        <v>409500</v>
+        <v>407700</v>
       </c>
       <c r="F52" s="3">
-        <v>402000</v>
+        <v>375700</v>
       </c>
       <c r="G52" s="3">
-        <v>467500</v>
+        <v>395300</v>
       </c>
       <c r="H52" s="3">
-        <v>452400</v>
+        <v>388100</v>
       </c>
       <c r="I52" s="3">
+        <v>451300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>436700</v>
+      </c>
+      <c r="K52" s="3">
         <v>402700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>455400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>451700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>541000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>529900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>540100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>490900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>490521000</v>
+        <v>551656500</v>
       </c>
       <c r="E54" s="3">
-        <v>483684100</v>
+        <v>488421400</v>
       </c>
       <c r="F54" s="3">
-        <v>477350900</v>
+        <v>473514100</v>
       </c>
       <c r="G54" s="3">
-        <v>462700100</v>
+        <v>466914300</v>
       </c>
       <c r="H54" s="3">
-        <v>449490200</v>
+        <v>460800700</v>
       </c>
       <c r="I54" s="3">
+        <v>446657800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>433905900</v>
+      </c>
+      <c r="K54" s="3">
         <v>447928900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>444550300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>436796900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>420675100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>417436300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>406079500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>394327800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2914,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,8 +2964,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2742,8 +3014,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3526100</v>
+        <v>3501200</v>
       </c>
       <c r="E61" s="3">
-        <v>4230700</v>
+        <v>3411800</v>
       </c>
       <c r="F61" s="3">
-        <v>3139900</v>
+        <v>3403800</v>
       </c>
       <c r="G61" s="3">
-        <v>3133100</v>
+        <v>4084000</v>
       </c>
       <c r="H61" s="3">
-        <v>3071400</v>
+        <v>3031000</v>
       </c>
       <c r="I61" s="3">
+        <v>3024500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2964900</v>
+      </c>
+      <c r="K61" s="3">
         <v>12182400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>13819700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>13686800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>12593500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11741400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>12597400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>11580300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28600</v>
+        <v>26200</v>
       </c>
       <c r="E62" s="3">
-        <v>28600</v>
+        <v>25400</v>
       </c>
       <c r="F62" s="3">
-        <v>30100</v>
+        <v>27600</v>
       </c>
       <c r="G62" s="3">
-        <v>30900</v>
+        <v>27600</v>
       </c>
       <c r="H62" s="3">
-        <v>32400</v>
+        <v>29100</v>
       </c>
       <c r="I62" s="3">
+        <v>29800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>24100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>22300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>22300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>15400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>16900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>461618400</v>
+        <v>522538800</v>
       </c>
       <c r="E66" s="3">
-        <v>455207600</v>
+        <v>460052200</v>
       </c>
       <c r="F66" s="3">
-        <v>449475100</v>
+        <v>445613600</v>
       </c>
       <c r="G66" s="3">
-        <v>435668200</v>
+        <v>439425100</v>
       </c>
       <c r="H66" s="3">
-        <v>423185400</v>
+        <v>433891300</v>
       </c>
       <c r="I66" s="3">
+        <v>420563100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>408513100</v>
+      </c>
+      <c r="K66" s="3">
         <v>422047200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>419432800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>412881800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>397578600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>395235000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>386360500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>375481600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,52 +3484,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2126600</v>
+        <v>2052900</v>
       </c>
       <c r="E70" s="3">
-        <v>2126600</v>
+        <v>2052900</v>
       </c>
       <c r="F70" s="3">
-        <v>1938400</v>
+        <v>2052900</v>
       </c>
       <c r="G70" s="3">
-        <v>1938400</v>
+        <v>2052900</v>
       </c>
       <c r="H70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1635100</v>
+      </c>
+      <c r="K70" s="3">
         <v>1693800</v>
       </c>
-      <c r="I70" s="3">
-        <v>1693800</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1692300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1671500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1337300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="N70" s="3">
-        <v>768200</v>
-      </c>
-      <c r="O70" s="3">
-        <v>768200</v>
       </c>
       <c r="P70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>768200</v>
+      </c>
+      <c r="R70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15787500</v>
+        <v>15433400</v>
       </c>
       <c r="E72" s="3">
-        <v>15458500</v>
+        <v>15655100</v>
       </c>
       <c r="F72" s="3">
-        <v>14900000</v>
+        <v>15240100</v>
       </c>
       <c r="G72" s="3">
-        <v>14379000</v>
+        <v>14922600</v>
       </c>
       <c r="H72" s="3">
-        <v>13954500</v>
+        <v>14383400</v>
       </c>
       <c r="I72" s="3">
+        <v>13880500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>13470700</v>
+      </c>
+      <c r="K72" s="3">
         <v>13588600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>13107600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>12429100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>11982500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11561300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11531900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>11126300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26776000</v>
+        <v>27064800</v>
       </c>
       <c r="E76" s="3">
-        <v>26349900</v>
+        <v>26316400</v>
       </c>
       <c r="F76" s="3">
-        <v>25937400</v>
+        <v>25847600</v>
       </c>
       <c r="G76" s="3">
-        <v>25093500</v>
+        <v>25436300</v>
       </c>
       <c r="H76" s="3">
-        <v>24611000</v>
+        <v>25038100</v>
       </c>
       <c r="I76" s="3">
+        <v>24223500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>23757700</v>
+      </c>
+      <c r="K76" s="3">
         <v>24187900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>23425300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>22243700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>21759200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>20864700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18950700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18078000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>868000</v>
+        <v>268900</v>
       </c>
       <c r="E81" s="3">
-        <v>1026800</v>
+        <v>853100</v>
       </c>
       <c r="F81" s="3">
-        <v>988400</v>
+        <v>837900</v>
       </c>
       <c r="G81" s="3">
-        <v>869500</v>
+        <v>991200</v>
       </c>
       <c r="H81" s="3">
-        <v>935000</v>
+        <v>954100</v>
       </c>
       <c r="I81" s="3">
+        <v>839300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1010200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>970300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>971200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>844700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>806700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>795100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1070100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>234900</v>
+        <v>203500</v>
       </c>
       <c r="E83" s="3">
-        <v>133200</v>
+        <v>178800</v>
       </c>
       <c r="F83" s="3">
-        <v>134000</v>
+        <v>226700</v>
       </c>
       <c r="G83" s="3">
-        <v>128700</v>
+        <v>128600</v>
       </c>
       <c r="H83" s="3">
+        <v>129400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>124300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>125700</v>
+      </c>
+      <c r="L83" s="3">
         <v>122000</v>
       </c>
-      <c r="I83" s="3">
-        <v>125700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>122000</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>123500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>113100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>106400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>97600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>92200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4495700</v>
+        <v>32002700</v>
       </c>
       <c r="E89" s="3">
-        <v>1916600</v>
+        <v>490500</v>
       </c>
       <c r="F89" s="3">
-        <v>3237700</v>
+        <v>4339800</v>
       </c>
       <c r="G89" s="3">
-        <v>4378200</v>
+        <v>1850200</v>
       </c>
       <c r="H89" s="3">
-        <v>-912400</v>
+        <v>3125500</v>
       </c>
       <c r="I89" s="3">
+        <v>4226400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-880700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1409200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4979000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1929700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1486900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1329900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2179500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-79800</v>
+        <v>-35600</v>
       </c>
       <c r="E91" s="3">
-        <v>-40700</v>
+        <v>-45100</v>
       </c>
       <c r="F91" s="3">
-        <v>-42900</v>
+        <v>-77000</v>
       </c>
       <c r="G91" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-41400</v>
       </c>
-      <c r="H91" s="3">
-        <v>-99400</v>
-      </c>
       <c r="I91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-95900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-28600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-33900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-29800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3297200</v>
+        <v>-7555400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2958500</v>
+        <v>740500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2771800</v>
+        <v>-3182900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4439200</v>
+        <v>-2855900</v>
       </c>
       <c r="H94" s="3">
-        <v>2014500</v>
+        <v>-2675700</v>
       </c>
       <c r="I94" s="3">
+        <v>-4285300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1944600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>3186600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-469000</v>
+        <v>-467300</v>
       </c>
       <c r="E96" s="3">
-        <v>-460700</v>
+        <v>-462200</v>
       </c>
       <c r="F96" s="3">
-        <v>-453200</v>
+        <v>-452700</v>
       </c>
       <c r="G96" s="3">
+        <v>-444700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-437500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-413500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-420800</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-426100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-428300</v>
       </c>
-      <c r="H96" s="3">
-        <v>-435900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-426100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-428300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-294000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>115400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-416800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-397900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-385700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1272200</v>
+        <v>-550100</v>
       </c>
       <c r="E100" s="3">
-        <v>883800</v>
+        <v>-575500</v>
       </c>
       <c r="F100" s="3">
-        <v>-426800</v>
+        <v>-1228100</v>
       </c>
       <c r="G100" s="3">
-        <v>-155800</v>
+        <v>853100</v>
       </c>
       <c r="H100" s="3">
-        <v>-579600</v>
+        <v>-412000</v>
       </c>
       <c r="I100" s="3">
+        <v>-150400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-559600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-996700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>737000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>90800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-275400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>323000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-242800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-191300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2300</v>
+        <v>93700</v>
       </c>
       <c r="E101" s="3">
-        <v>-20300</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>28600</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>-19600</v>
       </c>
       <c r="H101" s="3">
-        <v>17300</v>
+        <v>27600</v>
       </c>
       <c r="I101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K101" s="3">
         <v>32400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>58000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-67000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>48400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-109400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>61500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-37600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76000</v>
+        <v>23990900</v>
       </c>
       <c r="E102" s="3">
-        <v>-178400</v>
+        <v>664200</v>
       </c>
       <c r="F102" s="3">
-        <v>67800</v>
+        <v>-73400</v>
       </c>
       <c r="G102" s="3">
-        <v>-219800</v>
+        <v>-172200</v>
       </c>
       <c r="H102" s="3">
-        <v>539800</v>
+        <v>65400</v>
       </c>
       <c r="I102" s="3">
+        <v>-212200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>521000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1363300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-103400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-570800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>440600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>330300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-242000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3416900</v>
+        <v>2921100</v>
       </c>
       <c r="E8" s="3">
-        <v>3765700</v>
+        <v>3578600</v>
       </c>
       <c r="F8" s="3">
-        <v>3834700</v>
+        <v>3944000</v>
       </c>
       <c r="G8" s="3">
-        <v>3830400</v>
+        <v>4016300</v>
       </c>
       <c r="H8" s="3">
-        <v>3651600</v>
+        <v>4011700</v>
       </c>
       <c r="I8" s="3">
-        <v>3723600</v>
+        <v>3824500</v>
       </c>
       <c r="J8" s="3">
+        <v>3899800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3441600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3429700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3183500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2964900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2846600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2543700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2426100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2452200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,8 +1067,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2435900</v>
+        <v>1243600</v>
       </c>
       <c r="E17" s="3">
-        <v>1949000</v>
+        <v>2551200</v>
       </c>
       <c r="F17" s="3">
-        <v>2091400</v>
+        <v>2041200</v>
       </c>
       <c r="G17" s="3">
-        <v>2084100</v>
+        <v>2190400</v>
       </c>
       <c r="H17" s="3">
-        <v>2049300</v>
+        <v>2182800</v>
       </c>
       <c r="I17" s="3">
-        <v>2082700</v>
+        <v>2146300</v>
       </c>
       <c r="J17" s="3">
+        <v>2181300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1788400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1671200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1479200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1238400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1183300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1005400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>954100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>969500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>981000</v>
+        <v>1677400</v>
       </c>
       <c r="E18" s="3">
-        <v>1816700</v>
+        <v>1027500</v>
       </c>
       <c r="F18" s="3">
-        <v>1743300</v>
+        <v>1902700</v>
       </c>
       <c r="G18" s="3">
-        <v>1746200</v>
+        <v>1825900</v>
       </c>
       <c r="H18" s="3">
-        <v>1602400</v>
+        <v>1828900</v>
       </c>
       <c r="I18" s="3">
-        <v>1640900</v>
+        <v>1678200</v>
       </c>
       <c r="J18" s="3">
+        <v>1718500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1653200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1758500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1704300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1726600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1663300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1538300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1471900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1482700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-645300</v>
+        <v>-550300</v>
       </c>
       <c r="E20" s="3">
-        <v>-705600</v>
+        <v>-675800</v>
       </c>
       <c r="F20" s="3">
-        <v>-630000</v>
+        <v>-739000</v>
       </c>
       <c r="G20" s="3">
-        <v>-459300</v>
+        <v>-659900</v>
       </c>
       <c r="H20" s="3">
-        <v>-367700</v>
+        <v>-481000</v>
       </c>
       <c r="I20" s="3">
-        <v>-574800</v>
+        <v>-385100</v>
       </c>
       <c r="J20" s="3">
+        <v>-602000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-492700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-453200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-464500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-440600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-569300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-464400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-516300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-159000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>539200</v>
+        <v>1316700</v>
       </c>
       <c r="E21" s="3">
-        <v>1289900</v>
+        <v>564700</v>
       </c>
       <c r="F21" s="3">
-        <v>1340000</v>
+        <v>1350900</v>
       </c>
       <c r="G21" s="3">
-        <v>1415600</v>
+        <v>1403400</v>
       </c>
       <c r="H21" s="3">
-        <v>1364000</v>
+        <v>1482600</v>
       </c>
       <c r="I21" s="3">
-        <v>1190300</v>
+        <v>1428600</v>
       </c>
       <c r="J21" s="3">
+        <v>1246700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1278200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1431100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1361800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1409500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1207100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1180300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1053200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1415800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>335700</v>
+        <v>1127200</v>
       </c>
       <c r="E23" s="3">
-        <v>1111100</v>
+        <v>351600</v>
       </c>
       <c r="F23" s="3">
-        <v>1113300</v>
+        <v>1163700</v>
       </c>
       <c r="G23" s="3">
-        <v>1287000</v>
+        <v>1166000</v>
       </c>
       <c r="H23" s="3">
-        <v>1234600</v>
+        <v>1347900</v>
       </c>
       <c r="I23" s="3">
-        <v>1066100</v>
+        <v>1293100</v>
       </c>
       <c r="J23" s="3">
+        <v>1116500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1160500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1305300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1239800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1286000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1094000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1073900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>955700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1323700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50900</v>
+        <v>235200</v>
       </c>
       <c r="E24" s="3">
-        <v>230400</v>
+        <v>53300</v>
       </c>
       <c r="F24" s="3">
-        <v>246300</v>
+        <v>241300</v>
       </c>
       <c r="G24" s="3">
-        <v>271100</v>
+        <v>258000</v>
       </c>
       <c r="H24" s="3">
-        <v>255100</v>
+        <v>283900</v>
       </c>
       <c r="I24" s="3">
-        <v>207100</v>
+        <v>267100</v>
       </c>
       <c r="J24" s="3">
+        <v>216900</v>
+      </c>
+      <c r="K24" s="3">
         <v>239100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>274800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>246900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>232200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>227700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>257500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>149000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>242800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>284900</v>
+        <v>892000</v>
       </c>
       <c r="E26" s="3">
-        <v>880700</v>
+        <v>298300</v>
       </c>
       <c r="F26" s="3">
-        <v>866900</v>
+        <v>922400</v>
       </c>
       <c r="G26" s="3">
-        <v>1015900</v>
+        <v>908000</v>
       </c>
       <c r="H26" s="3">
-        <v>979600</v>
+        <v>1064000</v>
       </c>
       <c r="I26" s="3">
-        <v>858900</v>
+        <v>1025900</v>
       </c>
       <c r="J26" s="3">
+        <v>899600</v>
+      </c>
+      <c r="K26" s="3">
         <v>921400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1030600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>992900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1053800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>866300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>816400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>806600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1080900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>268900</v>
+        <v>866900</v>
       </c>
       <c r="E27" s="3">
-        <v>853100</v>
+        <v>281600</v>
       </c>
       <c r="F27" s="3">
-        <v>837900</v>
+        <v>893500</v>
       </c>
       <c r="G27" s="3">
-        <v>991200</v>
+        <v>877500</v>
       </c>
       <c r="H27" s="3">
-        <v>954100</v>
+        <v>1038100</v>
       </c>
       <c r="I27" s="3">
-        <v>839300</v>
+        <v>999300</v>
       </c>
       <c r="J27" s="3">
+        <v>879100</v>
+      </c>
+      <c r="K27" s="3">
         <v>902500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1010200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>970300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1036700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>844700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>806700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>795100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1070100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1717,12 +1777,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-65500</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>645300</v>
+        <v>550300</v>
       </c>
       <c r="E32" s="3">
-        <v>705600</v>
+        <v>675800</v>
       </c>
       <c r="F32" s="3">
-        <v>630000</v>
+        <v>739000</v>
       </c>
       <c r="G32" s="3">
-        <v>459300</v>
+        <v>659900</v>
       </c>
       <c r="H32" s="3">
-        <v>367700</v>
+        <v>481000</v>
       </c>
       <c r="I32" s="3">
-        <v>574800</v>
+        <v>385100</v>
       </c>
       <c r="J32" s="3">
+        <v>602000</v>
+      </c>
+      <c r="K32" s="3">
         <v>492700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>453200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>464500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>440600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>569300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>464400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>516300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>159000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>268900</v>
+        <v>866900</v>
       </c>
       <c r="E33" s="3">
-        <v>853100</v>
+        <v>281600</v>
       </c>
       <c r="F33" s="3">
-        <v>837900</v>
+        <v>893500</v>
       </c>
       <c r="G33" s="3">
-        <v>991200</v>
+        <v>877500</v>
       </c>
       <c r="H33" s="3">
-        <v>954100</v>
+        <v>1038100</v>
       </c>
       <c r="I33" s="3">
-        <v>839300</v>
+        <v>999300</v>
       </c>
       <c r="J33" s="3">
+        <v>879100</v>
+      </c>
+      <c r="K33" s="3">
         <v>902500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1010200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>970300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>971200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>844700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>806700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>795100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1070100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>268900</v>
+        <v>866900</v>
       </c>
       <c r="E35" s="3">
-        <v>853100</v>
+        <v>281600</v>
       </c>
       <c r="F35" s="3">
-        <v>837900</v>
+        <v>893500</v>
       </c>
       <c r="G35" s="3">
-        <v>991200</v>
+        <v>877500</v>
       </c>
       <c r="H35" s="3">
-        <v>954100</v>
+        <v>1038100</v>
       </c>
       <c r="I35" s="3">
-        <v>839300</v>
+        <v>999300</v>
       </c>
       <c r="J35" s="3">
+        <v>879100</v>
+      </c>
+      <c r="K35" s="3">
         <v>902500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1010200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>970300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>971200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>844700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>806700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>795100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1070100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,108 +2215,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27445600</v>
+        <v>37575800</v>
       </c>
       <c r="E41" s="3">
-        <v>3454700</v>
+        <v>28744800</v>
       </c>
       <c r="F41" s="3">
-        <v>2790500</v>
+        <v>3618200</v>
       </c>
       <c r="G41" s="3">
-        <v>2863900</v>
+        <v>2922600</v>
       </c>
       <c r="H41" s="3">
-        <v>3036100</v>
+        <v>2999500</v>
       </c>
       <c r="I41" s="3">
-        <v>2970700</v>
+        <v>3179800</v>
       </c>
       <c r="J41" s="3">
+        <v>3111300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3182900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2757500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3848300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2456600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2560100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3130900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2777200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2446800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>136090900</v>
+        <v>141115200</v>
       </c>
       <c r="E42" s="3">
-        <v>122474900</v>
+        <v>142533100</v>
       </c>
       <c r="F42" s="3">
-        <v>110156000</v>
+        <v>128272600</v>
       </c>
       <c r="G42" s="3">
-        <v>108903900</v>
+        <v>115370600</v>
       </c>
       <c r="H42" s="3">
-        <v>108478800</v>
+        <v>114059200</v>
       </c>
       <c r="I42" s="3">
-        <v>105008200</v>
+        <v>113614000</v>
       </c>
       <c r="J42" s="3">
+        <v>109979000</v>
+      </c>
+      <c r="K42" s="3">
         <v>99017300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102777700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>104055200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>109982300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>97603900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>100635800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>107950900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>104933300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>446200</v>
+        <v>488600</v>
       </c>
       <c r="E47" s="3">
-        <v>418600</v>
+        <v>467300</v>
       </c>
       <c r="F47" s="3">
-        <v>425800</v>
+        <v>438400</v>
       </c>
       <c r="G47" s="3">
-        <v>424400</v>
+        <v>446000</v>
       </c>
       <c r="H47" s="3">
-        <v>401900</v>
+        <v>444500</v>
       </c>
       <c r="I47" s="3">
-        <v>377900</v>
+        <v>420900</v>
       </c>
       <c r="J47" s="3">
+        <v>395800</v>
+      </c>
+      <c r="K47" s="3">
         <v>382200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>375600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>393700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>413000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>532100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>550700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>564600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>545400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2226600</v>
+        <v>2300800</v>
       </c>
       <c r="E48" s="3">
-        <v>2243300</v>
+        <v>2332000</v>
       </c>
       <c r="F48" s="3">
-        <v>1317500</v>
+        <v>2349500</v>
       </c>
       <c r="G48" s="3">
-        <v>1287000</v>
+        <v>1379900</v>
       </c>
       <c r="H48" s="3">
-        <v>1297900</v>
+        <v>1347900</v>
       </c>
       <c r="I48" s="3">
-        <v>1295700</v>
+        <v>1359300</v>
       </c>
       <c r="J48" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1304400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1304600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1314400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1291200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1326900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1311300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1379700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1345900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5551200</v>
+        <v>5666300</v>
       </c>
       <c r="E49" s="3">
-        <v>5389100</v>
+        <v>5814000</v>
       </c>
       <c r="F49" s="3">
-        <v>5390600</v>
+        <v>5644200</v>
       </c>
       <c r="G49" s="3">
-        <v>5445100</v>
+        <v>5645800</v>
       </c>
       <c r="H49" s="3">
-        <v>5502500</v>
+        <v>5702800</v>
       </c>
       <c r="I49" s="3">
-        <v>5432000</v>
+        <v>5763000</v>
       </c>
       <c r="J49" s="3">
+        <v>5689100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5456700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5594000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5551800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5348600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5466200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5152200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2307000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2267000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>398200</v>
+        <v>511500</v>
       </c>
       <c r="E52" s="3">
-        <v>407700</v>
+        <v>417100</v>
       </c>
       <c r="F52" s="3">
-        <v>375700</v>
+        <v>427000</v>
       </c>
       <c r="G52" s="3">
-        <v>395300</v>
+        <v>393500</v>
       </c>
       <c r="H52" s="3">
-        <v>388100</v>
+        <v>414000</v>
       </c>
       <c r="I52" s="3">
-        <v>451300</v>
+        <v>406400</v>
       </c>
       <c r="J52" s="3">
+        <v>472600</v>
+      </c>
+      <c r="K52" s="3">
         <v>436700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>402700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>455400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>451700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>541000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>529900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>540100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>490900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>551656500</v>
+        <v>584931900</v>
       </c>
       <c r="E54" s="3">
-        <v>488421400</v>
+        <v>577770800</v>
       </c>
       <c r="F54" s="3">
-        <v>473514100</v>
+        <v>511542300</v>
       </c>
       <c r="G54" s="3">
-        <v>466914300</v>
+        <v>495929300</v>
       </c>
       <c r="H54" s="3">
-        <v>460800700</v>
+        <v>489017100</v>
       </c>
       <c r="I54" s="3">
-        <v>446657800</v>
+        <v>482614000</v>
       </c>
       <c r="J54" s="3">
+        <v>467801700</v>
+      </c>
+      <c r="K54" s="3">
         <v>433905900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>447928900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>444550300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>436796900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>420675100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>417436300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>406079500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>394327800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,8 +3050,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,8 +3103,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3020,8 +3156,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3501200</v>
+        <v>4431100</v>
       </c>
       <c r="E61" s="3">
-        <v>3411800</v>
+        <v>3666900</v>
       </c>
       <c r="F61" s="3">
-        <v>3403800</v>
+        <v>3573300</v>
       </c>
       <c r="G61" s="3">
-        <v>4084000</v>
+        <v>3564900</v>
       </c>
       <c r="H61" s="3">
-        <v>3031000</v>
+        <v>4277300</v>
       </c>
       <c r="I61" s="3">
-        <v>3024500</v>
+        <v>3174500</v>
       </c>
       <c r="J61" s="3">
+        <v>3167700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2964900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12182400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13819700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13686800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12593500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11741400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12597400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11580300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="E62" s="3">
-        <v>25400</v>
+        <v>27400</v>
       </c>
       <c r="F62" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="G62" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="H62" s="3">
-        <v>29100</v>
+        <v>28900</v>
       </c>
       <c r="I62" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="J62" s="3">
         <v>31200</v>
       </c>
       <c r="K62" s="3">
+        <v>31200</v>
+      </c>
+      <c r="L62" s="3">
         <v>23300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>22300</v>
       </c>
       <c r="O62" s="3">
         <v>22300</v>
       </c>
       <c r="P62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>15400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>522538800</v>
+        <v>554549200</v>
       </c>
       <c r="E66" s="3">
-        <v>460052200</v>
+        <v>547274700</v>
       </c>
       <c r="F66" s="3">
-        <v>445613600</v>
+        <v>481830100</v>
       </c>
       <c r="G66" s="3">
-        <v>439425100</v>
+        <v>466708000</v>
       </c>
       <c r="H66" s="3">
-        <v>433891300</v>
+        <v>460226600</v>
       </c>
       <c r="I66" s="3">
-        <v>420563100</v>
+        <v>454430900</v>
       </c>
       <c r="J66" s="3">
+        <v>440471700</v>
+      </c>
+      <c r="K66" s="3">
         <v>408513100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>422047200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>419432800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>412881800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>397578600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>395235000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>386360500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>375481600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,49 +3654,52 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2052900</v>
+        <v>2150100</v>
       </c>
       <c r="E70" s="3">
-        <v>2052900</v>
+        <v>2150100</v>
       </c>
       <c r="F70" s="3">
-        <v>2052900</v>
+        <v>2150100</v>
       </c>
       <c r="G70" s="3">
-        <v>2052900</v>
+        <v>2150100</v>
       </c>
       <c r="H70" s="3">
-        <v>1871200</v>
+        <v>2150100</v>
       </c>
       <c r="I70" s="3">
-        <v>1871200</v>
+        <v>1959800</v>
       </c>
       <c r="J70" s="3">
+        <v>1959800</v>
+      </c>
+      <c r="K70" s="3">
         <v>1635100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1693800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1692300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1671500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1337300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="P70" s="3">
-        <v>768200</v>
       </c>
       <c r="Q70" s="3">
         <v>768200</v>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15433400</v>
+        <v>16535400</v>
       </c>
       <c r="E72" s="3">
-        <v>15655100</v>
+        <v>16164000</v>
       </c>
       <c r="F72" s="3">
-        <v>15240100</v>
+        <v>16396200</v>
       </c>
       <c r="G72" s="3">
-        <v>14922600</v>
+        <v>15961600</v>
       </c>
       <c r="H72" s="3">
-        <v>14383400</v>
+        <v>15629000</v>
       </c>
       <c r="I72" s="3">
-        <v>13880500</v>
+        <v>15064300</v>
       </c>
       <c r="J72" s="3">
+        <v>14537600</v>
+      </c>
+      <c r="K72" s="3">
         <v>13470700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13588600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13107600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12429100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11982500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11561300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11531900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11126300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27064800</v>
+        <v>28232600</v>
       </c>
       <c r="E76" s="3">
-        <v>26316400</v>
+        <v>28346000</v>
       </c>
       <c r="F76" s="3">
-        <v>25847600</v>
+        <v>27562100</v>
       </c>
       <c r="G76" s="3">
-        <v>25436300</v>
+        <v>27071200</v>
       </c>
       <c r="H76" s="3">
-        <v>25038100</v>
+        <v>26640400</v>
       </c>
       <c r="I76" s="3">
-        <v>24223500</v>
+        <v>26223400</v>
       </c>
       <c r="J76" s="3">
+        <v>25370200</v>
+      </c>
+      <c r="K76" s="3">
         <v>23757700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24187900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23425300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22243700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21759200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20864700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18950700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18078000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>268900</v>
+        <v>866900</v>
       </c>
       <c r="E81" s="3">
-        <v>853100</v>
+        <v>281600</v>
       </c>
       <c r="F81" s="3">
-        <v>837900</v>
+        <v>893500</v>
       </c>
       <c r="G81" s="3">
-        <v>991200</v>
+        <v>877500</v>
       </c>
       <c r="H81" s="3">
-        <v>954100</v>
+        <v>1038100</v>
       </c>
       <c r="I81" s="3">
-        <v>839300</v>
+        <v>999300</v>
       </c>
       <c r="J81" s="3">
+        <v>879100</v>
+      </c>
+      <c r="K81" s="3">
         <v>902500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1010200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>970300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>971200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>844700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>806700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>795100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1070100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>203500</v>
+        <v>189500</v>
       </c>
       <c r="E83" s="3">
-        <v>178800</v>
+        <v>213100</v>
       </c>
       <c r="F83" s="3">
-        <v>226700</v>
+        <v>187200</v>
       </c>
       <c r="G83" s="3">
-        <v>128600</v>
+        <v>237500</v>
       </c>
       <c r="H83" s="3">
-        <v>129400</v>
+        <v>134700</v>
       </c>
       <c r="I83" s="3">
-        <v>124300</v>
+        <v>135500</v>
       </c>
       <c r="J83" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K83" s="3">
         <v>117700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>125700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>122000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>123500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>113100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>97600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>92200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32002700</v>
+        <v>14137200</v>
       </c>
       <c r="E89" s="3">
-        <v>490500</v>
+        <v>33517600</v>
       </c>
       <c r="F89" s="3">
-        <v>4339800</v>
+        <v>513700</v>
       </c>
       <c r="G89" s="3">
-        <v>1850200</v>
+        <v>4545200</v>
       </c>
       <c r="H89" s="3">
-        <v>3125500</v>
+        <v>1937700</v>
       </c>
       <c r="I89" s="3">
-        <v>4226400</v>
+        <v>3273400</v>
       </c>
       <c r="J89" s="3">
+        <v>4426500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-880700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1409200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4979000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1929700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1486900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1329900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2179500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,44 +4604,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35600</v>
+        <v>-74600</v>
       </c>
       <c r="E91" s="3">
-        <v>-45100</v>
+        <v>-37300</v>
       </c>
       <c r="F91" s="3">
-        <v>-77000</v>
+        <v>-47200</v>
       </c>
       <c r="G91" s="3">
-        <v>-39200</v>
+        <v>-80700</v>
       </c>
       <c r="H91" s="3">
-        <v>-41400</v>
+        <v>-41100</v>
       </c>
       <c r="I91" s="3">
-        <v>-40000</v>
+        <v>-43400</v>
       </c>
       <c r="J91" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-95900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4432,11 +4652,14 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7555400</v>
+        <v>-5470700</v>
       </c>
       <c r="E94" s="3">
-        <v>740500</v>
+        <v>-7913100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3182900</v>
+        <v>775600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2855900</v>
+        <v>-3333600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2675700</v>
+        <v>-2991100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4285300</v>
+        <v>-2802300</v>
       </c>
       <c r="J94" s="3">
+        <v>-4488100</v>
+      </c>
+      <c r="K94" s="3">
         <v>1944600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3186600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-467300</v>
+        <v>-488600</v>
       </c>
       <c r="E96" s="3">
-        <v>-462200</v>
+        <v>-489400</v>
       </c>
       <c r="F96" s="3">
-        <v>-452700</v>
+        <v>-484100</v>
       </c>
       <c r="G96" s="3">
-        <v>-444700</v>
+        <v>-474200</v>
       </c>
       <c r="H96" s="3">
-        <v>-437500</v>
+        <v>-465800</v>
       </c>
       <c r="I96" s="3">
-        <v>-413500</v>
+        <v>-458200</v>
       </c>
       <c r="J96" s="3">
+        <v>-433100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-420800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-426100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-428300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-294000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>115400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-416800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-397900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-385700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-550100</v>
+        <v>242800</v>
       </c>
       <c r="E100" s="3">
-        <v>-575500</v>
+        <v>-576100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1228100</v>
+        <v>-602800</v>
       </c>
       <c r="G100" s="3">
-        <v>853100</v>
+        <v>-1286200</v>
       </c>
       <c r="H100" s="3">
-        <v>-412000</v>
+        <v>893500</v>
       </c>
       <c r="I100" s="3">
-        <v>-150400</v>
+        <v>-431500</v>
       </c>
       <c r="J100" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-559600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-996700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>737000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>90800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-275400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>323000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-242800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-191300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>93700</v>
+        <v>-78400</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>98200</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>9100</v>
       </c>
       <c r="G101" s="3">
-        <v>-19600</v>
+        <v>-2300</v>
       </c>
       <c r="H101" s="3">
-        <v>27600</v>
+        <v>-20500</v>
       </c>
       <c r="I101" s="3">
-        <v>-2900</v>
+        <v>28900</v>
       </c>
       <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>16700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>32400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>58000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-67000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>48400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-109400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>61500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-37600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23990900</v>
+        <v>8830900</v>
       </c>
       <c r="E102" s="3">
-        <v>664200</v>
+        <v>25126600</v>
       </c>
       <c r="F102" s="3">
-        <v>-73400</v>
+        <v>695600</v>
       </c>
       <c r="G102" s="3">
-        <v>-172200</v>
+        <v>-76900</v>
       </c>
       <c r="H102" s="3">
-        <v>65400</v>
+        <v>-180400</v>
       </c>
       <c r="I102" s="3">
-        <v>-212200</v>
+        <v>68500</v>
       </c>
       <c r="J102" s="3">
+        <v>-222200</v>
+      </c>
+      <c r="K102" s="3">
         <v>521000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1363300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-103400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-570800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>440600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>330300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-242000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2921100</v>
+        <v>2954600</v>
       </c>
       <c r="E8" s="3">
-        <v>3578600</v>
+        <v>3619700</v>
       </c>
       <c r="F8" s="3">
-        <v>3944000</v>
+        <v>3989200</v>
       </c>
       <c r="G8" s="3">
-        <v>4016300</v>
+        <v>4062300</v>
       </c>
       <c r="H8" s="3">
-        <v>4011700</v>
+        <v>4057700</v>
       </c>
       <c r="I8" s="3">
-        <v>3824500</v>
+        <v>3868300</v>
       </c>
       <c r="J8" s="3">
-        <v>3899800</v>
+        <v>3944600</v>
       </c>
       <c r="K8" s="3">
         <v>3441600</v>
@@ -1147,25 +1147,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1243600</v>
+        <v>1257900</v>
       </c>
       <c r="E17" s="3">
-        <v>2551200</v>
+        <v>2580400</v>
       </c>
       <c r="F17" s="3">
-        <v>2041200</v>
+        <v>2064700</v>
       </c>
       <c r="G17" s="3">
-        <v>2190400</v>
+        <v>2215500</v>
       </c>
       <c r="H17" s="3">
-        <v>2182800</v>
+        <v>2207800</v>
       </c>
       <c r="I17" s="3">
-        <v>2146300</v>
+        <v>2170900</v>
       </c>
       <c r="J17" s="3">
-        <v>2181300</v>
+        <v>2206300</v>
       </c>
       <c r="K17" s="3">
         <v>1788400</v>
@@ -1200,25 +1200,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1677400</v>
+        <v>1696700</v>
       </c>
       <c r="E18" s="3">
-        <v>1027500</v>
+        <v>1039300</v>
       </c>
       <c r="F18" s="3">
-        <v>1902700</v>
+        <v>1924600</v>
       </c>
       <c r="G18" s="3">
-        <v>1825900</v>
+        <v>1846800</v>
       </c>
       <c r="H18" s="3">
-        <v>1828900</v>
+        <v>1849900</v>
       </c>
       <c r="I18" s="3">
-        <v>1678200</v>
+        <v>1697500</v>
       </c>
       <c r="J18" s="3">
-        <v>1718500</v>
+        <v>1738300</v>
       </c>
       <c r="K18" s="3">
         <v>1653200</v>
@@ -1274,25 +1274,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-550300</v>
+        <v>-556600</v>
       </c>
       <c r="E20" s="3">
-        <v>-675800</v>
+        <v>-683600</v>
       </c>
       <c r="F20" s="3">
-        <v>-739000</v>
+        <v>-747500</v>
       </c>
       <c r="G20" s="3">
-        <v>-659900</v>
+        <v>-667400</v>
       </c>
       <c r="H20" s="3">
-        <v>-481000</v>
+        <v>-486500</v>
       </c>
       <c r="I20" s="3">
-        <v>-385100</v>
+        <v>-389500</v>
       </c>
       <c r="J20" s="3">
-        <v>-602000</v>
+        <v>-608900</v>
       </c>
       <c r="K20" s="3">
         <v>-492700</v>
@@ -1327,25 +1327,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1316700</v>
+        <v>1331800</v>
       </c>
       <c r="E21" s="3">
-        <v>564700</v>
+        <v>571200</v>
       </c>
       <c r="F21" s="3">
-        <v>1350900</v>
+        <v>1366400</v>
       </c>
       <c r="G21" s="3">
-        <v>1403400</v>
+        <v>1419500</v>
       </c>
       <c r="H21" s="3">
-        <v>1482600</v>
+        <v>1499600</v>
       </c>
       <c r="I21" s="3">
-        <v>1428600</v>
+        <v>1445000</v>
       </c>
       <c r="J21" s="3">
-        <v>1246700</v>
+        <v>1261000</v>
       </c>
       <c r="K21" s="3">
         <v>1278200</v>
@@ -1433,25 +1433,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1127200</v>
+        <v>1140100</v>
       </c>
       <c r="E23" s="3">
-        <v>351600</v>
+        <v>355700</v>
       </c>
       <c r="F23" s="3">
-        <v>1163700</v>
+        <v>1177100</v>
       </c>
       <c r="G23" s="3">
-        <v>1166000</v>
+        <v>1179400</v>
       </c>
       <c r="H23" s="3">
-        <v>1347900</v>
+        <v>1363400</v>
       </c>
       <c r="I23" s="3">
-        <v>1293100</v>
+        <v>1307900</v>
       </c>
       <c r="J23" s="3">
-        <v>1116500</v>
+        <v>1129300</v>
       </c>
       <c r="K23" s="3">
         <v>1160500</v>
@@ -1486,25 +1486,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>235200</v>
+        <v>237900</v>
       </c>
       <c r="E24" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="F24" s="3">
-        <v>241300</v>
+        <v>244000</v>
       </c>
       <c r="G24" s="3">
-        <v>258000</v>
+        <v>261000</v>
       </c>
       <c r="H24" s="3">
-        <v>283900</v>
+        <v>287100</v>
       </c>
       <c r="I24" s="3">
-        <v>267100</v>
+        <v>270200</v>
       </c>
       <c r="J24" s="3">
-        <v>216900</v>
+        <v>219400</v>
       </c>
       <c r="K24" s="3">
         <v>239100</v>
@@ -1592,25 +1592,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>892000</v>
+        <v>902200</v>
       </c>
       <c r="E26" s="3">
-        <v>298300</v>
+        <v>301800</v>
       </c>
       <c r="F26" s="3">
-        <v>922400</v>
+        <v>933000</v>
       </c>
       <c r="G26" s="3">
-        <v>908000</v>
+        <v>918400</v>
       </c>
       <c r="H26" s="3">
-        <v>1064000</v>
+        <v>1076200</v>
       </c>
       <c r="I26" s="3">
-        <v>1025900</v>
+        <v>1037700</v>
       </c>
       <c r="J26" s="3">
-        <v>899600</v>
+        <v>909900</v>
       </c>
       <c r="K26" s="3">
         <v>921400</v>
@@ -1645,25 +1645,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>866900</v>
+        <v>876800</v>
       </c>
       <c r="E27" s="3">
-        <v>281600</v>
+        <v>284800</v>
       </c>
       <c r="F27" s="3">
-        <v>893500</v>
+        <v>903800</v>
       </c>
       <c r="G27" s="3">
-        <v>877500</v>
+        <v>887600</v>
       </c>
       <c r="H27" s="3">
-        <v>1038100</v>
+        <v>1050000</v>
       </c>
       <c r="I27" s="3">
-        <v>999300</v>
+        <v>1010800</v>
       </c>
       <c r="J27" s="3">
-        <v>879100</v>
+        <v>889100</v>
       </c>
       <c r="K27" s="3">
         <v>902500</v>
@@ -1910,25 +1910,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>550300</v>
+        <v>556600</v>
       </c>
       <c r="E32" s="3">
-        <v>675800</v>
+        <v>683600</v>
       </c>
       <c r="F32" s="3">
-        <v>739000</v>
+        <v>747500</v>
       </c>
       <c r="G32" s="3">
-        <v>659900</v>
+        <v>667400</v>
       </c>
       <c r="H32" s="3">
-        <v>481000</v>
+        <v>486500</v>
       </c>
       <c r="I32" s="3">
-        <v>385100</v>
+        <v>389500</v>
       </c>
       <c r="J32" s="3">
-        <v>602000</v>
+        <v>608900</v>
       </c>
       <c r="K32" s="3">
         <v>492700</v>
@@ -1963,25 +1963,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>866900</v>
+        <v>876800</v>
       </c>
       <c r="E33" s="3">
-        <v>281600</v>
+        <v>284800</v>
       </c>
       <c r="F33" s="3">
-        <v>893500</v>
+        <v>903800</v>
       </c>
       <c r="G33" s="3">
-        <v>877500</v>
+        <v>887600</v>
       </c>
       <c r="H33" s="3">
-        <v>1038100</v>
+        <v>1050000</v>
       </c>
       <c r="I33" s="3">
-        <v>999300</v>
+        <v>1010800</v>
       </c>
       <c r="J33" s="3">
-        <v>879100</v>
+        <v>889100</v>
       </c>
       <c r="K33" s="3">
         <v>902500</v>
@@ -2069,25 +2069,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>866900</v>
+        <v>876800</v>
       </c>
       <c r="E35" s="3">
-        <v>281600</v>
+        <v>284800</v>
       </c>
       <c r="F35" s="3">
-        <v>893500</v>
+        <v>903800</v>
       </c>
       <c r="G35" s="3">
-        <v>877500</v>
+        <v>887600</v>
       </c>
       <c r="H35" s="3">
-        <v>1038100</v>
+        <v>1050000</v>
       </c>
       <c r="I35" s="3">
-        <v>999300</v>
+        <v>1010800</v>
       </c>
       <c r="J35" s="3">
-        <v>879100</v>
+        <v>889100</v>
       </c>
       <c r="K35" s="3">
         <v>902500</v>
@@ -2222,25 +2222,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37575800</v>
+        <v>38006800</v>
       </c>
       <c r="E41" s="3">
-        <v>28744800</v>
+        <v>29074600</v>
       </c>
       <c r="F41" s="3">
-        <v>3618200</v>
+        <v>3659700</v>
       </c>
       <c r="G41" s="3">
-        <v>2922600</v>
+        <v>2956100</v>
       </c>
       <c r="H41" s="3">
-        <v>2999500</v>
+        <v>3033900</v>
       </c>
       <c r="I41" s="3">
-        <v>3179800</v>
+        <v>3216300</v>
       </c>
       <c r="J41" s="3">
-        <v>3111300</v>
+        <v>3147000</v>
       </c>
       <c r="K41" s="3">
         <v>3182900</v>
@@ -2275,25 +2275,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>141115200</v>
+        <v>142733900</v>
       </c>
       <c r="E42" s="3">
-        <v>142533100</v>
+        <v>144168000</v>
       </c>
       <c r="F42" s="3">
-        <v>128272600</v>
+        <v>129743900</v>
       </c>
       <c r="G42" s="3">
-        <v>115370600</v>
+        <v>116693900</v>
       </c>
       <c r="H42" s="3">
-        <v>114059200</v>
+        <v>115367500</v>
       </c>
       <c r="I42" s="3">
-        <v>113614000</v>
+        <v>114917200</v>
       </c>
       <c r="J42" s="3">
-        <v>109979000</v>
+        <v>111240500</v>
       </c>
       <c r="K42" s="3">
         <v>99017300</v>
@@ -2540,25 +2540,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>488600</v>
+        <v>494200</v>
       </c>
       <c r="E47" s="3">
-        <v>467300</v>
+        <v>472700</v>
       </c>
       <c r="F47" s="3">
-        <v>438400</v>
+        <v>443400</v>
       </c>
       <c r="G47" s="3">
-        <v>446000</v>
+        <v>451100</v>
       </c>
       <c r="H47" s="3">
-        <v>444500</v>
+        <v>449600</v>
       </c>
       <c r="I47" s="3">
-        <v>420900</v>
+        <v>425700</v>
       </c>
       <c r="J47" s="3">
-        <v>395800</v>
+        <v>400300</v>
       </c>
       <c r="K47" s="3">
         <v>382200</v>
@@ -2593,25 +2593,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2300800</v>
+        <v>2327200</v>
       </c>
       <c r="E48" s="3">
-        <v>2332000</v>
+        <v>2358700</v>
       </c>
       <c r="F48" s="3">
-        <v>2349500</v>
+        <v>2376400</v>
       </c>
       <c r="G48" s="3">
-        <v>1379900</v>
+        <v>1395700</v>
       </c>
       <c r="H48" s="3">
-        <v>1347900</v>
+        <v>1363400</v>
       </c>
       <c r="I48" s="3">
-        <v>1359300</v>
+        <v>1374900</v>
       </c>
       <c r="J48" s="3">
-        <v>1357000</v>
+        <v>1372600</v>
       </c>
       <c r="K48" s="3">
         <v>1304400</v>
@@ -2646,25 +2646,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5666300</v>
+        <v>5731300</v>
       </c>
       <c r="E49" s="3">
-        <v>5814000</v>
+        <v>5880700</v>
       </c>
       <c r="F49" s="3">
-        <v>5644200</v>
+        <v>5709000</v>
       </c>
       <c r="G49" s="3">
-        <v>5645800</v>
+        <v>5710500</v>
       </c>
       <c r="H49" s="3">
-        <v>5702800</v>
+        <v>5768300</v>
       </c>
       <c r="I49" s="3">
-        <v>5763000</v>
+        <v>5829100</v>
       </c>
       <c r="J49" s="3">
-        <v>5689100</v>
+        <v>5754400</v>
       </c>
       <c r="K49" s="3">
         <v>5456700</v>
@@ -2805,25 +2805,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>511500</v>
+        <v>517300</v>
       </c>
       <c r="E52" s="3">
-        <v>417100</v>
+        <v>421900</v>
       </c>
       <c r="F52" s="3">
-        <v>427000</v>
+        <v>431900</v>
       </c>
       <c r="G52" s="3">
-        <v>393500</v>
+        <v>398000</v>
       </c>
       <c r="H52" s="3">
-        <v>414000</v>
+        <v>418800</v>
       </c>
       <c r="I52" s="3">
-        <v>406400</v>
+        <v>411100</v>
       </c>
       <c r="J52" s="3">
-        <v>472600</v>
+        <v>478100</v>
       </c>
       <c r="K52" s="3">
         <v>436700</v>
@@ -2911,25 +2911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>584931900</v>
+        <v>591641300</v>
       </c>
       <c r="E54" s="3">
-        <v>577770800</v>
+        <v>584398100</v>
       </c>
       <c r="F54" s="3">
-        <v>511542300</v>
+        <v>517409900</v>
       </c>
       <c r="G54" s="3">
-        <v>495929300</v>
+        <v>501617800</v>
       </c>
       <c r="H54" s="3">
-        <v>489017100</v>
+        <v>494626300</v>
       </c>
       <c r="I54" s="3">
-        <v>482614000</v>
+        <v>488149800</v>
       </c>
       <c r="J54" s="3">
-        <v>467801700</v>
+        <v>473167600</v>
       </c>
       <c r="K54" s="3">
         <v>433905900</v>
@@ -3218,25 +3218,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4431100</v>
+        <v>4481900</v>
       </c>
       <c r="E61" s="3">
-        <v>3666900</v>
+        <v>3709000</v>
       </c>
       <c r="F61" s="3">
-        <v>3573300</v>
+        <v>3614300</v>
       </c>
       <c r="G61" s="3">
-        <v>3564900</v>
+        <v>3605800</v>
       </c>
       <c r="H61" s="3">
-        <v>4277300</v>
+        <v>4326400</v>
       </c>
       <c r="I61" s="3">
-        <v>3174500</v>
+        <v>3210900</v>
       </c>
       <c r="J61" s="3">
-        <v>3167700</v>
+        <v>3204000</v>
       </c>
       <c r="K61" s="3">
         <v>2964900</v>
@@ -3271,25 +3271,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="E62" s="3">
-        <v>27400</v>
+        <v>27700</v>
       </c>
       <c r="F62" s="3">
-        <v>26600</v>
+        <v>26900</v>
       </c>
       <c r="G62" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="H62" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="I62" s="3">
-        <v>30400</v>
+        <v>30800</v>
       </c>
       <c r="J62" s="3">
-        <v>31200</v>
+        <v>31600</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -3483,25 +3483,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>554549200</v>
+        <v>560910100</v>
       </c>
       <c r="E66" s="3">
-        <v>547274700</v>
+        <v>553552200</v>
       </c>
       <c r="F66" s="3">
-        <v>481830100</v>
+        <v>487356900</v>
       </c>
       <c r="G66" s="3">
-        <v>466708000</v>
+        <v>472061300</v>
       </c>
       <c r="H66" s="3">
-        <v>460226600</v>
+        <v>465505500</v>
       </c>
       <c r="I66" s="3">
-        <v>454430900</v>
+        <v>459643400</v>
       </c>
       <c r="J66" s="3">
-        <v>440471700</v>
+        <v>445524100</v>
       </c>
       <c r="K66" s="3">
         <v>408513100</v>
@@ -3663,25 +3663,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2150100</v>
+        <v>2174700</v>
       </c>
       <c r="E70" s="3">
-        <v>2150100</v>
+        <v>2174700</v>
       </c>
       <c r="F70" s="3">
-        <v>2150100</v>
+        <v>2174700</v>
       </c>
       <c r="G70" s="3">
-        <v>2150100</v>
+        <v>2174700</v>
       </c>
       <c r="H70" s="3">
-        <v>2150100</v>
+        <v>2174700</v>
       </c>
       <c r="I70" s="3">
-        <v>1959800</v>
+        <v>1982300</v>
       </c>
       <c r="J70" s="3">
-        <v>1959800</v>
+        <v>1982300</v>
       </c>
       <c r="K70" s="3">
         <v>1635100</v>
@@ -3769,25 +3769,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16535400</v>
+        <v>16725100</v>
       </c>
       <c r="E72" s="3">
-        <v>16164000</v>
+        <v>16349400</v>
       </c>
       <c r="F72" s="3">
-        <v>16396200</v>
+        <v>16584200</v>
       </c>
       <c r="G72" s="3">
-        <v>15961600</v>
+        <v>16144700</v>
       </c>
       <c r="H72" s="3">
-        <v>15629000</v>
+        <v>15808300</v>
       </c>
       <c r="I72" s="3">
-        <v>15064300</v>
+        <v>15237000</v>
       </c>
       <c r="J72" s="3">
-        <v>14537600</v>
+        <v>14704300</v>
       </c>
       <c r="K72" s="3">
         <v>13470700</v>
@@ -3981,25 +3981,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28232600</v>
+        <v>28556500</v>
       </c>
       <c r="E76" s="3">
-        <v>28346000</v>
+        <v>28671200</v>
       </c>
       <c r="F76" s="3">
-        <v>27562100</v>
+        <v>27878300</v>
       </c>
       <c r="G76" s="3">
-        <v>27071200</v>
+        <v>27381700</v>
       </c>
       <c r="H76" s="3">
-        <v>26640400</v>
+        <v>26946000</v>
       </c>
       <c r="I76" s="3">
-        <v>26223400</v>
+        <v>26524100</v>
       </c>
       <c r="J76" s="3">
-        <v>25370200</v>
+        <v>25661200</v>
       </c>
       <c r="K76" s="3">
         <v>23757700</v>
@@ -4145,25 +4145,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>866900</v>
+        <v>876800</v>
       </c>
       <c r="E81" s="3">
-        <v>281600</v>
+        <v>284800</v>
       </c>
       <c r="F81" s="3">
-        <v>893500</v>
+        <v>903800</v>
       </c>
       <c r="G81" s="3">
-        <v>877500</v>
+        <v>887600</v>
       </c>
       <c r="H81" s="3">
-        <v>1038100</v>
+        <v>1050000</v>
       </c>
       <c r="I81" s="3">
-        <v>999300</v>
+        <v>1010800</v>
       </c>
       <c r="J81" s="3">
-        <v>879100</v>
+        <v>889100</v>
       </c>
       <c r="K81" s="3">
         <v>902500</v>
@@ -4219,25 +4219,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>189500</v>
+        <v>191700</v>
       </c>
       <c r="E83" s="3">
-        <v>213100</v>
+        <v>215500</v>
       </c>
       <c r="F83" s="3">
-        <v>187200</v>
+        <v>189400</v>
       </c>
       <c r="G83" s="3">
-        <v>237500</v>
+        <v>240200</v>
       </c>
       <c r="H83" s="3">
-        <v>134700</v>
+        <v>136300</v>
       </c>
       <c r="I83" s="3">
-        <v>135500</v>
+        <v>137000</v>
       </c>
       <c r="J83" s="3">
-        <v>130100</v>
+        <v>131600</v>
       </c>
       <c r="K83" s="3">
         <v>117700</v>
@@ -4537,25 +4537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14137200</v>
+        <v>14299400</v>
       </c>
       <c r="E89" s="3">
-        <v>33517600</v>
+        <v>33902100</v>
       </c>
       <c r="F89" s="3">
-        <v>513700</v>
+        <v>519600</v>
       </c>
       <c r="G89" s="3">
-        <v>4545200</v>
+        <v>4597400</v>
       </c>
       <c r="H89" s="3">
-        <v>1937700</v>
+        <v>1960000</v>
       </c>
       <c r="I89" s="3">
-        <v>3273400</v>
+        <v>3311000</v>
       </c>
       <c r="J89" s="3">
-        <v>4426500</v>
+        <v>4477300</v>
       </c>
       <c r="K89" s="3">
         <v>-880700</v>
@@ -4611,25 +4611,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-74600</v>
+        <v>-75400</v>
       </c>
       <c r="E91" s="3">
-        <v>-37300</v>
+        <v>-37700</v>
       </c>
       <c r="F91" s="3">
-        <v>-47200</v>
+        <v>-47700</v>
       </c>
       <c r="G91" s="3">
-        <v>-80700</v>
+        <v>-81600</v>
       </c>
       <c r="H91" s="3">
-        <v>-41100</v>
+        <v>-41600</v>
       </c>
       <c r="I91" s="3">
-        <v>-43400</v>
+        <v>-43900</v>
       </c>
       <c r="J91" s="3">
-        <v>-41900</v>
+        <v>-42300</v>
       </c>
       <c r="K91" s="3">
         <v>-95900</v>
@@ -4770,25 +4770,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5470700</v>
+        <v>-5533500</v>
       </c>
       <c r="E94" s="3">
-        <v>-7913100</v>
+        <v>-8003800</v>
       </c>
       <c r="F94" s="3">
-        <v>775600</v>
+        <v>784400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3333600</v>
+        <v>-3371800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2991100</v>
+        <v>-3025400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2802300</v>
+        <v>-2834500</v>
       </c>
       <c r="J94" s="3">
-        <v>-4488100</v>
+        <v>-4539600</v>
       </c>
       <c r="K94" s="3">
         <v>1944600</v>
@@ -4844,25 +4844,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-488600</v>
+        <v>-494200</v>
       </c>
       <c r="E96" s="3">
-        <v>-489400</v>
+        <v>-495000</v>
       </c>
       <c r="F96" s="3">
-        <v>-484100</v>
+        <v>-489600</v>
       </c>
       <c r="G96" s="3">
-        <v>-474200</v>
+        <v>-479600</v>
       </c>
       <c r="H96" s="3">
-        <v>-465800</v>
+        <v>-471100</v>
       </c>
       <c r="I96" s="3">
-        <v>-458200</v>
+        <v>-463400</v>
       </c>
       <c r="J96" s="3">
-        <v>-433100</v>
+        <v>-438000</v>
       </c>
       <c r="K96" s="3">
         <v>-420800</v>
@@ -5056,25 +5056,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>242800</v>
+        <v>245600</v>
       </c>
       <c r="E100" s="3">
-        <v>-576100</v>
+        <v>-582800</v>
       </c>
       <c r="F100" s="3">
-        <v>-602800</v>
+        <v>-609700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1286200</v>
+        <v>-1301000</v>
       </c>
       <c r="H100" s="3">
-        <v>893500</v>
+        <v>903800</v>
       </c>
       <c r="I100" s="3">
-        <v>-431500</v>
+        <v>-436500</v>
       </c>
       <c r="J100" s="3">
-        <v>-157500</v>
+        <v>-159400</v>
       </c>
       <c r="K100" s="3">
         <v>-559600</v>
@@ -5109,25 +5109,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-78400</v>
+        <v>-79300</v>
       </c>
       <c r="E101" s="3">
-        <v>98200</v>
+        <v>99300</v>
       </c>
       <c r="F101" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G101" s="3">
         <v>-2300</v>
       </c>
       <c r="H101" s="3">
-        <v>-20500</v>
+        <v>-20800</v>
       </c>
       <c r="I101" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="J101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="K101" s="3">
         <v>16700</v>
@@ -5162,25 +5162,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8830900</v>
+        <v>8932200</v>
       </c>
       <c r="E102" s="3">
-        <v>25126600</v>
+        <v>25414800</v>
       </c>
       <c r="F102" s="3">
-        <v>695600</v>
+        <v>703600</v>
       </c>
       <c r="G102" s="3">
-        <v>-76900</v>
+        <v>-77800</v>
       </c>
       <c r="H102" s="3">
-        <v>-180400</v>
+        <v>-182400</v>
       </c>
       <c r="I102" s="3">
-        <v>68500</v>
+        <v>69300</v>
       </c>
       <c r="J102" s="3">
-        <v>-222200</v>
+        <v>-224800</v>
       </c>
       <c r="K102" s="3">
         <v>521000</v>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,139 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2954600</v>
+        <v>2990500</v>
       </c>
       <c r="E8" s="3">
-        <v>3619700</v>
+        <v>3013500</v>
       </c>
       <c r="F8" s="3">
-        <v>3989200</v>
+        <v>3043600</v>
       </c>
       <c r="G8" s="3">
-        <v>4062300</v>
+        <v>3728800</v>
       </c>
       <c r="H8" s="3">
-        <v>4057700</v>
+        <v>4109400</v>
       </c>
       <c r="I8" s="3">
+        <v>4184800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4180000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3868300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3944600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3441600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3429700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3183500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2964900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2846600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2543700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2426100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2452200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +849,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +908,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +935,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +990,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1049,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1108,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1167,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1191,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1257900</v>
+        <v>855700</v>
       </c>
       <c r="E17" s="3">
-        <v>2580400</v>
+        <v>1030100</v>
       </c>
       <c r="F17" s="3">
-        <v>2064700</v>
+        <v>1295800</v>
       </c>
       <c r="G17" s="3">
-        <v>2215500</v>
+        <v>2658200</v>
       </c>
       <c r="H17" s="3">
-        <v>2207800</v>
+        <v>2126900</v>
       </c>
       <c r="I17" s="3">
+        <v>2282300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2274400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2170900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2206300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1788400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1671200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1479200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1238400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1183300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1005400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>954100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>969500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1696700</v>
+        <v>2134800</v>
       </c>
       <c r="E18" s="3">
-        <v>1039300</v>
+        <v>1983300</v>
       </c>
       <c r="F18" s="3">
-        <v>1924600</v>
+        <v>1747800</v>
       </c>
       <c r="G18" s="3">
-        <v>1846800</v>
+        <v>1070600</v>
       </c>
       <c r="H18" s="3">
-        <v>1849900</v>
+        <v>1982600</v>
       </c>
       <c r="I18" s="3">
+        <v>1902500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1905600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1697500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1738300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1653200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1758500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1704300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1726600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1663300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1538300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1471900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1482700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1332,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-556600</v>
+        <v>-477400</v>
       </c>
       <c r="E20" s="3">
-        <v>-683600</v>
+        <v>-858800</v>
       </c>
       <c r="F20" s="3">
-        <v>-747500</v>
+        <v>-573400</v>
       </c>
       <c r="G20" s="3">
-        <v>-667400</v>
+        <v>-704200</v>
       </c>
       <c r="H20" s="3">
-        <v>-486500</v>
+        <v>-770000</v>
       </c>
       <c r="I20" s="3">
+        <v>-687500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-501200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-389500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-608900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-492700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-453200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-464500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-440600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-569300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-464400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-516300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-159000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1331800</v>
+        <v>1845400</v>
       </c>
       <c r="E21" s="3">
-        <v>571200</v>
+        <v>1375100</v>
       </c>
       <c r="F21" s="3">
-        <v>1366400</v>
+        <v>1371900</v>
       </c>
       <c r="G21" s="3">
-        <v>1419500</v>
+        <v>566200</v>
       </c>
       <c r="H21" s="3">
-        <v>1499600</v>
+        <v>1407600</v>
       </c>
       <c r="I21" s="3">
+        <v>1462300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1544800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1445000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1261000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1278200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1431100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1361800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1409500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1207100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1180300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1053200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1415800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1505,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1140100</v>
+        <v>1657400</v>
       </c>
       <c r="E23" s="3">
-        <v>355700</v>
+        <v>1124500</v>
       </c>
       <c r="F23" s="3">
-        <v>1177100</v>
+        <v>1174500</v>
       </c>
       <c r="G23" s="3">
-        <v>1179400</v>
+        <v>366400</v>
       </c>
       <c r="H23" s="3">
-        <v>1363400</v>
+        <v>1212500</v>
       </c>
       <c r="I23" s="3">
+        <v>1214900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1404400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1307900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1129300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1160500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1305300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1239800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1286000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1094000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1073900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>955700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1323700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>237900</v>
+        <v>368800</v>
       </c>
       <c r="E24" s="3">
-        <v>53900</v>
+        <v>318800</v>
       </c>
       <c r="F24" s="3">
-        <v>244000</v>
+        <v>245000</v>
       </c>
       <c r="G24" s="3">
-        <v>261000</v>
+        <v>55500</v>
       </c>
       <c r="H24" s="3">
-        <v>287100</v>
+        <v>251400</v>
       </c>
       <c r="I24" s="3">
+        <v>268800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K24" s="3">
         <v>270200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>219400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>239100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>274800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>246900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>232200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>227700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>257500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>149000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>242800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1682,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>902200</v>
+        <v>1288700</v>
       </c>
       <c r="E26" s="3">
-        <v>301800</v>
+        <v>805700</v>
       </c>
       <c r="F26" s="3">
-        <v>933000</v>
+        <v>929400</v>
       </c>
       <c r="G26" s="3">
-        <v>918400</v>
+        <v>310900</v>
       </c>
       <c r="H26" s="3">
-        <v>1076200</v>
+        <v>961100</v>
       </c>
       <c r="I26" s="3">
+        <v>946100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1108600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1037700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>909900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>921400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1030600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>992900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1053800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>866300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>816400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>806600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1080900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>876800</v>
+        <v>1261700</v>
       </c>
       <c r="E27" s="3">
-        <v>284800</v>
+        <v>781100</v>
       </c>
       <c r="F27" s="3">
-        <v>903800</v>
+        <v>903200</v>
       </c>
       <c r="G27" s="3">
-        <v>887600</v>
+        <v>293400</v>
       </c>
       <c r="H27" s="3">
-        <v>1050000</v>
+        <v>931000</v>
       </c>
       <c r="I27" s="3">
+        <v>914400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1081700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1010800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>889100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>902500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1010200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>970300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1036700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>844700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>806700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>795100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1070100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1859,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1780,15 +1900,15 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-65500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1798,8 +1918,14 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1977,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +2036,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>556600</v>
+        <v>477400</v>
       </c>
       <c r="E32" s="3">
-        <v>683600</v>
+        <v>858800</v>
       </c>
       <c r="F32" s="3">
-        <v>747500</v>
+        <v>573400</v>
       </c>
       <c r="G32" s="3">
-        <v>667400</v>
+        <v>704200</v>
       </c>
       <c r="H32" s="3">
-        <v>486500</v>
+        <v>770000</v>
       </c>
       <c r="I32" s="3">
+        <v>687500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>501200</v>
+      </c>
+      <c r="K32" s="3">
         <v>389500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>608900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>492700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>453200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>464500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>440600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>569300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>464400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>516300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>159000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>876800</v>
+        <v>1261700</v>
       </c>
       <c r="E33" s="3">
-        <v>284800</v>
+        <v>781100</v>
       </c>
       <c r="F33" s="3">
-        <v>903800</v>
+        <v>903200</v>
       </c>
       <c r="G33" s="3">
-        <v>887600</v>
+        <v>293400</v>
       </c>
       <c r="H33" s="3">
-        <v>1050000</v>
+        <v>931000</v>
       </c>
       <c r="I33" s="3">
+        <v>914400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1081700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1010800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>889100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>902500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1010200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>970300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>971200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>844700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>806700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>795100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1070100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2213,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>876800</v>
+        <v>1261700</v>
       </c>
       <c r="E35" s="3">
-        <v>284800</v>
+        <v>781100</v>
       </c>
       <c r="F35" s="3">
-        <v>903800</v>
+        <v>903200</v>
       </c>
       <c r="G35" s="3">
-        <v>887600</v>
+        <v>293400</v>
       </c>
       <c r="H35" s="3">
-        <v>1050000</v>
+        <v>931000</v>
       </c>
       <c r="I35" s="3">
+        <v>914400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1081700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1010800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>889100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>902500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1010200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>970300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>971200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>844700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>806700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>795100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1070100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2363,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2386,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38006800</v>
+        <v>34088800</v>
       </c>
       <c r="E41" s="3">
-        <v>29074600</v>
+        <v>34521000</v>
       </c>
       <c r="F41" s="3">
-        <v>3659700</v>
+        <v>39152200</v>
       </c>
       <c r="G41" s="3">
-        <v>2956100</v>
+        <v>29950800</v>
       </c>
       <c r="H41" s="3">
-        <v>3033900</v>
+        <v>3770000</v>
       </c>
       <c r="I41" s="3">
+        <v>3045200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3125300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3216300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3147000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3182900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2757500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3848300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2456600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2560100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3130900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2777200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2446800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>142733900</v>
+        <v>156210700</v>
       </c>
       <c r="E42" s="3">
-        <v>144168000</v>
+        <v>149525500</v>
       </c>
       <c r="F42" s="3">
-        <v>129743900</v>
+        <v>147035400</v>
       </c>
       <c r="G42" s="3">
-        <v>116693900</v>
+        <v>148512800</v>
       </c>
       <c r="H42" s="3">
-        <v>115367500</v>
+        <v>133654000</v>
       </c>
       <c r="I42" s="3">
+        <v>120210700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>118844400</v>
+      </c>
+      <c r="K42" s="3">
         <v>114917200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>111240500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>99017300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>102777700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>104055200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>109982300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>97603900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>100635800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>107950900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>104933300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2559,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2618,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2677,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2736,191 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>494200</v>
+        <v>521800</v>
       </c>
       <c r="E47" s="3">
-        <v>472700</v>
+        <v>521800</v>
       </c>
       <c r="F47" s="3">
-        <v>443400</v>
+        <v>509100</v>
       </c>
       <c r="G47" s="3">
-        <v>451100</v>
+        <v>486900</v>
       </c>
       <c r="H47" s="3">
-        <v>449600</v>
+        <v>456800</v>
       </c>
       <c r="I47" s="3">
+        <v>464700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>463100</v>
+      </c>
+      <c r="K47" s="3">
         <v>425700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>400300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>382200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>375600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>393700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>413000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>532100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>550700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>564600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>545400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2327200</v>
+        <v>2325100</v>
       </c>
       <c r="E48" s="3">
-        <v>2358700</v>
+        <v>2376700</v>
       </c>
       <c r="F48" s="3">
-        <v>2376400</v>
+        <v>2397300</v>
       </c>
       <c r="G48" s="3">
-        <v>1395700</v>
+        <v>2429800</v>
       </c>
       <c r="H48" s="3">
-        <v>1363400</v>
+        <v>2448100</v>
       </c>
       <c r="I48" s="3">
+        <v>1437700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1404400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1374900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1372600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1304400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1304600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1314400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1291200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1326900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1311300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1379700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1345900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5731300</v>
+        <v>5571800</v>
       </c>
       <c r="E49" s="3">
-        <v>5880700</v>
+        <v>5720800</v>
       </c>
       <c r="F49" s="3">
-        <v>5709000</v>
+        <v>5904000</v>
       </c>
       <c r="G49" s="3">
-        <v>5710500</v>
+        <v>6057900</v>
       </c>
       <c r="H49" s="3">
-        <v>5768300</v>
+        <v>5881000</v>
       </c>
       <c r="I49" s="3">
+        <v>5882600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5942100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5829100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5754400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5456700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5594000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5551800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5348600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5466200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5152200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2307000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2267000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2972,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +3031,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>517300</v>
+        <v>411600</v>
       </c>
       <c r="E52" s="3">
-        <v>421900</v>
+        <v>515500</v>
       </c>
       <c r="F52" s="3">
-        <v>431900</v>
+        <v>532900</v>
       </c>
       <c r="G52" s="3">
-        <v>398000</v>
+        <v>434600</v>
       </c>
       <c r="H52" s="3">
-        <v>418800</v>
+        <v>444900</v>
       </c>
       <c r="I52" s="3">
+        <v>410000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>431400</v>
+      </c>
+      <c r="K52" s="3">
         <v>411100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>478100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>436700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>402700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>455400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>451700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>541000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>529900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>540100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>490900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3149,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>591641300</v>
+        <v>620861700</v>
       </c>
       <c r="E54" s="3">
-        <v>584398100</v>
+        <v>610269300</v>
       </c>
       <c r="F54" s="3">
-        <v>517409900</v>
+        <v>609471600</v>
       </c>
       <c r="G54" s="3">
-        <v>501617800</v>
+        <v>602010000</v>
       </c>
       <c r="H54" s="3">
-        <v>494626300</v>
+        <v>533003000</v>
       </c>
       <c r="I54" s="3">
+        <v>516735000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>509532800</v>
+      </c>
+      <c r="K54" s="3">
         <v>488149800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>473167600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>433905900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>447928900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>444550300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>436796900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>420675100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>417436300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>406079500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>394327800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3235,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3258,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3313,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,8 +3372,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3159,8 +3431,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3490,132 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4481900</v>
+        <v>3721600</v>
       </c>
       <c r="E61" s="3">
-        <v>3709000</v>
+        <v>4529700</v>
       </c>
       <c r="F61" s="3">
-        <v>3614300</v>
+        <v>4617000</v>
       </c>
       <c r="G61" s="3">
-        <v>3605800</v>
+        <v>3820800</v>
       </c>
       <c r="H61" s="3">
-        <v>4326400</v>
+        <v>3723200</v>
       </c>
       <c r="I61" s="3">
+        <v>3714500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4456800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3210900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3204000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2964900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>12182400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>13819700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>13686800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>12593500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>11741400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>12597400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>11580300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E62" s="3">
         <v>26200</v>
       </c>
-      <c r="E62" s="3">
-        <v>27700</v>
-      </c>
       <c r="F62" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="G62" s="3">
-        <v>29300</v>
+        <v>28500</v>
       </c>
       <c r="H62" s="3">
-        <v>29300</v>
+        <v>27800</v>
       </c>
       <c r="I62" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K62" s="3">
         <v>30800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>31600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>31200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>23300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>24100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>23800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>22300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>22300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>15400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>16900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3667,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3726,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3785,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>560910100</v>
+        <v>587751500</v>
       </c>
       <c r="E66" s="3">
-        <v>553552200</v>
+        <v>577633400</v>
       </c>
       <c r="F66" s="3">
-        <v>487356900</v>
+        <v>577814200</v>
       </c>
       <c r="G66" s="3">
-        <v>472061300</v>
+        <v>570234500</v>
       </c>
       <c r="H66" s="3">
-        <v>465505500</v>
+        <v>502044300</v>
       </c>
       <c r="I66" s="3">
+        <v>486287800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>479534400</v>
+      </c>
+      <c r="K66" s="3">
         <v>459643400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>445524100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>408513100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>422047200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>419432800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>412881800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>397578600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>395235000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>386360500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>375481600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3871,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3926,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,61 +3985,73 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2174700</v>
+        <v>2835000</v>
       </c>
       <c r="E70" s="3">
-        <v>2174700</v>
+        <v>2835000</v>
       </c>
       <c r="F70" s="3">
-        <v>2174700</v>
+        <v>2240300</v>
       </c>
       <c r="G70" s="3">
-        <v>2174700</v>
+        <v>2240300</v>
       </c>
       <c r="H70" s="3">
-        <v>2174700</v>
+        <v>2240300</v>
       </c>
       <c r="I70" s="3">
+        <v>2240300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2240300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1982300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1982300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1635100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1693800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1692300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>1671500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1337300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>768200</v>
-      </c>
-      <c r="R70" s="3">
-        <v>768200</v>
       </c>
       <c r="S70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>768200</v>
+      </c>
+      <c r="U70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +4103,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16725100</v>
+        <v>18287000</v>
       </c>
       <c r="E72" s="3">
-        <v>16349400</v>
+        <v>17540800</v>
       </c>
       <c r="F72" s="3">
-        <v>16584200</v>
+        <v>17229200</v>
       </c>
       <c r="G72" s="3">
-        <v>16144700</v>
+        <v>16842200</v>
       </c>
       <c r="H72" s="3">
-        <v>15808300</v>
+        <v>17084000</v>
       </c>
       <c r="I72" s="3">
+        <v>16631200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>16284700</v>
+      </c>
+      <c r="K72" s="3">
         <v>15237000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>14704300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>13470700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>13588600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>13107600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>12429100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>11982500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>11561300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>11531900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>11126300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4221,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4280,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4339,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28556500</v>
+        <v>30275100</v>
       </c>
       <c r="E76" s="3">
-        <v>28671200</v>
+        <v>29800900</v>
       </c>
       <c r="F76" s="3">
-        <v>27878300</v>
+        <v>29417100</v>
       </c>
       <c r="G76" s="3">
-        <v>27381700</v>
+        <v>29535200</v>
       </c>
       <c r="H76" s="3">
-        <v>26946000</v>
+        <v>28718400</v>
       </c>
       <c r="I76" s="3">
+        <v>28206900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>27758100</v>
+      </c>
+      <c r="K76" s="3">
         <v>26524100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>25661200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>23757700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24187900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>23425300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>22243700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>21759200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>20864700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>18950700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>18078000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4457,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>876800</v>
+        <v>1261700</v>
       </c>
       <c r="E81" s="3">
-        <v>284800</v>
+        <v>781100</v>
       </c>
       <c r="F81" s="3">
-        <v>903800</v>
+        <v>903200</v>
       </c>
       <c r="G81" s="3">
-        <v>887600</v>
+        <v>293400</v>
       </c>
       <c r="H81" s="3">
-        <v>1050000</v>
+        <v>931000</v>
       </c>
       <c r="I81" s="3">
+        <v>914400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1081700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1010800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>889100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>902500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1010200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>970300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>971200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>844700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>806700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>795100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1070100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4607,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>191700</v>
+        <v>187900</v>
       </c>
       <c r="E83" s="3">
-        <v>215500</v>
+        <v>250600</v>
       </c>
       <c r="F83" s="3">
-        <v>189400</v>
+        <v>197500</v>
       </c>
       <c r="G83" s="3">
-        <v>240200</v>
+        <v>199800</v>
       </c>
       <c r="H83" s="3">
-        <v>136300</v>
+        <v>195100</v>
       </c>
       <c r="I83" s="3">
+        <v>247400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K83" s="3">
         <v>137000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>131600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>117700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>125700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>122000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>123500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>113100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>106400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>97600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>92200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4721,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4780,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4839,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4898,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4957,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14299400</v>
+        <v>-969900</v>
       </c>
       <c r="E89" s="3">
-        <v>33902100</v>
+        <v>-2374300</v>
       </c>
       <c r="F89" s="3">
-        <v>519600</v>
+        <v>14730300</v>
       </c>
       <c r="G89" s="3">
-        <v>4597400</v>
+        <v>34923800</v>
       </c>
       <c r="H89" s="3">
-        <v>1960000</v>
+        <v>535300</v>
       </c>
       <c r="I89" s="3">
+        <v>4735900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2019000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3311000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4477300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-880700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1409200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4979000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1929700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1486900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1329900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2179500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +5043,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75400</v>
+        <v>-56300</v>
       </c>
       <c r="E91" s="3">
-        <v>-37700</v>
+        <v>-79300</v>
       </c>
       <c r="F91" s="3">
-        <v>-47700</v>
+        <v>-77700</v>
       </c>
       <c r="G91" s="3">
-        <v>-81600</v>
+        <v>-38900</v>
       </c>
       <c r="H91" s="3">
-        <v>-41600</v>
+        <v>-49200</v>
       </c>
       <c r="I91" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-43900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-42300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-95900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-28600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-33900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-29800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +5157,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +5216,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5533500</v>
+        <v>1953200</v>
       </c>
       <c r="E94" s="3">
-        <v>-8003800</v>
+        <v>-2253800</v>
       </c>
       <c r="F94" s="3">
-        <v>784400</v>
+        <v>-5700200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3371800</v>
+        <v>-8245000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3025400</v>
+        <v>808100</v>
       </c>
       <c r="I94" s="3">
+        <v>-3473400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3116600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1944600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>3186600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5302,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-494200</v>
+        <v>-516300</v>
       </c>
       <c r="E96" s="3">
-        <v>-495000</v>
+        <v>-515500</v>
       </c>
       <c r="F96" s="3">
-        <v>-489600</v>
+        <v>-509100</v>
       </c>
       <c r="G96" s="3">
-        <v>-479600</v>
+        <v>-509900</v>
       </c>
       <c r="H96" s="3">
-        <v>-471100</v>
+        <v>-504400</v>
       </c>
       <c r="I96" s="3">
+        <v>-494100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-485300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-463400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-438000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-420800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-426100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-428300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-294000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>115400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-416800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-397900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-385700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5416,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5475,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5534,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>245600</v>
+        <v>-1337800</v>
       </c>
       <c r="E100" s="3">
-        <v>-582800</v>
+        <v>7100</v>
       </c>
       <c r="F100" s="3">
-        <v>-609700</v>
+        <v>253000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1301000</v>
+        <v>-600300</v>
       </c>
       <c r="H100" s="3">
-        <v>903800</v>
+        <v>-628100</v>
       </c>
       <c r="I100" s="3">
+        <v>-1340200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>931000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-436500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-159400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-559600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-996700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>737000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>90800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-275400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>323000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-242800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-191300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-79300</v>
+        <v>-77700</v>
       </c>
       <c r="E101" s="3">
-        <v>99300</v>
+        <v>-10300</v>
       </c>
       <c r="F101" s="3">
-        <v>9200</v>
+        <v>-81700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2300</v>
+        <v>102300</v>
       </c>
       <c r="H101" s="3">
-        <v>-20800</v>
+        <v>9500</v>
       </c>
       <c r="I101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K101" s="3">
         <v>29300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>16700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>32400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>58000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-67000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>48400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-109400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>61500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-37600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8932200</v>
+        <v>-432200</v>
       </c>
       <c r="E102" s="3">
-        <v>25414800</v>
+        <v>-4631200</v>
       </c>
       <c r="F102" s="3">
-        <v>703600</v>
+        <v>9201400</v>
       </c>
       <c r="G102" s="3">
-        <v>-77800</v>
+        <v>26180800</v>
       </c>
       <c r="H102" s="3">
-        <v>-182400</v>
+        <v>724800</v>
       </c>
       <c r="I102" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-187900</v>
+      </c>
+      <c r="K102" s="3">
         <v>69300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-224800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>521000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1363300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-103400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-570800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>440600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>330300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-242000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -743,25 +743,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2990500</v>
+        <v>3126300</v>
       </c>
       <c r="E8" s="3">
-        <v>3013500</v>
+        <v>3150400</v>
       </c>
       <c r="F8" s="3">
-        <v>3043600</v>
+        <v>3181900</v>
       </c>
       <c r="G8" s="3">
-        <v>3728800</v>
+        <v>3898200</v>
       </c>
       <c r="H8" s="3">
-        <v>4109400</v>
+        <v>4296100</v>
       </c>
       <c r="I8" s="3">
-        <v>4184800</v>
+        <v>4374900</v>
       </c>
       <c r="J8" s="3">
-        <v>4180000</v>
+        <v>4369900</v>
       </c>
       <c r="K8" s="3">
         <v>3868300</v>
@@ -1199,25 +1199,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>855700</v>
+        <v>894500</v>
       </c>
       <c r="E17" s="3">
-        <v>1030100</v>
+        <v>1076900</v>
       </c>
       <c r="F17" s="3">
-        <v>1295800</v>
+        <v>1354700</v>
       </c>
       <c r="G17" s="3">
-        <v>2658200</v>
+        <v>2779000</v>
       </c>
       <c r="H17" s="3">
-        <v>2126900</v>
+        <v>2223500</v>
       </c>
       <c r="I17" s="3">
-        <v>2282300</v>
+        <v>2386000</v>
       </c>
       <c r="J17" s="3">
-        <v>2274400</v>
+        <v>2377700</v>
       </c>
       <c r="K17" s="3">
         <v>2170900</v>
@@ -1258,25 +1258,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2134800</v>
+        <v>2231800</v>
       </c>
       <c r="E18" s="3">
-        <v>1983300</v>
+        <v>2073500</v>
       </c>
       <c r="F18" s="3">
-        <v>1747800</v>
+        <v>1827200</v>
       </c>
       <c r="G18" s="3">
-        <v>1070600</v>
+        <v>1119200</v>
       </c>
       <c r="H18" s="3">
-        <v>1982600</v>
+        <v>2072600</v>
       </c>
       <c r="I18" s="3">
-        <v>1902500</v>
+        <v>1988900</v>
       </c>
       <c r="J18" s="3">
-        <v>1905600</v>
+        <v>1992200</v>
       </c>
       <c r="K18" s="3">
         <v>1697500</v>
@@ -1340,25 +1340,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-477400</v>
+        <v>-499100</v>
       </c>
       <c r="E20" s="3">
-        <v>-858800</v>
+        <v>-897900</v>
       </c>
       <c r="F20" s="3">
-        <v>-573400</v>
+        <v>-599400</v>
       </c>
       <c r="G20" s="3">
-        <v>-704200</v>
+        <v>-736200</v>
       </c>
       <c r="H20" s="3">
-        <v>-770000</v>
+        <v>-805000</v>
       </c>
       <c r="I20" s="3">
-        <v>-687500</v>
+        <v>-718800</v>
       </c>
       <c r="J20" s="3">
-        <v>-501200</v>
+        <v>-524000</v>
       </c>
       <c r="K20" s="3">
         <v>-389500</v>
@@ -1399,25 +1399,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1845400</v>
+        <v>1929200</v>
       </c>
       <c r="E21" s="3">
-        <v>1375100</v>
+        <v>1437600</v>
       </c>
       <c r="F21" s="3">
-        <v>1371900</v>
+        <v>1434300</v>
       </c>
       <c r="G21" s="3">
-        <v>566200</v>
+        <v>591900</v>
       </c>
       <c r="H21" s="3">
-        <v>1407600</v>
+        <v>1471600</v>
       </c>
       <c r="I21" s="3">
-        <v>1462300</v>
+        <v>1528800</v>
       </c>
       <c r="J21" s="3">
-        <v>1544800</v>
+        <v>1615000</v>
       </c>
       <c r="K21" s="3">
         <v>1445000</v>
@@ -1517,25 +1517,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1657400</v>
+        <v>1732700</v>
       </c>
       <c r="E23" s="3">
-        <v>1124500</v>
+        <v>1175600</v>
       </c>
       <c r="F23" s="3">
-        <v>1174500</v>
+        <v>1227800</v>
       </c>
       <c r="G23" s="3">
-        <v>366400</v>
+        <v>383000</v>
       </c>
       <c r="H23" s="3">
-        <v>1212500</v>
+        <v>1267600</v>
       </c>
       <c r="I23" s="3">
-        <v>1214900</v>
+        <v>1270100</v>
       </c>
       <c r="J23" s="3">
-        <v>1404400</v>
+        <v>1468200</v>
       </c>
       <c r="K23" s="3">
         <v>1307900</v>
@@ -1576,25 +1576,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>368800</v>
+        <v>385500</v>
       </c>
       <c r="E24" s="3">
-        <v>318800</v>
+        <v>333300</v>
       </c>
       <c r="F24" s="3">
-        <v>245000</v>
+        <v>256200</v>
       </c>
       <c r="G24" s="3">
-        <v>55500</v>
+        <v>58000</v>
       </c>
       <c r="H24" s="3">
-        <v>251400</v>
+        <v>262800</v>
       </c>
       <c r="I24" s="3">
-        <v>268800</v>
+        <v>281000</v>
       </c>
       <c r="J24" s="3">
-        <v>295800</v>
+        <v>309200</v>
       </c>
       <c r="K24" s="3">
         <v>270200</v>
@@ -1694,25 +1694,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1288700</v>
+        <v>1347200</v>
       </c>
       <c r="E26" s="3">
-        <v>805700</v>
+        <v>842300</v>
       </c>
       <c r="F26" s="3">
-        <v>929400</v>
+        <v>971600</v>
       </c>
       <c r="G26" s="3">
-        <v>310900</v>
+        <v>325000</v>
       </c>
       <c r="H26" s="3">
-        <v>961100</v>
+        <v>1004800</v>
       </c>
       <c r="I26" s="3">
-        <v>946100</v>
+        <v>989100</v>
       </c>
       <c r="J26" s="3">
-        <v>1108600</v>
+        <v>1159000</v>
       </c>
       <c r="K26" s="3">
         <v>1037700</v>
@@ -1753,25 +1753,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1261700</v>
+        <v>1319000</v>
       </c>
       <c r="E27" s="3">
-        <v>781100</v>
+        <v>816600</v>
       </c>
       <c r="F27" s="3">
-        <v>903200</v>
+        <v>944300</v>
       </c>
       <c r="G27" s="3">
-        <v>293400</v>
+        <v>306700</v>
       </c>
       <c r="H27" s="3">
-        <v>931000</v>
+        <v>973300</v>
       </c>
       <c r="I27" s="3">
-        <v>914400</v>
+        <v>955900</v>
       </c>
       <c r="J27" s="3">
-        <v>1081700</v>
+        <v>1130800</v>
       </c>
       <c r="K27" s="3">
         <v>1010800</v>
@@ -2048,25 +2048,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>477400</v>
+        <v>499100</v>
       </c>
       <c r="E32" s="3">
-        <v>858800</v>
+        <v>897900</v>
       </c>
       <c r="F32" s="3">
-        <v>573400</v>
+        <v>599400</v>
       </c>
       <c r="G32" s="3">
-        <v>704200</v>
+        <v>736200</v>
       </c>
       <c r="H32" s="3">
-        <v>770000</v>
+        <v>805000</v>
       </c>
       <c r="I32" s="3">
-        <v>687500</v>
+        <v>718800</v>
       </c>
       <c r="J32" s="3">
-        <v>501200</v>
+        <v>524000</v>
       </c>
       <c r="K32" s="3">
         <v>389500</v>
@@ -2107,25 +2107,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1261700</v>
+        <v>1319000</v>
       </c>
       <c r="E33" s="3">
-        <v>781100</v>
+        <v>816600</v>
       </c>
       <c r="F33" s="3">
-        <v>903200</v>
+        <v>944300</v>
       </c>
       <c r="G33" s="3">
-        <v>293400</v>
+        <v>306700</v>
       </c>
       <c r="H33" s="3">
-        <v>931000</v>
+        <v>973300</v>
       </c>
       <c r="I33" s="3">
-        <v>914400</v>
+        <v>955900</v>
       </c>
       <c r="J33" s="3">
-        <v>1081700</v>
+        <v>1130800</v>
       </c>
       <c r="K33" s="3">
         <v>1010800</v>
@@ -2225,25 +2225,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1261700</v>
+        <v>1319000</v>
       </c>
       <c r="E35" s="3">
-        <v>781100</v>
+        <v>816600</v>
       </c>
       <c r="F35" s="3">
-        <v>903200</v>
+        <v>944300</v>
       </c>
       <c r="G35" s="3">
-        <v>293400</v>
+        <v>306700</v>
       </c>
       <c r="H35" s="3">
-        <v>931000</v>
+        <v>973300</v>
       </c>
       <c r="I35" s="3">
-        <v>914400</v>
+        <v>955900</v>
       </c>
       <c r="J35" s="3">
-        <v>1081700</v>
+        <v>1130800</v>
       </c>
       <c r="K35" s="3">
         <v>1010800</v>
@@ -2394,25 +2394,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34088800</v>
+        <v>35637500</v>
       </c>
       <c r="E41" s="3">
-        <v>34521000</v>
+        <v>36089400</v>
       </c>
       <c r="F41" s="3">
-        <v>39152200</v>
+        <v>40931000</v>
       </c>
       <c r="G41" s="3">
-        <v>29950800</v>
+        <v>31311600</v>
       </c>
       <c r="H41" s="3">
-        <v>3770000</v>
+        <v>3941300</v>
       </c>
       <c r="I41" s="3">
-        <v>3045200</v>
+        <v>3183600</v>
       </c>
       <c r="J41" s="3">
-        <v>3125300</v>
+        <v>3267300</v>
       </c>
       <c r="K41" s="3">
         <v>3216300</v>
@@ -2453,25 +2453,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156210700</v>
+        <v>163307900</v>
       </c>
       <c r="E42" s="3">
-        <v>149525500</v>
+        <v>156319000</v>
       </c>
       <c r="F42" s="3">
-        <v>147035400</v>
+        <v>153715800</v>
       </c>
       <c r="G42" s="3">
-        <v>148512800</v>
+        <v>155260300</v>
       </c>
       <c r="H42" s="3">
-        <v>133654000</v>
+        <v>139726400</v>
       </c>
       <c r="I42" s="3">
-        <v>120210700</v>
+        <v>125672400</v>
       </c>
       <c r="J42" s="3">
-        <v>118844400</v>
+        <v>124243900</v>
       </c>
       <c r="K42" s="3">
         <v>114917200</v>
@@ -2748,25 +2748,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>521800</v>
+        <v>545500</v>
       </c>
       <c r="E47" s="3">
-        <v>521800</v>
+        <v>545500</v>
       </c>
       <c r="F47" s="3">
-        <v>509100</v>
+        <v>532300</v>
       </c>
       <c r="G47" s="3">
-        <v>486900</v>
+        <v>509000</v>
       </c>
       <c r="H47" s="3">
-        <v>456800</v>
+        <v>477500</v>
       </c>
       <c r="I47" s="3">
-        <v>464700</v>
+        <v>485800</v>
       </c>
       <c r="J47" s="3">
-        <v>463100</v>
+        <v>484200</v>
       </c>
       <c r="K47" s="3">
         <v>425700</v>
@@ -2807,25 +2807,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2325100</v>
+        <v>2430800</v>
       </c>
       <c r="E48" s="3">
-        <v>2376700</v>
+        <v>2484700</v>
       </c>
       <c r="F48" s="3">
-        <v>2397300</v>
+        <v>2506200</v>
       </c>
       <c r="G48" s="3">
-        <v>2429800</v>
+        <v>2540200</v>
       </c>
       <c r="H48" s="3">
-        <v>2448100</v>
+        <v>2559300</v>
       </c>
       <c r="I48" s="3">
-        <v>1437700</v>
+        <v>1503100</v>
       </c>
       <c r="J48" s="3">
-        <v>1404400</v>
+        <v>1468200</v>
       </c>
       <c r="K48" s="3">
         <v>1374900</v>
@@ -2866,25 +2866,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5571800</v>
+        <v>5824900</v>
       </c>
       <c r="E49" s="3">
-        <v>5720800</v>
+        <v>5980800</v>
       </c>
       <c r="F49" s="3">
-        <v>5904000</v>
+        <v>6172300</v>
       </c>
       <c r="G49" s="3">
-        <v>6057900</v>
+        <v>6333100</v>
       </c>
       <c r="H49" s="3">
-        <v>5881000</v>
+        <v>6148200</v>
       </c>
       <c r="I49" s="3">
-        <v>5882600</v>
+        <v>6149900</v>
       </c>
       <c r="J49" s="3">
-        <v>5942100</v>
+        <v>6212100</v>
       </c>
       <c r="K49" s="3">
         <v>5829100</v>
@@ -3043,25 +3043,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>411600</v>
+        <v>430300</v>
       </c>
       <c r="E52" s="3">
-        <v>515500</v>
+        <v>538900</v>
       </c>
       <c r="F52" s="3">
-        <v>532900</v>
+        <v>557100</v>
       </c>
       <c r="G52" s="3">
-        <v>434600</v>
+        <v>454300</v>
       </c>
       <c r="H52" s="3">
-        <v>444900</v>
+        <v>465100</v>
       </c>
       <c r="I52" s="3">
-        <v>410000</v>
+        <v>428600</v>
       </c>
       <c r="J52" s="3">
-        <v>431400</v>
+        <v>451000</v>
       </c>
       <c r="K52" s="3">
         <v>411100</v>
@@ -3161,25 +3161,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>620861700</v>
+        <v>649069900</v>
       </c>
       <c r="E54" s="3">
-        <v>610269300</v>
+        <v>637996300</v>
       </c>
       <c r="F54" s="3">
-        <v>609471600</v>
+        <v>637162200</v>
       </c>
       <c r="G54" s="3">
-        <v>602010000</v>
+        <v>629361700</v>
       </c>
       <c r="H54" s="3">
-        <v>533003000</v>
+        <v>557219400</v>
       </c>
       <c r="I54" s="3">
-        <v>516735000</v>
+        <v>540212300</v>
       </c>
       <c r="J54" s="3">
-        <v>509532800</v>
+        <v>532682900</v>
       </c>
       <c r="K54" s="3">
         <v>488149800</v>
@@ -3502,25 +3502,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3721600</v>
+        <v>3890700</v>
       </c>
       <c r="E61" s="3">
-        <v>4529700</v>
+        <v>4735500</v>
       </c>
       <c r="F61" s="3">
-        <v>4617000</v>
+        <v>4826700</v>
       </c>
       <c r="G61" s="3">
-        <v>3820800</v>
+        <v>3994400</v>
       </c>
       <c r="H61" s="3">
-        <v>3723200</v>
+        <v>3892400</v>
       </c>
       <c r="I61" s="3">
-        <v>3714500</v>
+        <v>3883300</v>
       </c>
       <c r="J61" s="3">
-        <v>4456800</v>
+        <v>4659300</v>
       </c>
       <c r="K61" s="3">
         <v>3210900</v>
@@ -3561,25 +3561,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27800</v>
+        <v>29000</v>
       </c>
       <c r="E62" s="3">
-        <v>26200</v>
+        <v>27400</v>
       </c>
       <c r="F62" s="3">
-        <v>27000</v>
+        <v>28200</v>
       </c>
       <c r="G62" s="3">
-        <v>28500</v>
+        <v>29800</v>
       </c>
       <c r="H62" s="3">
-        <v>27800</v>
+        <v>29000</v>
       </c>
       <c r="I62" s="3">
-        <v>30100</v>
+        <v>31500</v>
       </c>
       <c r="J62" s="3">
-        <v>30100</v>
+        <v>31500</v>
       </c>
       <c r="K62" s="3">
         <v>30800</v>
@@ -3797,25 +3797,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>587751500</v>
+        <v>614455400</v>
       </c>
       <c r="E66" s="3">
-        <v>577633400</v>
+        <v>603877500</v>
       </c>
       <c r="F66" s="3">
-        <v>577814200</v>
+        <v>604066600</v>
       </c>
       <c r="G66" s="3">
-        <v>570234500</v>
+        <v>596142500</v>
       </c>
       <c r="H66" s="3">
-        <v>502044300</v>
+        <v>524854100</v>
       </c>
       <c r="I66" s="3">
-        <v>486287800</v>
+        <v>508381800</v>
       </c>
       <c r="J66" s="3">
-        <v>479534400</v>
+        <v>501321600</v>
       </c>
       <c r="K66" s="3">
         <v>459643400</v>
@@ -3997,25 +3997,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2835000</v>
+        <v>2963900</v>
       </c>
       <c r="E70" s="3">
-        <v>2835000</v>
+        <v>2963900</v>
       </c>
       <c r="F70" s="3">
-        <v>2240300</v>
+        <v>2342100</v>
       </c>
       <c r="G70" s="3">
-        <v>2240300</v>
+        <v>2342100</v>
       </c>
       <c r="H70" s="3">
-        <v>2240300</v>
+        <v>2342100</v>
       </c>
       <c r="I70" s="3">
-        <v>2240300</v>
+        <v>2342100</v>
       </c>
       <c r="J70" s="3">
-        <v>2240300</v>
+        <v>2342100</v>
       </c>
       <c r="K70" s="3">
         <v>1982300</v>
@@ -4115,25 +4115,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18287000</v>
+        <v>19117900</v>
       </c>
       <c r="E72" s="3">
-        <v>17540800</v>
+        <v>18337800</v>
       </c>
       <c r="F72" s="3">
-        <v>17229200</v>
+        <v>18011900</v>
       </c>
       <c r="G72" s="3">
-        <v>16842200</v>
+        <v>17607400</v>
       </c>
       <c r="H72" s="3">
-        <v>17084000</v>
+        <v>17860200</v>
       </c>
       <c r="I72" s="3">
-        <v>16631200</v>
+        <v>17386800</v>
       </c>
       <c r="J72" s="3">
-        <v>16284700</v>
+        <v>17024500</v>
       </c>
       <c r="K72" s="3">
         <v>15237000</v>
@@ -4351,25 +4351,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30275100</v>
+        <v>31650600</v>
       </c>
       <c r="E76" s="3">
-        <v>29800900</v>
+        <v>31154900</v>
       </c>
       <c r="F76" s="3">
-        <v>29417100</v>
+        <v>30753600</v>
       </c>
       <c r="G76" s="3">
-        <v>29535200</v>
+        <v>30877100</v>
       </c>
       <c r="H76" s="3">
-        <v>28718400</v>
+        <v>30023200</v>
       </c>
       <c r="I76" s="3">
-        <v>28206900</v>
+        <v>29488500</v>
       </c>
       <c r="J76" s="3">
-        <v>27758100</v>
+        <v>29019200</v>
       </c>
       <c r="K76" s="3">
         <v>26524100</v>
@@ -4533,25 +4533,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1261700</v>
+        <v>1319000</v>
       </c>
       <c r="E81" s="3">
-        <v>781100</v>
+        <v>816600</v>
       </c>
       <c r="F81" s="3">
-        <v>903200</v>
+        <v>944300</v>
       </c>
       <c r="G81" s="3">
-        <v>293400</v>
+        <v>306700</v>
       </c>
       <c r="H81" s="3">
-        <v>931000</v>
+        <v>973300</v>
       </c>
       <c r="I81" s="3">
-        <v>914400</v>
+        <v>955900</v>
       </c>
       <c r="J81" s="3">
-        <v>1081700</v>
+        <v>1130800</v>
       </c>
       <c r="K81" s="3">
         <v>1010800</v>
@@ -4615,25 +4615,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>187900</v>
+        <v>196500</v>
       </c>
       <c r="E83" s="3">
-        <v>250600</v>
+        <v>262000</v>
       </c>
       <c r="F83" s="3">
-        <v>197500</v>
+        <v>206400</v>
       </c>
       <c r="G83" s="3">
-        <v>199800</v>
+        <v>208900</v>
       </c>
       <c r="H83" s="3">
-        <v>195100</v>
+        <v>203900</v>
       </c>
       <c r="I83" s="3">
-        <v>247400</v>
+        <v>258700</v>
       </c>
       <c r="J83" s="3">
-        <v>140400</v>
+        <v>146700</v>
       </c>
       <c r="K83" s="3">
         <v>137000</v>
@@ -4969,25 +4969,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-969900</v>
+        <v>-1013900</v>
       </c>
       <c r="E89" s="3">
-        <v>-2374300</v>
+        <v>-2482200</v>
       </c>
       <c r="F89" s="3">
-        <v>14730300</v>
+        <v>15399600</v>
       </c>
       <c r="G89" s="3">
-        <v>34923800</v>
+        <v>36510500</v>
       </c>
       <c r="H89" s="3">
-        <v>535300</v>
+        <v>559600</v>
       </c>
       <c r="I89" s="3">
-        <v>4735900</v>
+        <v>4951100</v>
       </c>
       <c r="J89" s="3">
-        <v>2019000</v>
+        <v>2110800</v>
       </c>
       <c r="K89" s="3">
         <v>3311000</v>
@@ -5051,25 +5051,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56300</v>
+        <v>-58900</v>
       </c>
       <c r="E91" s="3">
-        <v>-79300</v>
+        <v>-82900</v>
       </c>
       <c r="F91" s="3">
-        <v>-77700</v>
+        <v>-81200</v>
       </c>
       <c r="G91" s="3">
-        <v>-38900</v>
+        <v>-40600</v>
       </c>
       <c r="H91" s="3">
-        <v>-49200</v>
+        <v>-51400</v>
       </c>
       <c r="I91" s="3">
-        <v>-84100</v>
+        <v>-87900</v>
       </c>
       <c r="J91" s="3">
-        <v>-42800</v>
+        <v>-44800</v>
       </c>
       <c r="K91" s="3">
         <v>-43900</v>
@@ -5228,25 +5228,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1953200</v>
+        <v>2042000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2253800</v>
+        <v>-2356200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5700200</v>
+        <v>-5959200</v>
       </c>
       <c r="G94" s="3">
-        <v>-8245000</v>
+        <v>-8619600</v>
       </c>
       <c r="H94" s="3">
-        <v>808100</v>
+        <v>844800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3473400</v>
+        <v>-3631200</v>
       </c>
       <c r="J94" s="3">
-        <v>-3116600</v>
+        <v>-3258200</v>
       </c>
       <c r="K94" s="3">
         <v>-2834500</v>
@@ -5310,25 +5310,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-516300</v>
+        <v>-539700</v>
       </c>
       <c r="E96" s="3">
-        <v>-515500</v>
+        <v>-538900</v>
       </c>
       <c r="F96" s="3">
-        <v>-509100</v>
+        <v>-532300</v>
       </c>
       <c r="G96" s="3">
-        <v>-509900</v>
+        <v>-533100</v>
       </c>
       <c r="H96" s="3">
-        <v>-504400</v>
+        <v>-527300</v>
       </c>
       <c r="I96" s="3">
-        <v>-494100</v>
+        <v>-516500</v>
       </c>
       <c r="J96" s="3">
-        <v>-485300</v>
+        <v>-507400</v>
       </c>
       <c r="K96" s="3">
         <v>-463400</v>
@@ -5546,25 +5546,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1337800</v>
+        <v>-1398600</v>
       </c>
       <c r="E100" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="F100" s="3">
-        <v>253000</v>
+        <v>264500</v>
       </c>
       <c r="G100" s="3">
-        <v>-600300</v>
+        <v>-627600</v>
       </c>
       <c r="H100" s="3">
-        <v>-628100</v>
+        <v>-656600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1340200</v>
+        <v>-1401100</v>
       </c>
       <c r="J100" s="3">
-        <v>931000</v>
+        <v>973300</v>
       </c>
       <c r="K100" s="3">
         <v>-436500</v>
@@ -5605,25 +5605,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-77700</v>
+        <v>-81200</v>
       </c>
       <c r="E101" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="F101" s="3">
-        <v>-81700</v>
+        <v>-85400</v>
       </c>
       <c r="G101" s="3">
-        <v>102300</v>
+        <v>106900</v>
       </c>
       <c r="H101" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="I101" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J101" s="3">
-        <v>-21400</v>
+        <v>-22400</v>
       </c>
       <c r="K101" s="3">
         <v>29300</v>
@@ -5664,25 +5664,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-432200</v>
+        <v>-451800</v>
       </c>
       <c r="E102" s="3">
-        <v>-4631200</v>
+        <v>-4841700</v>
       </c>
       <c r="F102" s="3">
-        <v>9201400</v>
+        <v>9619500</v>
       </c>
       <c r="G102" s="3">
-        <v>26180800</v>
+        <v>27370300</v>
       </c>
       <c r="H102" s="3">
-        <v>724800</v>
+        <v>757800</v>
       </c>
       <c r="I102" s="3">
-        <v>-80100</v>
+        <v>-83700</v>
       </c>
       <c r="J102" s="3">
-        <v>-187900</v>
+        <v>-196500</v>
       </c>
       <c r="K102" s="3">
         <v>69300</v>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3126300</v>
+        <v>2785800</v>
       </c>
       <c r="E8" s="3">
-        <v>3150400</v>
+        <v>2940100</v>
       </c>
       <c r="F8" s="3">
-        <v>3181900</v>
+        <v>2962700</v>
       </c>
       <c r="G8" s="3">
-        <v>3898200</v>
+        <v>2992400</v>
       </c>
       <c r="H8" s="3">
-        <v>4296100</v>
+        <v>3666000</v>
       </c>
       <c r="I8" s="3">
-        <v>4374900</v>
+        <v>4040200</v>
       </c>
       <c r="J8" s="3">
+        <v>4114300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4369900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3868300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3944600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3441600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3429700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3183500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2964900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2846600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2543700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2426100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2452200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>894500</v>
+        <v>669000</v>
       </c>
       <c r="E17" s="3">
-        <v>1076900</v>
+        <v>841300</v>
       </c>
       <c r="F17" s="3">
-        <v>1354700</v>
+        <v>1012800</v>
       </c>
       <c r="G17" s="3">
-        <v>2779000</v>
+        <v>1274000</v>
       </c>
       <c r="H17" s="3">
-        <v>2223500</v>
+        <v>2613500</v>
       </c>
       <c r="I17" s="3">
-        <v>2386000</v>
+        <v>2091100</v>
       </c>
       <c r="J17" s="3">
+        <v>2243900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2377700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2170900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2206300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1788400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1671200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1479200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1238400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1183300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1005400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>954100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>969500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2231800</v>
+        <v>2116800</v>
       </c>
       <c r="E18" s="3">
-        <v>2073500</v>
+        <v>2098900</v>
       </c>
       <c r="F18" s="3">
-        <v>1827200</v>
+        <v>1950000</v>
       </c>
       <c r="G18" s="3">
-        <v>1119200</v>
+        <v>1718400</v>
       </c>
       <c r="H18" s="3">
-        <v>2072600</v>
+        <v>1052600</v>
       </c>
       <c r="I18" s="3">
-        <v>1988900</v>
+        <v>1949200</v>
       </c>
       <c r="J18" s="3">
+        <v>1870400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1992200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1697500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1738300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1653200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1758500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1704300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1726600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1663300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1538300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1471900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1482700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-499100</v>
+        <v>-445200</v>
       </c>
       <c r="E20" s="3">
-        <v>-897900</v>
+        <v>-469400</v>
       </c>
       <c r="F20" s="3">
-        <v>-599400</v>
+        <v>-844400</v>
       </c>
       <c r="G20" s="3">
-        <v>-736200</v>
+        <v>-563700</v>
       </c>
       <c r="H20" s="3">
-        <v>-805000</v>
+        <v>-692300</v>
       </c>
       <c r="I20" s="3">
-        <v>-718800</v>
+        <v>-757100</v>
       </c>
       <c r="J20" s="3">
+        <v>-676000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-524000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-389500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-608900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-492700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-453200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-464500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-440600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-569300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-464400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-516300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-159000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1929200</v>
+        <v>1865800</v>
       </c>
       <c r="E21" s="3">
-        <v>1437600</v>
+        <v>1814300</v>
       </c>
       <c r="F21" s="3">
-        <v>1434300</v>
+        <v>1351900</v>
       </c>
       <c r="G21" s="3">
-        <v>591900</v>
+        <v>1348800</v>
       </c>
       <c r="H21" s="3">
-        <v>1471600</v>
+        <v>556700</v>
       </c>
       <c r="I21" s="3">
-        <v>1528800</v>
+        <v>1383900</v>
       </c>
       <c r="J21" s="3">
+        <v>1437700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1615000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1445000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1261000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1278200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1431100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1361800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1409500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1207100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1180300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1053200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1415800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1732700</v>
+        <v>1671600</v>
       </c>
       <c r="E23" s="3">
-        <v>1175600</v>
+        <v>1629500</v>
       </c>
       <c r="F23" s="3">
-        <v>1227800</v>
+        <v>1105600</v>
       </c>
       <c r="G23" s="3">
-        <v>383000</v>
+        <v>1154700</v>
       </c>
       <c r="H23" s="3">
-        <v>1267600</v>
+        <v>360200</v>
       </c>
       <c r="I23" s="3">
-        <v>1270100</v>
+        <v>1192100</v>
       </c>
       <c r="J23" s="3">
+        <v>1194500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1468200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1307900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1129300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1160500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1305300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1239800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1094000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1073900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>955700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1323700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>385500</v>
+        <v>384400</v>
       </c>
       <c r="E24" s="3">
-        <v>333300</v>
+        <v>362500</v>
       </c>
       <c r="F24" s="3">
-        <v>256200</v>
+        <v>313400</v>
       </c>
       <c r="G24" s="3">
-        <v>58000</v>
+        <v>240900</v>
       </c>
       <c r="H24" s="3">
-        <v>262800</v>
+        <v>54600</v>
       </c>
       <c r="I24" s="3">
-        <v>281000</v>
+        <v>247200</v>
       </c>
       <c r="J24" s="3">
+        <v>264300</v>
+      </c>
+      <c r="K24" s="3">
         <v>309200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>270200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>219400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>239100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>274800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>246900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>232200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>227700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>257500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>149000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>242800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1347200</v>
+        <v>1287200</v>
       </c>
       <c r="E26" s="3">
-        <v>842300</v>
+        <v>1267000</v>
       </c>
       <c r="F26" s="3">
-        <v>971600</v>
+        <v>792100</v>
       </c>
       <c r="G26" s="3">
-        <v>325000</v>
+        <v>913800</v>
       </c>
       <c r="H26" s="3">
-        <v>1004800</v>
+        <v>305600</v>
       </c>
       <c r="I26" s="3">
-        <v>989100</v>
+        <v>945000</v>
       </c>
       <c r="J26" s="3">
+        <v>930100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1159000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1037700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>909900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>921400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1030600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>992900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1053800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>866300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>816400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>806600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1080900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1319000</v>
+        <v>1244400</v>
       </c>
       <c r="E27" s="3">
-        <v>816600</v>
+        <v>1240500</v>
       </c>
       <c r="F27" s="3">
-        <v>944300</v>
+        <v>768000</v>
       </c>
       <c r="G27" s="3">
-        <v>306700</v>
+        <v>888000</v>
       </c>
       <c r="H27" s="3">
-        <v>973300</v>
+        <v>288500</v>
       </c>
       <c r="I27" s="3">
-        <v>955900</v>
+        <v>915300</v>
       </c>
       <c r="J27" s="3">
+        <v>899000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1130800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1010800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>889100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>902500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1010200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>970300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1036700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>844700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>806700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>795100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1070100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,31 +1922,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1906,12 +1966,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-65500</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>499100</v>
+        <v>445200</v>
       </c>
       <c r="E32" s="3">
-        <v>897900</v>
+        <v>469400</v>
       </c>
       <c r="F32" s="3">
-        <v>599400</v>
+        <v>844400</v>
       </c>
       <c r="G32" s="3">
-        <v>736200</v>
+        <v>563700</v>
       </c>
       <c r="H32" s="3">
-        <v>805000</v>
+        <v>692300</v>
       </c>
       <c r="I32" s="3">
-        <v>718800</v>
+        <v>757100</v>
       </c>
       <c r="J32" s="3">
+        <v>676000</v>
+      </c>
+      <c r="K32" s="3">
         <v>524000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>389500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>608900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>492700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>453200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>464500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>440600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>569300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>464400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>516300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>159000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1319000</v>
+        <v>1244400</v>
       </c>
       <c r="E33" s="3">
-        <v>816600</v>
+        <v>1240500</v>
       </c>
       <c r="F33" s="3">
-        <v>944300</v>
+        <v>768000</v>
       </c>
       <c r="G33" s="3">
-        <v>306700</v>
+        <v>888000</v>
       </c>
       <c r="H33" s="3">
-        <v>973300</v>
+        <v>288500</v>
       </c>
       <c r="I33" s="3">
-        <v>955900</v>
+        <v>915300</v>
       </c>
       <c r="J33" s="3">
+        <v>899000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1130800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1010800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>889100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>902500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1010200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>970300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>971200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>844700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>806700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>795100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1070100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1319000</v>
+        <v>1244400</v>
       </c>
       <c r="E35" s="3">
-        <v>816600</v>
+        <v>1240500</v>
       </c>
       <c r="F35" s="3">
-        <v>944300</v>
+        <v>768000</v>
       </c>
       <c r="G35" s="3">
-        <v>306700</v>
+        <v>888000</v>
       </c>
       <c r="H35" s="3">
-        <v>973300</v>
+        <v>288500</v>
       </c>
       <c r="I35" s="3">
-        <v>955900</v>
+        <v>915300</v>
       </c>
       <c r="J35" s="3">
+        <v>899000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1130800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1010800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>889100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>902500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1010200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>970300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>971200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>844700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>806700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>795100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1070100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35637500</v>
+        <v>20991800</v>
       </c>
       <c r="E41" s="3">
-        <v>36089400</v>
+        <v>33514900</v>
       </c>
       <c r="F41" s="3">
-        <v>40931000</v>
+        <v>33939800</v>
       </c>
       <c r="G41" s="3">
-        <v>31311600</v>
+        <v>38493100</v>
       </c>
       <c r="H41" s="3">
-        <v>3941300</v>
+        <v>29446600</v>
       </c>
       <c r="I41" s="3">
-        <v>3183600</v>
+        <v>3706600</v>
       </c>
       <c r="J41" s="3">
+        <v>2993900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3267300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3216300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3147000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3182900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2757500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3848300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2456600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2560100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3130900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2777200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2446800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>163307900</v>
+        <v>158358800</v>
       </c>
       <c r="E42" s="3">
-        <v>156319000</v>
+        <v>153581000</v>
       </c>
       <c r="F42" s="3">
-        <v>153715800</v>
+        <v>147008300</v>
       </c>
       <c r="G42" s="3">
-        <v>155260300</v>
+        <v>144560200</v>
       </c>
       <c r="H42" s="3">
-        <v>139726400</v>
+        <v>146012700</v>
       </c>
       <c r="I42" s="3">
-        <v>125672400</v>
+        <v>131404000</v>
       </c>
       <c r="J42" s="3">
+        <v>118187100</v>
+      </c>
+      <c r="K42" s="3">
         <v>124243900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114917200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>111240500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>99017300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102777700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>104055200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>109982300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97603900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100635800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>107950900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>104933300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>545500</v>
+        <v>499800</v>
       </c>
       <c r="E47" s="3">
-        <v>545500</v>
+        <v>513000</v>
       </c>
       <c r="F47" s="3">
-        <v>532300</v>
+        <v>513000</v>
       </c>
       <c r="G47" s="3">
-        <v>509000</v>
+        <v>500500</v>
       </c>
       <c r="H47" s="3">
-        <v>477500</v>
+        <v>478700</v>
       </c>
       <c r="I47" s="3">
-        <v>485800</v>
+        <v>449100</v>
       </c>
       <c r="J47" s="3">
+        <v>456900</v>
+      </c>
+      <c r="K47" s="3">
         <v>484200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>425700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>382200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>375600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>393700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>413000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>532100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>550700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>564600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>545400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2430800</v>
+        <v>2203300</v>
       </c>
       <c r="E48" s="3">
-        <v>2484700</v>
+        <v>2286000</v>
       </c>
       <c r="F48" s="3">
-        <v>2506200</v>
+        <v>2336700</v>
       </c>
       <c r="G48" s="3">
-        <v>2540200</v>
+        <v>2356900</v>
       </c>
       <c r="H48" s="3">
-        <v>2559300</v>
+        <v>2388900</v>
       </c>
       <c r="I48" s="3">
-        <v>1503100</v>
+        <v>2406800</v>
       </c>
       <c r="J48" s="3">
+        <v>1413500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1468200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1374900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1372600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1304400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1304600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1314400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1291200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1326900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1311300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1379700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1345900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5824900</v>
+        <v>5357900</v>
       </c>
       <c r="E49" s="3">
-        <v>5980800</v>
+        <v>5478000</v>
       </c>
       <c r="F49" s="3">
-        <v>6172300</v>
+        <v>5624500</v>
       </c>
       <c r="G49" s="3">
-        <v>6333100</v>
+        <v>5804600</v>
       </c>
       <c r="H49" s="3">
-        <v>6148200</v>
+        <v>5955900</v>
       </c>
       <c r="I49" s="3">
-        <v>6149900</v>
+        <v>5782000</v>
       </c>
       <c r="J49" s="3">
+        <v>5783600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6212100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5829100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5754400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5456700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5594000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5551800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5348600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5466200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5152200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2307000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2267000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>430300</v>
+        <v>337600</v>
       </c>
       <c r="E52" s="3">
-        <v>538900</v>
+        <v>404600</v>
       </c>
       <c r="F52" s="3">
-        <v>557100</v>
+        <v>506800</v>
       </c>
       <c r="G52" s="3">
-        <v>454300</v>
+        <v>523900</v>
       </c>
       <c r="H52" s="3">
-        <v>465100</v>
+        <v>427300</v>
       </c>
       <c r="I52" s="3">
-        <v>428600</v>
+        <v>437400</v>
       </c>
       <c r="J52" s="3">
+        <v>403100</v>
+      </c>
+      <c r="K52" s="3">
         <v>451000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>411100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>478100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>436700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>402700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>455400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>451700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>541000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>529900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>540100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>490900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>649069900</v>
+        <v>610386500</v>
       </c>
       <c r="E54" s="3">
-        <v>637996300</v>
+        <v>610409900</v>
       </c>
       <c r="F54" s="3">
-        <v>637162200</v>
+        <v>599995800</v>
       </c>
       <c r="G54" s="3">
-        <v>629361700</v>
+        <v>599211500</v>
       </c>
       <c r="H54" s="3">
-        <v>557219400</v>
+        <v>591875600</v>
       </c>
       <c r="I54" s="3">
-        <v>540212300</v>
+        <v>524030200</v>
       </c>
       <c r="J54" s="3">
+        <v>508036100</v>
+      </c>
+      <c r="K54" s="3">
         <v>532682900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>488149800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>473167600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>433905900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>447928900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>444550300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>436796900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>420675100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>417436300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>406079500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>394327800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3319,8 +3449,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,8 +3511,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3437,8 +3573,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3890700</v>
+        <v>4407500</v>
       </c>
       <c r="E61" s="3">
-        <v>4735500</v>
+        <v>3659000</v>
       </c>
       <c r="F61" s="3">
-        <v>4826700</v>
+        <v>4453500</v>
       </c>
       <c r="G61" s="3">
-        <v>3994400</v>
+        <v>4539200</v>
       </c>
       <c r="H61" s="3">
-        <v>3892400</v>
+        <v>3756500</v>
       </c>
       <c r="I61" s="3">
-        <v>3883300</v>
+        <v>3660600</v>
       </c>
       <c r="J61" s="3">
+        <v>3652000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4659300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3210900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3204000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2964900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12182400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13819700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13686800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12593500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11741400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12597400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11580300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29000</v>
+        <v>27300</v>
       </c>
       <c r="E62" s="3">
-        <v>27400</v>
+        <v>27300</v>
       </c>
       <c r="F62" s="3">
-        <v>28200</v>
+        <v>25700</v>
       </c>
       <c r="G62" s="3">
-        <v>29800</v>
+        <v>26500</v>
       </c>
       <c r="H62" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="I62" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K62" s="3">
         <v>31500</v>
       </c>
-      <c r="J62" s="3">
-        <v>31500</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>22300</v>
       </c>
       <c r="R62" s="3">
         <v>22300</v>
       </c>
       <c r="S62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="T62" s="3">
         <v>15400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>614455400</v>
+        <v>577242700</v>
       </c>
       <c r="E66" s="3">
-        <v>603877500</v>
+        <v>577857100</v>
       </c>
       <c r="F66" s="3">
-        <v>604066600</v>
+        <v>567909300</v>
       </c>
       <c r="G66" s="3">
-        <v>596142500</v>
+        <v>568087100</v>
       </c>
       <c r="H66" s="3">
-        <v>524854100</v>
+        <v>560635000</v>
       </c>
       <c r="I66" s="3">
-        <v>508381800</v>
+        <v>493592700</v>
       </c>
       <c r="J66" s="3">
+        <v>478101400</v>
+      </c>
+      <c r="K66" s="3">
         <v>501321600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>459643400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>445524100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>408513100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>422047200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>419432800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>412881800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>397578600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>395235000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>386360500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>375481600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,58 +4155,61 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2963900</v>
+        <v>2787300</v>
       </c>
       <c r="E70" s="3">
-        <v>2963900</v>
+        <v>2787300</v>
       </c>
       <c r="F70" s="3">
+        <v>2787300</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2202600</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2202600</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2202600</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2202600</v>
+      </c>
+      <c r="K70" s="3">
         <v>2342100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>2342100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2342100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2342100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2342100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1982300</v>
       </c>
       <c r="L70" s="3">
         <v>1982300</v>
       </c>
       <c r="M70" s="3">
+        <v>1982300</v>
+      </c>
+      <c r="N70" s="3">
         <v>1635100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1693800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1692300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1671500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1337300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="S70" s="3">
-        <v>768200</v>
       </c>
       <c r="T70" s="3">
         <v>768200</v>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19117900</v>
+        <v>18714400</v>
       </c>
       <c r="E72" s="3">
-        <v>18337800</v>
+        <v>17979200</v>
       </c>
       <c r="F72" s="3">
-        <v>18011900</v>
+        <v>17245500</v>
       </c>
       <c r="G72" s="3">
-        <v>17607400</v>
+        <v>16939100</v>
       </c>
       <c r="H72" s="3">
-        <v>17860200</v>
+        <v>16558600</v>
       </c>
       <c r="I72" s="3">
-        <v>17386800</v>
+        <v>16796400</v>
       </c>
       <c r="J72" s="3">
+        <v>16351200</v>
+      </c>
+      <c r="K72" s="3">
         <v>17024500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15237000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14704300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13470700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13588600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13107600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12429100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11982500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11561300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11531900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11126300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31650600</v>
+        <v>30356500</v>
       </c>
       <c r="E76" s="3">
-        <v>31154900</v>
+        <v>29765500</v>
       </c>
       <c r="F76" s="3">
-        <v>30753600</v>
+        <v>29299200</v>
       </c>
       <c r="G76" s="3">
-        <v>30877100</v>
+        <v>28921900</v>
       </c>
       <c r="H76" s="3">
-        <v>30023200</v>
+        <v>29038000</v>
       </c>
       <c r="I76" s="3">
-        <v>29488500</v>
+        <v>28235000</v>
       </c>
       <c r="J76" s="3">
+        <v>27732100</v>
+      </c>
+      <c r="K76" s="3">
         <v>29019200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26524100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25661200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23757700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24187900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23425300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22243700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21759200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20864700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18950700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18078000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1319000</v>
+        <v>1244400</v>
       </c>
       <c r="E81" s="3">
-        <v>816600</v>
+        <v>1240500</v>
       </c>
       <c r="F81" s="3">
-        <v>944300</v>
+        <v>768000</v>
       </c>
       <c r="G81" s="3">
-        <v>306700</v>
+        <v>888000</v>
       </c>
       <c r="H81" s="3">
-        <v>973300</v>
+        <v>288500</v>
       </c>
       <c r="I81" s="3">
-        <v>955900</v>
+        <v>915300</v>
       </c>
       <c r="J81" s="3">
+        <v>899000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1130800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1010800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>889100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>902500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1010200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>970300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>971200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>844700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>806700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>795100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1070100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>184800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>246400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>194100</v>
+      </c>
+      <c r="H83" s="3">
         <v>196500</v>
       </c>
-      <c r="E83" s="3">
-        <v>262000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>206400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>208900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>203900</v>
-      </c>
       <c r="I83" s="3">
-        <v>258700</v>
+        <v>191800</v>
       </c>
       <c r="J83" s="3">
+        <v>243300</v>
+      </c>
+      <c r="K83" s="3">
         <v>146700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>131600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>117700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>125700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>122000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>123500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>113100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>106400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>97600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>92200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1013900</v>
+        <v>-13758800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2482200</v>
+        <v>-953500</v>
       </c>
       <c r="F89" s="3">
-        <v>15399600</v>
+        <v>-2334300</v>
       </c>
       <c r="G89" s="3">
-        <v>36510500</v>
+        <v>14482400</v>
       </c>
       <c r="H89" s="3">
-        <v>559600</v>
+        <v>34335900</v>
       </c>
       <c r="I89" s="3">
-        <v>4951100</v>
+        <v>526300</v>
       </c>
       <c r="J89" s="3">
+        <v>4656200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2110800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3311000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4477300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-880700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1409200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4979000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1929700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1486900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1329900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2179500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,53 +5264,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58900</v>
+        <v>-224500</v>
       </c>
       <c r="E91" s="3">
-        <v>-82900</v>
+        <v>-55400</v>
       </c>
       <c r="F91" s="3">
-        <v>-81200</v>
+        <v>-78000</v>
       </c>
       <c r="G91" s="3">
-        <v>-40600</v>
+        <v>-76400</v>
       </c>
       <c r="H91" s="3">
-        <v>-51400</v>
+        <v>-38200</v>
       </c>
       <c r="I91" s="3">
-        <v>-87900</v>
+        <v>-48300</v>
       </c>
       <c r="J91" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-44800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-95900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5101,11 +5321,14 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2042000</v>
+        <v>1044800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2356200</v>
+        <v>1920300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5959200</v>
+        <v>-2215800</v>
       </c>
       <c r="G94" s="3">
-        <v>-8619600</v>
+        <v>-5604300</v>
       </c>
       <c r="H94" s="3">
-        <v>844800</v>
+        <v>-8106200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3631200</v>
+        <v>794500</v>
       </c>
       <c r="J94" s="3">
+        <v>-3415000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3258200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1944600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3186600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-539700</v>
+        <v>-524700</v>
       </c>
       <c r="E96" s="3">
-        <v>-538900</v>
+        <v>-507600</v>
       </c>
       <c r="F96" s="3">
-        <v>-532300</v>
+        <v>-506800</v>
       </c>
       <c r="G96" s="3">
-        <v>-533100</v>
+        <v>-500500</v>
       </c>
       <c r="H96" s="3">
-        <v>-527300</v>
+        <v>-501300</v>
       </c>
       <c r="I96" s="3">
-        <v>-516500</v>
+        <v>-495900</v>
       </c>
       <c r="J96" s="3">
+        <v>-485700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-507400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-463400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-438000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-420800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-426100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-428300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-294000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>115400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-416800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-397900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-385700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1398600</v>
+        <v>265900</v>
       </c>
       <c r="E100" s="3">
-        <v>7500</v>
+        <v>-1315300</v>
       </c>
       <c r="F100" s="3">
-        <v>264500</v>
+        <v>7000</v>
       </c>
       <c r="G100" s="3">
-        <v>-627600</v>
+        <v>248700</v>
       </c>
       <c r="H100" s="3">
-        <v>-656600</v>
+        <v>-590200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1401100</v>
+        <v>-617500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1317600</v>
+      </c>
+      <c r="K100" s="3">
         <v>973300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-436500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-159400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-559600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-996700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>737000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>90800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-275400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>323000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-242800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-191300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-81200</v>
+        <v>-74800</v>
       </c>
       <c r="E101" s="3">
-        <v>-10800</v>
+        <v>-76400</v>
       </c>
       <c r="F101" s="3">
-        <v>-85400</v>
+        <v>-10100</v>
       </c>
       <c r="G101" s="3">
-        <v>106900</v>
+        <v>-80300</v>
       </c>
       <c r="H101" s="3">
-        <v>9900</v>
+        <v>100600</v>
       </c>
       <c r="I101" s="3">
-        <v>-2500</v>
+        <v>9400</v>
       </c>
       <c r="J101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-22400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>29300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>32400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>58000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>48400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-109400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>61500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-37600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-451800</v>
+        <v>-12523100</v>
       </c>
       <c r="E102" s="3">
-        <v>-4841700</v>
+        <v>-424900</v>
       </c>
       <c r="F102" s="3">
-        <v>9619500</v>
+        <v>-4553300</v>
       </c>
       <c r="G102" s="3">
-        <v>27370300</v>
+        <v>9046500</v>
       </c>
       <c r="H102" s="3">
-        <v>757800</v>
+        <v>25740000</v>
       </c>
       <c r="I102" s="3">
-        <v>-83700</v>
+        <v>712600</v>
       </c>
       <c r="J102" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-196500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-224800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>521000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1363300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-103400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-570800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>440600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>330300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-242000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2785800</v>
+        <v>2873300</v>
       </c>
       <c r="E8" s="3">
-        <v>2940100</v>
+        <v>2805000</v>
       </c>
       <c r="F8" s="3">
-        <v>2962700</v>
+        <v>2960400</v>
       </c>
       <c r="G8" s="3">
-        <v>2992400</v>
+        <v>2983200</v>
       </c>
       <c r="H8" s="3">
-        <v>3666000</v>
+        <v>3013000</v>
       </c>
       <c r="I8" s="3">
-        <v>4040200</v>
+        <v>3691300</v>
       </c>
       <c r="J8" s="3">
+        <v>4068100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4114300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4369900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3868300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3944600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3441600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3429700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3183500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2964900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2846600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2543700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2426100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2452200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>669000</v>
+        <v>524400</v>
       </c>
       <c r="E17" s="3">
-        <v>841300</v>
+        <v>673600</v>
       </c>
       <c r="F17" s="3">
-        <v>1012800</v>
+        <v>847100</v>
       </c>
       <c r="G17" s="3">
-        <v>1274000</v>
+        <v>1019800</v>
       </c>
       <c r="H17" s="3">
-        <v>2613500</v>
+        <v>1282800</v>
       </c>
       <c r="I17" s="3">
-        <v>2091100</v>
+        <v>2631500</v>
       </c>
       <c r="J17" s="3">
+        <v>2105500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2243900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2377700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2170900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2206300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1788400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1671200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1479200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1238400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1183300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1005400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>954100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>969500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2116800</v>
+        <v>2348900</v>
       </c>
       <c r="E18" s="3">
-        <v>2098900</v>
+        <v>2131400</v>
       </c>
       <c r="F18" s="3">
-        <v>1950000</v>
+        <v>2113400</v>
       </c>
       <c r="G18" s="3">
-        <v>1718400</v>
+        <v>1963400</v>
       </c>
       <c r="H18" s="3">
-        <v>1052600</v>
+        <v>1730300</v>
       </c>
       <c r="I18" s="3">
-        <v>1949200</v>
+        <v>1059800</v>
       </c>
       <c r="J18" s="3">
+        <v>1962600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1870400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1992200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1697500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1738300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1653200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1758500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1704300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1726600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1663300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1538300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1471900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1482700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1399,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-445200</v>
+        <v>-592700</v>
       </c>
       <c r="E20" s="3">
-        <v>-469400</v>
+        <v>-448300</v>
       </c>
       <c r="F20" s="3">
-        <v>-844400</v>
+        <v>-472600</v>
       </c>
       <c r="G20" s="3">
-        <v>-563700</v>
+        <v>-850200</v>
       </c>
       <c r="H20" s="3">
-        <v>-692300</v>
+        <v>-567600</v>
       </c>
       <c r="I20" s="3">
-        <v>-757100</v>
+        <v>-697100</v>
       </c>
       <c r="J20" s="3">
+        <v>-762300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-676000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-524000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-389500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-608900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-492700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-453200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-464500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-440600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-569300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-464400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-516300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-159000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1865800</v>
+        <v>1947700</v>
       </c>
       <c r="E21" s="3">
-        <v>1814300</v>
+        <v>1878600</v>
       </c>
       <c r="F21" s="3">
-        <v>1351900</v>
+        <v>1826800</v>
       </c>
       <c r="G21" s="3">
-        <v>1348800</v>
+        <v>1361300</v>
       </c>
       <c r="H21" s="3">
-        <v>556700</v>
+        <v>1358100</v>
       </c>
       <c r="I21" s="3">
-        <v>1383900</v>
+        <v>560500</v>
       </c>
       <c r="J21" s="3">
+        <v>1393500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1437700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1615000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1445000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1261000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1278200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1431100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1361800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1409500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1207100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1180300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1053200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1415800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1671600</v>
+        <v>1756200</v>
       </c>
       <c r="E23" s="3">
-        <v>1629500</v>
+        <v>1683100</v>
       </c>
       <c r="F23" s="3">
-        <v>1105600</v>
+        <v>1640800</v>
       </c>
       <c r="G23" s="3">
-        <v>1154700</v>
+        <v>1113200</v>
       </c>
       <c r="H23" s="3">
-        <v>360200</v>
+        <v>1162700</v>
       </c>
       <c r="I23" s="3">
-        <v>1192100</v>
+        <v>362700</v>
       </c>
       <c r="J23" s="3">
+        <v>1200300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1194500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1468200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1307900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1129300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1160500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1305300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1239800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1286000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1094000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1073900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>955700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1323700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>384400</v>
+        <v>398000</v>
       </c>
       <c r="E24" s="3">
-        <v>362500</v>
+        <v>387000</v>
       </c>
       <c r="F24" s="3">
-        <v>313400</v>
+        <v>365000</v>
       </c>
       <c r="G24" s="3">
-        <v>240900</v>
+        <v>315600</v>
       </c>
       <c r="H24" s="3">
-        <v>54600</v>
+        <v>242600</v>
       </c>
       <c r="I24" s="3">
-        <v>247200</v>
+        <v>55000</v>
       </c>
       <c r="J24" s="3">
+        <v>248900</v>
+      </c>
+      <c r="K24" s="3">
         <v>264300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>309200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>270200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>219400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>239100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>274800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>246900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>232200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>227700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>257500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>149000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>242800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1287200</v>
+        <v>1358100</v>
       </c>
       <c r="E26" s="3">
-        <v>1267000</v>
+        <v>1296100</v>
       </c>
       <c r="F26" s="3">
-        <v>792100</v>
+        <v>1275700</v>
       </c>
       <c r="G26" s="3">
-        <v>913800</v>
+        <v>797600</v>
       </c>
       <c r="H26" s="3">
-        <v>305600</v>
+        <v>920100</v>
       </c>
       <c r="I26" s="3">
-        <v>945000</v>
+        <v>307700</v>
       </c>
       <c r="J26" s="3">
+        <v>951500</v>
+      </c>
+      <c r="K26" s="3">
         <v>930100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1159000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1037700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>909900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>921400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1030600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>992900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1053800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>866300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>816400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>806600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1080900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1244400</v>
+        <v>1330700</v>
       </c>
       <c r="E27" s="3">
-        <v>1240500</v>
+        <v>1252900</v>
       </c>
       <c r="F27" s="3">
-        <v>768000</v>
+        <v>1249000</v>
       </c>
       <c r="G27" s="3">
-        <v>888000</v>
+        <v>773300</v>
       </c>
       <c r="H27" s="3">
-        <v>288500</v>
+        <v>894200</v>
       </c>
       <c r="I27" s="3">
-        <v>915300</v>
+        <v>290500</v>
       </c>
       <c r="J27" s="3">
+        <v>921600</v>
+      </c>
+      <c r="K27" s="3">
         <v>899000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1130800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1010800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>889100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>902500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1010200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>970300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1036700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>844700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>806700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>795100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1070100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1951,8 +2011,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1969,12 +2029,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-65500</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>445200</v>
+        <v>592700</v>
       </c>
       <c r="E32" s="3">
-        <v>469400</v>
+        <v>448300</v>
       </c>
       <c r="F32" s="3">
-        <v>844400</v>
+        <v>472600</v>
       </c>
       <c r="G32" s="3">
-        <v>563700</v>
+        <v>850200</v>
       </c>
       <c r="H32" s="3">
-        <v>692300</v>
+        <v>567600</v>
       </c>
       <c r="I32" s="3">
-        <v>757100</v>
+        <v>697100</v>
       </c>
       <c r="J32" s="3">
+        <v>762300</v>
+      </c>
+      <c r="K32" s="3">
         <v>676000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>524000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>389500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>608900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>492700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>453200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>464500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>440600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>569300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>464400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>516300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>159000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1244400</v>
+        <v>1330700</v>
       </c>
       <c r="E33" s="3">
-        <v>1240500</v>
+        <v>1252900</v>
       </c>
       <c r="F33" s="3">
-        <v>768000</v>
+        <v>1249000</v>
       </c>
       <c r="G33" s="3">
-        <v>888000</v>
+        <v>773300</v>
       </c>
       <c r="H33" s="3">
-        <v>288500</v>
+        <v>894200</v>
       </c>
       <c r="I33" s="3">
-        <v>915300</v>
+        <v>290500</v>
       </c>
       <c r="J33" s="3">
+        <v>921600</v>
+      </c>
+      <c r="K33" s="3">
         <v>899000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1130800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1010800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>889100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>902500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1010200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>970300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>971200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>844700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>806700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>795100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1070100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1244400</v>
+        <v>1330700</v>
       </c>
       <c r="E35" s="3">
-        <v>1240500</v>
+        <v>1252900</v>
       </c>
       <c r="F35" s="3">
-        <v>768000</v>
+        <v>1249000</v>
       </c>
       <c r="G35" s="3">
-        <v>888000</v>
+        <v>773300</v>
       </c>
       <c r="H35" s="3">
-        <v>288500</v>
+        <v>894200</v>
       </c>
       <c r="I35" s="3">
-        <v>915300</v>
+        <v>290500</v>
       </c>
       <c r="J35" s="3">
+        <v>921600</v>
+      </c>
+      <c r="K35" s="3">
         <v>899000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1130800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1010800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>889100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>902500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1010200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>970300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>971200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>844700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>806700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>795100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1070100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2559,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20991800</v>
+        <v>23735200</v>
       </c>
       <c r="E41" s="3">
-        <v>33514900</v>
+        <v>21136700</v>
       </c>
       <c r="F41" s="3">
-        <v>33939800</v>
+        <v>33746200</v>
       </c>
       <c r="G41" s="3">
-        <v>38493100</v>
+        <v>34174000</v>
       </c>
       <c r="H41" s="3">
-        <v>29446600</v>
+        <v>38758700</v>
       </c>
       <c r="I41" s="3">
-        <v>3706600</v>
+        <v>29649800</v>
       </c>
       <c r="J41" s="3">
+        <v>3732100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2993900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3267300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3216300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3147000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3182900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2757500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3848300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2456600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2560100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3130900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2777200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2446800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>158358800</v>
+        <v>159115500</v>
       </c>
       <c r="E42" s="3">
-        <v>153581000</v>
+        <v>159451500</v>
       </c>
       <c r="F42" s="3">
-        <v>147008300</v>
+        <v>154640700</v>
       </c>
       <c r="G42" s="3">
-        <v>144560200</v>
+        <v>148022700</v>
       </c>
       <c r="H42" s="3">
-        <v>146012700</v>
+        <v>145557700</v>
       </c>
       <c r="I42" s="3">
-        <v>131404000</v>
+        <v>147020200</v>
       </c>
       <c r="J42" s="3">
+        <v>132310800</v>
+      </c>
+      <c r="K42" s="3">
         <v>118187100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>124243900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114917200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>111240500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>99017300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>102777700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>104055200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>109982300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>97603900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>100635800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>107950900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>104933300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2752,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +2947,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>499800</v>
+        <v>514200</v>
       </c>
       <c r="E47" s="3">
-        <v>513000</v>
+        <v>503200</v>
       </c>
       <c r="F47" s="3">
-        <v>513000</v>
+        <v>516600</v>
       </c>
       <c r="G47" s="3">
-        <v>500500</v>
+        <v>516600</v>
       </c>
       <c r="H47" s="3">
-        <v>478700</v>
+        <v>504000</v>
       </c>
       <c r="I47" s="3">
-        <v>449100</v>
+        <v>482000</v>
       </c>
       <c r="J47" s="3">
+        <v>452200</v>
+      </c>
+      <c r="K47" s="3">
         <v>456900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>484200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>425700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>382200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>375600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>393700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>413000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>532100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>550700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>564600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>545400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2203300</v>
+        <v>2459600</v>
       </c>
       <c r="E48" s="3">
-        <v>2286000</v>
+        <v>2218600</v>
       </c>
       <c r="F48" s="3">
-        <v>2336700</v>
+        <v>2301800</v>
       </c>
       <c r="G48" s="3">
-        <v>2356900</v>
+        <v>2352800</v>
       </c>
       <c r="H48" s="3">
-        <v>2388900</v>
+        <v>2373200</v>
       </c>
       <c r="I48" s="3">
-        <v>2406800</v>
+        <v>2405400</v>
       </c>
       <c r="J48" s="3">
+        <v>2423400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1413500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1468200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1374900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1372600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1304400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1304600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1314400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1291200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1326900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1311300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1379700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1345900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5357900</v>
+        <v>5444300</v>
       </c>
       <c r="E49" s="3">
-        <v>5478000</v>
+        <v>5394900</v>
       </c>
       <c r="F49" s="3">
-        <v>5624500</v>
+        <v>5515800</v>
       </c>
       <c r="G49" s="3">
-        <v>5804600</v>
+        <v>5663400</v>
       </c>
       <c r="H49" s="3">
-        <v>5955900</v>
+        <v>5844700</v>
       </c>
       <c r="I49" s="3">
-        <v>5782000</v>
+        <v>5997000</v>
       </c>
       <c r="J49" s="3">
+        <v>5821900</v>
+      </c>
+      <c r="K49" s="3">
         <v>5783600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6212100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5829100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5754400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5456700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5594000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5551800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5348600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5466200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5152200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2307000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2267000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>337600</v>
+        <v>341500</v>
       </c>
       <c r="E52" s="3">
-        <v>404600</v>
+        <v>339900</v>
       </c>
       <c r="F52" s="3">
-        <v>506800</v>
+        <v>407400</v>
       </c>
       <c r="G52" s="3">
-        <v>523900</v>
+        <v>510300</v>
       </c>
       <c r="H52" s="3">
-        <v>427300</v>
+        <v>527600</v>
       </c>
       <c r="I52" s="3">
-        <v>437400</v>
+        <v>430200</v>
       </c>
       <c r="J52" s="3">
+        <v>440400</v>
+      </c>
+      <c r="K52" s="3">
         <v>403100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>451000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>411100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>478100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>436700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>402700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>455400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>451700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>541000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>529900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>540100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>490900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>610386500</v>
+        <v>632802900</v>
       </c>
       <c r="E54" s="3">
-        <v>610409900</v>
+        <v>614598400</v>
       </c>
       <c r="F54" s="3">
-        <v>599995800</v>
+        <v>614621900</v>
       </c>
       <c r="G54" s="3">
-        <v>599211500</v>
+        <v>604136000</v>
       </c>
       <c r="H54" s="3">
-        <v>591875600</v>
+        <v>603346300</v>
       </c>
       <c r="I54" s="3">
-        <v>524030200</v>
+        <v>595959700</v>
       </c>
       <c r="J54" s="3">
+        <v>527646200</v>
+      </c>
+      <c r="K54" s="3">
         <v>508036100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>532682900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>488149800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>473167600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>433905900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>447928900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>444550300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>436796900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>420675100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>417436300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>406079500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>394327800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3519,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,8 +3582,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,8 +3647,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3576,8 +3712,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,132 +3777,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4407500</v>
+        <v>4437900</v>
       </c>
       <c r="E61" s="3">
-        <v>3659000</v>
+        <v>4437900</v>
       </c>
       <c r="F61" s="3">
-        <v>4453500</v>
+        <v>3684200</v>
       </c>
       <c r="G61" s="3">
-        <v>4539200</v>
+        <v>4484200</v>
       </c>
       <c r="H61" s="3">
-        <v>3756500</v>
+        <v>4570600</v>
       </c>
       <c r="I61" s="3">
-        <v>3660600</v>
+        <v>3782400</v>
       </c>
       <c r="J61" s="3">
+        <v>3685800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3652000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4659300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3210900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3204000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2964900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12182400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13819700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13686800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12593500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11741400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12597400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11580300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="E62" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="F62" s="3">
-        <v>25700</v>
+        <v>27500</v>
       </c>
       <c r="G62" s="3">
-        <v>26500</v>
+        <v>25900</v>
       </c>
       <c r="H62" s="3">
-        <v>28100</v>
+        <v>26700</v>
       </c>
       <c r="I62" s="3">
-        <v>27300</v>
+        <v>28300</v>
       </c>
       <c r="J62" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K62" s="3">
         <v>29600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>31200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>22300</v>
       </c>
       <c r="S62" s="3">
         <v>22300</v>
       </c>
       <c r="T62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="U62" s="3">
         <v>15400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>577242700</v>
+        <v>598175900</v>
       </c>
       <c r="E66" s="3">
-        <v>577857100</v>
+        <v>581225900</v>
       </c>
       <c r="F66" s="3">
-        <v>567909300</v>
+        <v>581844500</v>
       </c>
       <c r="G66" s="3">
-        <v>568087100</v>
+        <v>571828100</v>
       </c>
       <c r="H66" s="3">
-        <v>560635000</v>
+        <v>572007100</v>
       </c>
       <c r="I66" s="3">
-        <v>493592700</v>
+        <v>564503500</v>
       </c>
       <c r="J66" s="3">
+        <v>496998700</v>
+      </c>
+      <c r="K66" s="3">
         <v>478101400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>501321600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>459643400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>445524100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>408513100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>422047200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>419432800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>412881800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>397578600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>395235000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>386360500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>375481600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,61 +4322,64 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2787300</v>
+        <v>2806600</v>
       </c>
       <c r="E70" s="3">
-        <v>2787300</v>
+        <v>2806600</v>
       </c>
       <c r="F70" s="3">
-        <v>2787300</v>
+        <v>2806600</v>
       </c>
       <c r="G70" s="3">
+        <v>2806600</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2217800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2217800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2217800</v>
+      </c>
+      <c r="K70" s="3">
         <v>2202600</v>
       </c>
-      <c r="H70" s="3">
-        <v>2202600</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2202600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2202600</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2342100</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1982300</v>
       </c>
       <c r="M70" s="3">
         <v>1982300</v>
       </c>
       <c r="N70" s="3">
+        <v>1982300</v>
+      </c>
+      <c r="O70" s="3">
         <v>1635100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1693800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1692300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1671500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1337300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="T70" s="3">
-        <v>768200</v>
       </c>
       <c r="U70" s="3">
         <v>768200</v>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18714400</v>
+        <v>19669400</v>
       </c>
       <c r="E72" s="3">
-        <v>17979200</v>
+        <v>18843600</v>
       </c>
       <c r="F72" s="3">
-        <v>17245500</v>
+        <v>18103300</v>
       </c>
       <c r="G72" s="3">
-        <v>16939100</v>
+        <v>17364500</v>
       </c>
       <c r="H72" s="3">
-        <v>16558600</v>
+        <v>17056000</v>
       </c>
       <c r="I72" s="3">
-        <v>16796400</v>
+        <v>16672900</v>
       </c>
       <c r="J72" s="3">
+        <v>16912300</v>
+      </c>
+      <c r="K72" s="3">
         <v>16351200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17024500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15237000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14704300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13470700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13588600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13107600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12429100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11982500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11561300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11531900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11126300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30356500</v>
+        <v>31820400</v>
       </c>
       <c r="E76" s="3">
-        <v>29765500</v>
+        <v>30565900</v>
       </c>
       <c r="F76" s="3">
-        <v>29299200</v>
+        <v>29970900</v>
       </c>
       <c r="G76" s="3">
-        <v>28921900</v>
+        <v>29501400</v>
       </c>
       <c r="H76" s="3">
-        <v>29038000</v>
+        <v>29121400</v>
       </c>
       <c r="I76" s="3">
-        <v>28235000</v>
+        <v>29238400</v>
       </c>
       <c r="J76" s="3">
+        <v>28429800</v>
+      </c>
+      <c r="K76" s="3">
         <v>27732100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29019200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26524100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25661200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23757700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24187900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23425300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22243700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21759200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20864700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18950700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18078000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1244400</v>
+        <v>1330700</v>
       </c>
       <c r="E81" s="3">
-        <v>1240500</v>
+        <v>1252900</v>
       </c>
       <c r="F81" s="3">
-        <v>768000</v>
+        <v>1249000</v>
       </c>
       <c r="G81" s="3">
-        <v>888000</v>
+        <v>773300</v>
       </c>
       <c r="H81" s="3">
-        <v>288500</v>
+        <v>894200</v>
       </c>
       <c r="I81" s="3">
-        <v>915300</v>
+        <v>290500</v>
       </c>
       <c r="J81" s="3">
+        <v>921600</v>
+      </c>
+      <c r="K81" s="3">
         <v>899000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1130800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1010800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>889100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>902500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1010200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>970300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>971200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>844700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>806700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>795100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1070100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>194100</v>
+        <v>191600</v>
       </c>
       <c r="E83" s="3">
-        <v>184800</v>
+        <v>195500</v>
       </c>
       <c r="F83" s="3">
-        <v>246400</v>
+        <v>186100</v>
       </c>
       <c r="G83" s="3">
-        <v>194100</v>
+        <v>248100</v>
       </c>
       <c r="H83" s="3">
-        <v>196500</v>
+        <v>195500</v>
       </c>
       <c r="I83" s="3">
-        <v>191800</v>
+        <v>197800</v>
       </c>
       <c r="J83" s="3">
+        <v>193100</v>
+      </c>
+      <c r="K83" s="3">
         <v>243300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>146700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>131600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>117700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>125700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>122000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>123500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>113100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>106400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>97600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>92200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-13758800</v>
+        <v>5679100</v>
       </c>
       <c r="E89" s="3">
-        <v>-953500</v>
+        <v>-13853800</v>
       </c>
       <c r="F89" s="3">
-        <v>-2334300</v>
+        <v>-960100</v>
       </c>
       <c r="G89" s="3">
-        <v>14482400</v>
+        <v>-2350400</v>
       </c>
       <c r="H89" s="3">
-        <v>34335900</v>
+        <v>14582300</v>
       </c>
       <c r="I89" s="3">
-        <v>526300</v>
+        <v>34572800</v>
       </c>
       <c r="J89" s="3">
+        <v>529900</v>
+      </c>
+      <c r="K89" s="3">
         <v>4656200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2110800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3311000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4477300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-880700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1409200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4979000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1929700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1486900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1329900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2179500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,56 +5484,57 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-224500</v>
+        <v>-164900</v>
       </c>
       <c r="E91" s="3">
-        <v>-55400</v>
+        <v>-226100</v>
       </c>
       <c r="F91" s="3">
-        <v>-78000</v>
+        <v>-55700</v>
       </c>
       <c r="G91" s="3">
-        <v>-76400</v>
+        <v>-78500</v>
       </c>
       <c r="H91" s="3">
-        <v>-38200</v>
+        <v>-76900</v>
       </c>
       <c r="I91" s="3">
-        <v>-48300</v>
+        <v>-38500</v>
       </c>
       <c r="J91" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-82600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-95900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5324,11 +5544,14 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1044800</v>
+        <v>-2604800</v>
       </c>
       <c r="E94" s="3">
-        <v>1920300</v>
+        <v>1052000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2215800</v>
+        <v>1933600</v>
       </c>
       <c r="G94" s="3">
-        <v>-5604300</v>
+        <v>-2231100</v>
       </c>
       <c r="H94" s="3">
-        <v>-8106200</v>
+        <v>-5642900</v>
       </c>
       <c r="I94" s="3">
-        <v>794500</v>
+        <v>-8162200</v>
       </c>
       <c r="J94" s="3">
+        <v>800000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3258200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1944600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3186600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-524700</v>
+        <v>-514200</v>
       </c>
       <c r="E96" s="3">
-        <v>-507600</v>
+        <v>-528300</v>
       </c>
       <c r="F96" s="3">
-        <v>-506800</v>
+        <v>-511100</v>
       </c>
       <c r="G96" s="3">
-        <v>-500500</v>
+        <v>-510300</v>
       </c>
       <c r="H96" s="3">
-        <v>-501300</v>
+        <v>-504000</v>
       </c>
       <c r="I96" s="3">
-        <v>-495900</v>
+        <v>-504800</v>
       </c>
       <c r="J96" s="3">
+        <v>-499300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-485700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-507400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-463400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-438000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-420800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-426100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-428300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-294000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>115400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-416800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-397900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-385700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>265900</v>
+        <v>-507100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1315300</v>
+        <v>267700</v>
       </c>
       <c r="F100" s="3">
-        <v>7000</v>
+        <v>-1324400</v>
       </c>
       <c r="G100" s="3">
-        <v>248700</v>
+        <v>7100</v>
       </c>
       <c r="H100" s="3">
-        <v>-590200</v>
+        <v>250400</v>
       </c>
       <c r="I100" s="3">
-        <v>-617500</v>
+        <v>-594300</v>
       </c>
       <c r="J100" s="3">
+        <v>-621800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1317600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>973300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-436500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-159400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-559600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-996700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>737000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>90800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-275400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>323000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-242800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-191300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-74800</v>
+        <v>31400</v>
       </c>
       <c r="E101" s="3">
-        <v>-76400</v>
+        <v>-75400</v>
       </c>
       <c r="F101" s="3">
-        <v>-10100</v>
+        <v>-76900</v>
       </c>
       <c r="G101" s="3">
-        <v>-80300</v>
+        <v>-10200</v>
       </c>
       <c r="H101" s="3">
-        <v>100600</v>
+        <v>-80900</v>
       </c>
       <c r="I101" s="3">
+        <v>101300</v>
+      </c>
+      <c r="J101" s="3">
         <v>9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>29300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>32400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>58000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-67000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>48400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-109400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>61500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-37600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12523100</v>
+        <v>2598500</v>
       </c>
       <c r="E102" s="3">
-        <v>-424900</v>
+        <v>-12609500</v>
       </c>
       <c r="F102" s="3">
-        <v>-4553300</v>
+        <v>-427900</v>
       </c>
       <c r="G102" s="3">
-        <v>9046500</v>
+        <v>-4584700</v>
       </c>
       <c r="H102" s="3">
-        <v>25740000</v>
+        <v>9108900</v>
       </c>
       <c r="I102" s="3">
-        <v>712600</v>
+        <v>25917600</v>
       </c>
       <c r="J102" s="3">
+        <v>717500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-78700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-196500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>69300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-224800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>521000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1363300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-103400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-570800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>440600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>330300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-242000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,163 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2873300</v>
+        <v>3092700</v>
       </c>
       <c r="E8" s="3">
-        <v>2805000</v>
+        <v>2932600</v>
       </c>
       <c r="F8" s="3">
-        <v>2960400</v>
+        <v>2872100</v>
       </c>
       <c r="G8" s="3">
-        <v>2983200</v>
+        <v>2803900</v>
       </c>
       <c r="H8" s="3">
-        <v>3013000</v>
+        <v>2959300</v>
       </c>
       <c r="I8" s="3">
+        <v>2982000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3011800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3691300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4068100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4114300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4369900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3868300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3944600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3441600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3429700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3183500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2964900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2846600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2543700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2426100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2452200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +885,14 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +956,14 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +987,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1054,14 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1125,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1196,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1267,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1295,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>524400</v>
+        <v>693700</v>
       </c>
       <c r="E17" s="3">
-        <v>673600</v>
+        <v>655300</v>
       </c>
       <c r="F17" s="3">
-        <v>847100</v>
+        <v>524200</v>
       </c>
       <c r="G17" s="3">
-        <v>1019800</v>
+        <v>673300</v>
       </c>
       <c r="H17" s="3">
-        <v>1282800</v>
+        <v>846700</v>
       </c>
       <c r="I17" s="3">
+        <v>1019400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1282300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2631500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2105500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2243900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2377700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2170900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2206300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1788400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1671200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1479200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1238400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1183300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1005400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>954100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>969500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2348900</v>
+        <v>2399000</v>
       </c>
       <c r="E18" s="3">
-        <v>2131400</v>
+        <v>2277300</v>
       </c>
       <c r="F18" s="3">
-        <v>2113400</v>
+        <v>2347900</v>
       </c>
       <c r="G18" s="3">
-        <v>1963400</v>
+        <v>2130600</v>
       </c>
       <c r="H18" s="3">
-        <v>1730300</v>
+        <v>2112500</v>
       </c>
       <c r="I18" s="3">
+        <v>1962600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1729600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1059800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1962600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1870400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1992200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1697500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1738300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1653200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1758500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1704300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1726600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1663300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1538300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1471900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1482700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,138 +1464,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-592700</v>
+        <v>-515600</v>
       </c>
       <c r="E20" s="3">
-        <v>-448300</v>
+        <v>-824800</v>
       </c>
       <c r="F20" s="3">
-        <v>-472600</v>
+        <v>-592500</v>
       </c>
       <c r="G20" s="3">
-        <v>-850200</v>
+        <v>-448100</v>
       </c>
       <c r="H20" s="3">
-        <v>-567600</v>
+        <v>-472400</v>
       </c>
       <c r="I20" s="3">
+        <v>-849900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-567400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-697100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-762300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-676000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-524000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-389500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-608900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-492700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-453200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-464500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-440600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-569300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-464400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-516300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-159000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1947700</v>
+        <v>2081900</v>
       </c>
       <c r="E21" s="3">
-        <v>1878600</v>
+        <v>1677800</v>
       </c>
       <c r="F21" s="3">
-        <v>1826800</v>
+        <v>1946900</v>
       </c>
       <c r="G21" s="3">
-        <v>1361300</v>
+        <v>1877900</v>
       </c>
       <c r="H21" s="3">
-        <v>1358100</v>
+        <v>1826100</v>
       </c>
       <c r="I21" s="3">
+        <v>1360700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1357600</v>
+      </c>
+      <c r="K21" s="3">
         <v>560500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1393500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1437700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1615000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1445000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1261000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1278200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1431100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1361800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1409500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1207100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1180300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1053200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1415800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1673,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1756200</v>
+        <v>1883400</v>
       </c>
       <c r="E23" s="3">
-        <v>1683100</v>
+        <v>1452600</v>
       </c>
       <c r="F23" s="3">
-        <v>1640800</v>
+        <v>1755500</v>
       </c>
       <c r="G23" s="3">
-        <v>1113200</v>
+        <v>1682500</v>
       </c>
       <c r="H23" s="3">
-        <v>1162700</v>
+        <v>1640100</v>
       </c>
       <c r="I23" s="3">
+        <v>1112800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1162200</v>
+      </c>
+      <c r="K23" s="3">
         <v>362700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1200300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1194500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1468200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1307900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1129300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1160500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1305300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1239800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1286000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1094000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1073900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>955700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1323700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>398000</v>
+        <v>416700</v>
       </c>
       <c r="E24" s="3">
-        <v>387000</v>
+        <v>322500</v>
       </c>
       <c r="F24" s="3">
-        <v>365000</v>
+        <v>397900</v>
       </c>
       <c r="G24" s="3">
-        <v>315600</v>
+        <v>386900</v>
       </c>
       <c r="H24" s="3">
-        <v>242600</v>
+        <v>364900</v>
       </c>
       <c r="I24" s="3">
+        <v>315500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>242500</v>
+      </c>
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>248900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>264300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>309200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>270200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>219400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>239100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>274800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>246900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>232200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>227700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>257500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>149000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>242800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1886,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1358100</v>
+        <v>1466700</v>
       </c>
       <c r="E26" s="3">
-        <v>1296100</v>
+        <v>1130000</v>
       </c>
       <c r="F26" s="3">
-        <v>1275700</v>
+        <v>1357600</v>
       </c>
       <c r="G26" s="3">
-        <v>797600</v>
+        <v>1295600</v>
       </c>
       <c r="H26" s="3">
-        <v>920100</v>
+        <v>1275200</v>
       </c>
       <c r="I26" s="3">
+        <v>797300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>919700</v>
+      </c>
+      <c r="K26" s="3">
         <v>307700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>951500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>930100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1159000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1037700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>909900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>921400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1030600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>992900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1053800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>866300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>816400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>806600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1080900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1330700</v>
+        <v>1430600</v>
       </c>
       <c r="E27" s="3">
-        <v>1252900</v>
+        <v>1090000</v>
       </c>
       <c r="F27" s="3">
-        <v>1249000</v>
+        <v>1330100</v>
       </c>
       <c r="G27" s="3">
-        <v>773300</v>
+        <v>1252400</v>
       </c>
       <c r="H27" s="3">
-        <v>894200</v>
+        <v>1248500</v>
       </c>
       <c r="I27" s="3">
+        <v>773000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>893800</v>
+      </c>
+      <c r="K27" s="3">
         <v>290500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>921600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>899000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1130800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1010800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>889100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>902500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1010200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>970300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1036700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>844700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>806700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>795100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1070100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2099,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,11 +2134,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2032,15 +2152,15 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-65500</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2050,8 +2170,14 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2241,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2312,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>592700</v>
+        <v>515600</v>
       </c>
       <c r="E32" s="3">
-        <v>448300</v>
+        <v>824800</v>
       </c>
       <c r="F32" s="3">
-        <v>472600</v>
+        <v>592500</v>
       </c>
       <c r="G32" s="3">
-        <v>850200</v>
+        <v>448100</v>
       </c>
       <c r="H32" s="3">
-        <v>567600</v>
+        <v>472400</v>
       </c>
       <c r="I32" s="3">
+        <v>849900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>567400</v>
+      </c>
+      <c r="K32" s="3">
         <v>697100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>762300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>676000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>524000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>389500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>608900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>492700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>453200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>464500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>440600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>569300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>464400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>516300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>159000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1330700</v>
+        <v>1430600</v>
       </c>
       <c r="E33" s="3">
-        <v>1252900</v>
+        <v>1090000</v>
       </c>
       <c r="F33" s="3">
-        <v>1249000</v>
+        <v>1330100</v>
       </c>
       <c r="G33" s="3">
-        <v>773300</v>
+        <v>1252400</v>
       </c>
       <c r="H33" s="3">
-        <v>894200</v>
+        <v>1248500</v>
       </c>
       <c r="I33" s="3">
+        <v>773000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>893800</v>
+      </c>
+      <c r="K33" s="3">
         <v>290500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>921600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>899000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1130800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1010800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>889100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>902500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1010200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>970300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>971200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>844700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>806700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>795100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1070100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2525,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1330700</v>
+        <v>1430600</v>
       </c>
       <c r="E35" s="3">
-        <v>1252900</v>
+        <v>1090000</v>
       </c>
       <c r="F35" s="3">
-        <v>1249000</v>
+        <v>1330100</v>
       </c>
       <c r="G35" s="3">
-        <v>773300</v>
+        <v>1252400</v>
       </c>
       <c r="H35" s="3">
-        <v>894200</v>
+        <v>1248500</v>
       </c>
       <c r="I35" s="3">
+        <v>773000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>893800</v>
+      </c>
+      <c r="K35" s="3">
         <v>290500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>921600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>899000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1130800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1010800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>889100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>902500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1010200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>970300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>971200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>844700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>806700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>795100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1070100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2703,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,138 +2730,152 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23735200</v>
+        <v>18252300</v>
       </c>
       <c r="E41" s="3">
-        <v>21136700</v>
+        <v>27130800</v>
       </c>
       <c r="F41" s="3">
-        <v>33746200</v>
+        <v>23725800</v>
       </c>
       <c r="G41" s="3">
-        <v>34174000</v>
+        <v>21128300</v>
       </c>
       <c r="H41" s="3">
-        <v>38758700</v>
+        <v>33732800</v>
       </c>
       <c r="I41" s="3">
+        <v>34160500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>38743400</v>
+      </c>
+      <c r="K41" s="3">
         <v>29649800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3732100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2993900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3267300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3216300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3147000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3182900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2757500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3848300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2456600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2560100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3130900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2777200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2446800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>159115500</v>
+        <v>168610000</v>
       </c>
       <c r="E42" s="3">
-        <v>159451500</v>
+        <v>165204200</v>
       </c>
       <c r="F42" s="3">
-        <v>154640700</v>
+        <v>159052700</v>
       </c>
       <c r="G42" s="3">
-        <v>148022700</v>
+        <v>159388500</v>
       </c>
       <c r="H42" s="3">
-        <v>145557700</v>
+        <v>154579700</v>
       </c>
       <c r="I42" s="3">
+        <v>147964300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>145500200</v>
+      </c>
+      <c r="K42" s="3">
         <v>147020200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>132310800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>118187100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>124243900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>114917200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>111240500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>99017300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>102777700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>104055200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>109982300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>97603900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>100635800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>107950900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>104933300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,8 +2939,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +3010,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +3081,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,203 +3152,227 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>514200</v>
+        <v>535200</v>
       </c>
       <c r="E47" s="3">
-        <v>503200</v>
+        <v>516400</v>
       </c>
       <c r="F47" s="3">
-        <v>516600</v>
+        <v>514000</v>
       </c>
       <c r="G47" s="3">
-        <v>516600</v>
+        <v>503000</v>
       </c>
       <c r="H47" s="3">
-        <v>504000</v>
+        <v>516400</v>
       </c>
       <c r="I47" s="3">
+        <v>516400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>503800</v>
+      </c>
+      <c r="K47" s="3">
         <v>482000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>452200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>456900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>484200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>425700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>400300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>382200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>375600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>393700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>413000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>532100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>550700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>564600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>545400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2459600</v>
+        <v>2609300</v>
       </c>
       <c r="E48" s="3">
-        <v>2218600</v>
+        <v>2578700</v>
       </c>
       <c r="F48" s="3">
-        <v>2301800</v>
+        <v>2458600</v>
       </c>
       <c r="G48" s="3">
-        <v>2352800</v>
+        <v>2217700</v>
       </c>
       <c r="H48" s="3">
-        <v>2373200</v>
+        <v>2300900</v>
       </c>
       <c r="I48" s="3">
+        <v>2351900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2372300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2405400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2423400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1413500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1468200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1374900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1372600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1304400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1304600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1314400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1291200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1326900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1311300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1379700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1345900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5444300</v>
+        <v>5595200</v>
       </c>
       <c r="E49" s="3">
-        <v>5394900</v>
+        <v>5479800</v>
       </c>
       <c r="F49" s="3">
-        <v>5515800</v>
+        <v>5442200</v>
       </c>
       <c r="G49" s="3">
-        <v>5663400</v>
+        <v>5392700</v>
       </c>
       <c r="H49" s="3">
-        <v>5844700</v>
+        <v>5513600</v>
       </c>
       <c r="I49" s="3">
+        <v>5661100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5842400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5997000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5821900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5783600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6212100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5829100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5754400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5456700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5594000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5551800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5348600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5466200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5152200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2307000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2267000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3436,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3507,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>341500</v>
+        <v>225200</v>
       </c>
       <c r="E52" s="3">
-        <v>339900</v>
+        <v>315500</v>
       </c>
       <c r="F52" s="3">
-        <v>407400</v>
+        <v>341400</v>
       </c>
       <c r="G52" s="3">
-        <v>510300</v>
+        <v>339800</v>
       </c>
       <c r="H52" s="3">
-        <v>527600</v>
+        <v>407300</v>
       </c>
       <c r="I52" s="3">
+        <v>510100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>527300</v>
+      </c>
+      <c r="K52" s="3">
         <v>430200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>440400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>403100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>451000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>411100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>478100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>436700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>402700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>455400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>451700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>541000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>529900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>540100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>490900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3649,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>632802900</v>
+        <v>676182200</v>
       </c>
       <c r="E54" s="3">
-        <v>614598400</v>
+        <v>657363400</v>
       </c>
       <c r="F54" s="3">
-        <v>614621900</v>
+        <v>632553000</v>
       </c>
       <c r="G54" s="3">
-        <v>604136000</v>
+        <v>614355700</v>
       </c>
       <c r="H54" s="3">
-        <v>603346300</v>
+        <v>614379200</v>
       </c>
       <c r="I54" s="3">
+        <v>603897500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>603108000</v>
+      </c>
+      <c r="K54" s="3">
         <v>595959700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>527646200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>508036100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>532682900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>488149800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>473167600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>433905900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>447928900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>444550300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>436796900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>420675100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>417436300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>406079500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>394327800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3751,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3778,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,8 +3845,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,8 +3916,14 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3715,8 +3987,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +4058,156 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4437900</v>
+        <v>4340400</v>
       </c>
       <c r="E61" s="3">
-        <v>4437900</v>
+        <v>4346700</v>
       </c>
       <c r="F61" s="3">
-        <v>3684200</v>
+        <v>4436100</v>
       </c>
       <c r="G61" s="3">
-        <v>4484200</v>
+        <v>4436100</v>
       </c>
       <c r="H61" s="3">
-        <v>4570600</v>
+        <v>3682800</v>
       </c>
       <c r="I61" s="3">
+        <v>4482400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4568800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3782400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3685800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3652000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4659300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3210900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3204000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2964900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12182400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>13819700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>13686800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>12593500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>11741400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>12597400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>11580300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27500</v>
+        <v>34500</v>
       </c>
       <c r="E62" s="3">
-        <v>27500</v>
+        <v>29800</v>
       </c>
       <c r="F62" s="3">
         <v>27500</v>
       </c>
       <c r="G62" s="3">
+        <v>27500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I62" s="3">
         <v>25900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>26700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>28300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>27500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>29600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>31500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>30800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>31600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>31200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>23300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>24100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>23800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>22300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>22300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>15400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>16900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4271,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4342,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4413,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>598175900</v>
+        <v>639218600</v>
       </c>
       <c r="E66" s="3">
-        <v>581225900</v>
+        <v>621541500</v>
       </c>
       <c r="F66" s="3">
-        <v>581844500</v>
+        <v>597939700</v>
       </c>
       <c r="G66" s="3">
-        <v>571828100</v>
+        <v>580996400</v>
       </c>
       <c r="H66" s="3">
-        <v>572007100</v>
+        <v>581614800</v>
       </c>
       <c r="I66" s="3">
+        <v>571602300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>571781200</v>
+      </c>
+      <c r="K66" s="3">
         <v>564503500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>496998700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>478101400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>501321600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>459643400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>445524100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>408513100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>422047200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>419432800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>412881800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>397578600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>395235000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>386360500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>375481600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4515,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4582,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,73 +4653,85 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2806600</v>
+        <v>3394000</v>
       </c>
       <c r="E70" s="3">
-        <v>2806600</v>
+        <v>3394000</v>
       </c>
       <c r="F70" s="3">
-        <v>2806600</v>
+        <v>2805400</v>
       </c>
       <c r="G70" s="3">
-        <v>2806600</v>
+        <v>2805400</v>
       </c>
       <c r="H70" s="3">
+        <v>2805400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2805400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2216900</v>
+      </c>
+      <c r="K70" s="3">
         <v>2217800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="L70" s="3">
         <v>2217800</v>
       </c>
-      <c r="J70" s="3">
-        <v>2217800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>2202600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2342100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1982300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>1982300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1635100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1693800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>1692300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>1671500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>1337300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="U70" s="3">
-        <v>768200</v>
-      </c>
-      <c r="V70" s="3">
-        <v>768200</v>
       </c>
       <c r="W70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>768200</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4795,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19669400</v>
+        <v>21036500</v>
       </c>
       <c r="E72" s="3">
-        <v>18843600</v>
+        <v>20240800</v>
       </c>
       <c r="F72" s="3">
-        <v>18103300</v>
+        <v>19661700</v>
       </c>
       <c r="G72" s="3">
-        <v>17364500</v>
+        <v>18836100</v>
       </c>
       <c r="H72" s="3">
-        <v>17056000</v>
+        <v>18096100</v>
       </c>
       <c r="I72" s="3">
+        <v>17357700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17049300</v>
+      </c>
+      <c r="K72" s="3">
         <v>16672900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16912300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16351200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>17024500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>15237000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14704300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13470700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13588600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13107600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>12429100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>11982500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>11561300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>11531900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>11126300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4937,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +5008,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +5079,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31820400</v>
+        <v>33569600</v>
       </c>
       <c r="E76" s="3">
-        <v>30565900</v>
+        <v>32427800</v>
       </c>
       <c r="F76" s="3">
-        <v>29970900</v>
+        <v>31807900</v>
       </c>
       <c r="G76" s="3">
-        <v>29501400</v>
+        <v>30553900</v>
       </c>
       <c r="H76" s="3">
-        <v>29121400</v>
+        <v>29959000</v>
       </c>
       <c r="I76" s="3">
+        <v>29489700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>29109900</v>
+      </c>
+      <c r="K76" s="3">
         <v>29238400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28429800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27732100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>29019200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>26524100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>25661200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>23757700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>24187900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>23425300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>22243700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>21759200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>20864700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>18950700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>18078000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5221,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1330700</v>
+        <v>1430600</v>
       </c>
       <c r="E81" s="3">
-        <v>1252900</v>
+        <v>1090000</v>
       </c>
       <c r="F81" s="3">
-        <v>1249000</v>
+        <v>1330100</v>
       </c>
       <c r="G81" s="3">
-        <v>773300</v>
+        <v>1252400</v>
       </c>
       <c r="H81" s="3">
-        <v>894200</v>
+        <v>1248500</v>
       </c>
       <c r="I81" s="3">
+        <v>773000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>893800</v>
+      </c>
+      <c r="K81" s="3">
         <v>290500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>921600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>899000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1130800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1010800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>889100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>902500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1010200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>970300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>971200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>844700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>806700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>795100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1070100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5399,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>191600</v>
+        <v>198500</v>
       </c>
       <c r="E83" s="3">
-        <v>195500</v>
+        <v>225200</v>
       </c>
       <c r="F83" s="3">
-        <v>186100</v>
+        <v>191500</v>
       </c>
       <c r="G83" s="3">
-        <v>248100</v>
+        <v>195400</v>
       </c>
       <c r="H83" s="3">
-        <v>195500</v>
+        <v>186000</v>
       </c>
       <c r="I83" s="3">
+        <v>248000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>195400</v>
+      </c>
+      <c r="K83" s="3">
         <v>197800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>193100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>243300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>146700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>137000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>131600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>117700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>125700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>122000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>123500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>113100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>106400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>97600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>92200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5537,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5608,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5679,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5750,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5821,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5679100</v>
+        <v>-763600</v>
       </c>
       <c r="E89" s="3">
-        <v>-13853800</v>
+        <v>6516500</v>
       </c>
       <c r="F89" s="3">
-        <v>-960100</v>
+        <v>5676800</v>
       </c>
       <c r="G89" s="3">
-        <v>-2350400</v>
+        <v>-13848300</v>
       </c>
       <c r="H89" s="3">
-        <v>14582300</v>
+        <v>-959700</v>
       </c>
       <c r="I89" s="3">
+        <v>-2349500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>14576500</v>
+      </c>
+      <c r="K89" s="3">
         <v>34572800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>529900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4656200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2110800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3311000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4477300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-880700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1409200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4979000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1929700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1486900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1329900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2179500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5923,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-164900</v>
+        <v>-157700</v>
       </c>
       <c r="E91" s="3">
-        <v>-226100</v>
+        <v>-211900</v>
       </c>
       <c r="F91" s="3">
+        <v>-164800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-226000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-55700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-78500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-76900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-38500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-48700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-82600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-44800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-43900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-42300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-95900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-33900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-29800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +6061,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +6132,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2604800</v>
+        <v>-7506000</v>
       </c>
       <c r="E94" s="3">
-        <v>1052000</v>
+        <v>-3131900</v>
       </c>
       <c r="F94" s="3">
-        <v>1933600</v>
+        <v>-2603800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2231100</v>
+        <v>1051600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5642900</v>
+        <v>1932800</v>
       </c>
       <c r="I94" s="3">
+        <v>-2230200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5640700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8162200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>800000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3258200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1944600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>3186600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6234,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-514200</v>
+        <v>-573600</v>
       </c>
       <c r="E96" s="3">
-        <v>-528300</v>
+        <v>-525800</v>
       </c>
       <c r="F96" s="3">
-        <v>-511100</v>
+        <v>-514000</v>
       </c>
       <c r="G96" s="3">
-        <v>-510300</v>
+        <v>-528100</v>
       </c>
       <c r="H96" s="3">
-        <v>-504000</v>
+        <v>-510900</v>
       </c>
       <c r="I96" s="3">
+        <v>-510100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-503800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-504800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-499300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-485700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-507400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-463400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-438000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-420800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-426100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-428300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-294000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>115400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-416800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-397900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-385700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6372,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6443,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6514,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-507100</v>
+        <v>-665500</v>
       </c>
       <c r="E100" s="3">
-        <v>267700</v>
+        <v>36900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1324400</v>
+        <v>-506900</v>
       </c>
       <c r="G100" s="3">
+        <v>267600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1323900</v>
+      </c>
+      <c r="I100" s="3">
         <v>7100</v>
       </c>
-      <c r="H100" s="3">
-        <v>250400</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-594300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-621800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1317600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>973300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-436500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-159400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-559600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-996700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>737000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>90800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-275400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>323000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-242800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-191300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="F101" s="3">
         <v>31400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-76900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-10200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-80900</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="K101" s="3">
         <v>101300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-22400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>29300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>16700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>32400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>58000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-67000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>48400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-109400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>61500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-37600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2598500</v>
+        <v>-8878500</v>
       </c>
       <c r="E102" s="3">
-        <v>-12609500</v>
+        <v>3405000</v>
       </c>
       <c r="F102" s="3">
-        <v>-427900</v>
+        <v>2597500</v>
       </c>
       <c r="G102" s="3">
-        <v>-4584700</v>
+        <v>-12604500</v>
       </c>
       <c r="H102" s="3">
-        <v>9108900</v>
+        <v>-427700</v>
       </c>
       <c r="I102" s="3">
+        <v>-4582900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>9105300</v>
+      </c>
+      <c r="K102" s="3">
         <v>25917600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>717500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-78700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-196500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>69300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-224800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>521000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1363300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-103400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-570800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>440600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>330300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-242000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3092700</v>
+        <v>3021300</v>
       </c>
       <c r="E8" s="3">
-        <v>2932600</v>
+        <v>2864900</v>
       </c>
       <c r="F8" s="3">
-        <v>2872100</v>
+        <v>2805900</v>
       </c>
       <c r="G8" s="3">
-        <v>2803900</v>
+        <v>2739200</v>
       </c>
       <c r="H8" s="3">
-        <v>2959300</v>
+        <v>2891000</v>
       </c>
       <c r="I8" s="3">
-        <v>2982000</v>
+        <v>2913200</v>
       </c>
       <c r="J8" s="3">
-        <v>3011800</v>
+        <v>2942400</v>
       </c>
       <c r="K8" s="3">
         <v>3691300</v>
@@ -1303,25 +1303,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>693700</v>
+        <v>677700</v>
       </c>
       <c r="E17" s="3">
-        <v>655300</v>
+        <v>640100</v>
       </c>
       <c r="F17" s="3">
-        <v>524200</v>
+        <v>512100</v>
       </c>
       <c r="G17" s="3">
-        <v>673300</v>
+        <v>657800</v>
       </c>
       <c r="H17" s="3">
-        <v>846700</v>
+        <v>827200</v>
       </c>
       <c r="I17" s="3">
-        <v>1019400</v>
+        <v>995900</v>
       </c>
       <c r="J17" s="3">
-        <v>1282300</v>
+        <v>1252700</v>
       </c>
       <c r="K17" s="3">
         <v>2631500</v>
@@ -1374,25 +1374,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2399000</v>
+        <v>2343600</v>
       </c>
       <c r="E18" s="3">
-        <v>2277300</v>
+        <v>2224800</v>
       </c>
       <c r="F18" s="3">
-        <v>2347900</v>
+        <v>2293800</v>
       </c>
       <c r="G18" s="3">
-        <v>2130600</v>
+        <v>2081400</v>
       </c>
       <c r="H18" s="3">
-        <v>2112500</v>
+        <v>2063800</v>
       </c>
       <c r="I18" s="3">
-        <v>1962600</v>
+        <v>1917400</v>
       </c>
       <c r="J18" s="3">
-        <v>1729600</v>
+        <v>1689700</v>
       </c>
       <c r="K18" s="3">
         <v>1059800</v>
@@ -1472,25 +1472,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-515600</v>
+        <v>-503700</v>
       </c>
       <c r="E20" s="3">
-        <v>-824800</v>
+        <v>-805700</v>
       </c>
       <c r="F20" s="3">
-        <v>-592500</v>
+        <v>-578800</v>
       </c>
       <c r="G20" s="3">
-        <v>-448100</v>
+        <v>-437800</v>
       </c>
       <c r="H20" s="3">
-        <v>-472400</v>
+        <v>-461500</v>
       </c>
       <c r="I20" s="3">
-        <v>-849900</v>
+        <v>-830300</v>
       </c>
       <c r="J20" s="3">
-        <v>-567400</v>
+        <v>-554300</v>
       </c>
       <c r="K20" s="3">
         <v>-697100</v>
@@ -1543,25 +1543,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2081900</v>
+        <v>2033900</v>
       </c>
       <c r="E21" s="3">
-        <v>1677800</v>
+        <v>1639100</v>
       </c>
       <c r="F21" s="3">
-        <v>1946900</v>
+        <v>1902000</v>
       </c>
       <c r="G21" s="3">
-        <v>1877900</v>
+        <v>1834600</v>
       </c>
       <c r="H21" s="3">
-        <v>1826100</v>
+        <v>1784000</v>
       </c>
       <c r="I21" s="3">
-        <v>1360700</v>
+        <v>1329400</v>
       </c>
       <c r="J21" s="3">
-        <v>1357600</v>
+        <v>1326300</v>
       </c>
       <c r="K21" s="3">
         <v>560500</v>
@@ -1685,25 +1685,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1883400</v>
+        <v>1839900</v>
       </c>
       <c r="E23" s="3">
-        <v>1452600</v>
+        <v>1419100</v>
       </c>
       <c r="F23" s="3">
-        <v>1755500</v>
+        <v>1715000</v>
       </c>
       <c r="G23" s="3">
-        <v>1682500</v>
+        <v>1643700</v>
       </c>
       <c r="H23" s="3">
-        <v>1640100</v>
+        <v>1602300</v>
       </c>
       <c r="I23" s="3">
-        <v>1112800</v>
+        <v>1087100</v>
       </c>
       <c r="J23" s="3">
-        <v>1162200</v>
+        <v>1135400</v>
       </c>
       <c r="K23" s="3">
         <v>362700</v>
@@ -1756,25 +1756,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>416700</v>
+        <v>407100</v>
       </c>
       <c r="E24" s="3">
-        <v>322500</v>
+        <v>315100</v>
       </c>
       <c r="F24" s="3">
-        <v>397900</v>
+        <v>388700</v>
       </c>
       <c r="G24" s="3">
-        <v>386900</v>
+        <v>378000</v>
       </c>
       <c r="H24" s="3">
-        <v>364900</v>
+        <v>356500</v>
       </c>
       <c r="I24" s="3">
-        <v>315500</v>
+        <v>308200</v>
       </c>
       <c r="J24" s="3">
-        <v>242500</v>
+        <v>236900</v>
       </c>
       <c r="K24" s="3">
         <v>55000</v>
@@ -1898,25 +1898,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1466700</v>
+        <v>1432900</v>
       </c>
       <c r="E26" s="3">
-        <v>1130000</v>
+        <v>1104000</v>
       </c>
       <c r="F26" s="3">
-        <v>1357600</v>
+        <v>1326300</v>
       </c>
       <c r="G26" s="3">
-        <v>1295600</v>
+        <v>1265700</v>
       </c>
       <c r="H26" s="3">
-        <v>1275200</v>
+        <v>1245800</v>
       </c>
       <c r="I26" s="3">
-        <v>797300</v>
+        <v>778900</v>
       </c>
       <c r="J26" s="3">
-        <v>919700</v>
+        <v>898500</v>
       </c>
       <c r="K26" s="3">
         <v>307700</v>
@@ -1969,25 +1969,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1430600</v>
+        <v>1397600</v>
       </c>
       <c r="E27" s="3">
-        <v>1090000</v>
+        <v>1064900</v>
       </c>
       <c r="F27" s="3">
-        <v>1330100</v>
+        <v>1299500</v>
       </c>
       <c r="G27" s="3">
-        <v>1252400</v>
+        <v>1223600</v>
       </c>
       <c r="H27" s="3">
-        <v>1248500</v>
+        <v>1219700</v>
       </c>
       <c r="I27" s="3">
-        <v>773000</v>
+        <v>755100</v>
       </c>
       <c r="J27" s="3">
-        <v>893800</v>
+        <v>873200</v>
       </c>
       <c r="K27" s="3">
         <v>290500</v>
@@ -2324,25 +2324,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>515600</v>
+        <v>503700</v>
       </c>
       <c r="E32" s="3">
-        <v>824800</v>
+        <v>805700</v>
       </c>
       <c r="F32" s="3">
-        <v>592500</v>
+        <v>578800</v>
       </c>
       <c r="G32" s="3">
-        <v>448100</v>
+        <v>437800</v>
       </c>
       <c r="H32" s="3">
-        <v>472400</v>
+        <v>461500</v>
       </c>
       <c r="I32" s="3">
-        <v>849900</v>
+        <v>830300</v>
       </c>
       <c r="J32" s="3">
-        <v>567400</v>
+        <v>554300</v>
       </c>
       <c r="K32" s="3">
         <v>697100</v>
@@ -2395,25 +2395,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1430600</v>
+        <v>1397600</v>
       </c>
       <c r="E33" s="3">
-        <v>1090000</v>
+        <v>1064900</v>
       </c>
       <c r="F33" s="3">
-        <v>1330100</v>
+        <v>1299500</v>
       </c>
       <c r="G33" s="3">
-        <v>1252400</v>
+        <v>1223600</v>
       </c>
       <c r="H33" s="3">
-        <v>1248500</v>
+        <v>1219700</v>
       </c>
       <c r="I33" s="3">
-        <v>773000</v>
+        <v>755100</v>
       </c>
       <c r="J33" s="3">
-        <v>893800</v>
+        <v>873200</v>
       </c>
       <c r="K33" s="3">
         <v>290500</v>
@@ -2537,25 +2537,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1430600</v>
+        <v>1397600</v>
       </c>
       <c r="E35" s="3">
-        <v>1090000</v>
+        <v>1064900</v>
       </c>
       <c r="F35" s="3">
-        <v>1330100</v>
+        <v>1299500</v>
       </c>
       <c r="G35" s="3">
-        <v>1252400</v>
+        <v>1223600</v>
       </c>
       <c r="H35" s="3">
-        <v>1248500</v>
+        <v>1219700</v>
       </c>
       <c r="I35" s="3">
-        <v>773000</v>
+        <v>755100</v>
       </c>
       <c r="J35" s="3">
-        <v>893800</v>
+        <v>873200</v>
       </c>
       <c r="K35" s="3">
         <v>290500</v>
@@ -2738,25 +2738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18252300</v>
+        <v>17831300</v>
       </c>
       <c r="E41" s="3">
-        <v>27130800</v>
+        <v>26505000</v>
       </c>
       <c r="F41" s="3">
-        <v>23725800</v>
+        <v>23178600</v>
       </c>
       <c r="G41" s="3">
-        <v>21128300</v>
+        <v>20641000</v>
       </c>
       <c r="H41" s="3">
-        <v>33732800</v>
+        <v>32954800</v>
       </c>
       <c r="I41" s="3">
-        <v>34160500</v>
+        <v>33372600</v>
       </c>
       <c r="J41" s="3">
-        <v>38743400</v>
+        <v>37849800</v>
       </c>
       <c r="K41" s="3">
         <v>29649800</v>
@@ -2809,25 +2809,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>168610000</v>
+        <v>164721000</v>
       </c>
       <c r="E42" s="3">
-        <v>165204200</v>
+        <v>161393800</v>
       </c>
       <c r="F42" s="3">
-        <v>159052700</v>
+        <v>155384100</v>
       </c>
       <c r="G42" s="3">
-        <v>159388500</v>
+        <v>155712300</v>
       </c>
       <c r="H42" s="3">
-        <v>154579700</v>
+        <v>151014300</v>
       </c>
       <c r="I42" s="3">
-        <v>147964300</v>
+        <v>144551500</v>
       </c>
       <c r="J42" s="3">
-        <v>145500200</v>
+        <v>142144300</v>
       </c>
       <c r="K42" s="3">
         <v>147020200</v>
@@ -3164,25 +3164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>535200</v>
+        <v>522800</v>
       </c>
       <c r="E47" s="3">
-        <v>516400</v>
+        <v>504400</v>
       </c>
       <c r="F47" s="3">
-        <v>514000</v>
+        <v>502100</v>
       </c>
       <c r="G47" s="3">
-        <v>503000</v>
+        <v>491400</v>
       </c>
       <c r="H47" s="3">
-        <v>516400</v>
+        <v>504400</v>
       </c>
       <c r="I47" s="3">
-        <v>516400</v>
+        <v>504400</v>
       </c>
       <c r="J47" s="3">
-        <v>503800</v>
+        <v>492200</v>
       </c>
       <c r="K47" s="3">
         <v>482000</v>
@@ -3235,25 +3235,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2609300</v>
+        <v>2549100</v>
       </c>
       <c r="E48" s="3">
-        <v>2578700</v>
+        <v>2519200</v>
       </c>
       <c r="F48" s="3">
-        <v>2458600</v>
+        <v>2401900</v>
       </c>
       <c r="G48" s="3">
-        <v>2217700</v>
+        <v>2166500</v>
       </c>
       <c r="H48" s="3">
-        <v>2300900</v>
+        <v>2247800</v>
       </c>
       <c r="I48" s="3">
-        <v>2351900</v>
+        <v>2297600</v>
       </c>
       <c r="J48" s="3">
-        <v>2372300</v>
+        <v>2317600</v>
       </c>
       <c r="K48" s="3">
         <v>2405400</v>
@@ -3306,25 +3306,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5595200</v>
+        <v>5466100</v>
       </c>
       <c r="E49" s="3">
-        <v>5479800</v>
+        <v>5353400</v>
       </c>
       <c r="F49" s="3">
-        <v>5442200</v>
+        <v>5316600</v>
       </c>
       <c r="G49" s="3">
-        <v>5392700</v>
+        <v>5268400</v>
       </c>
       <c r="H49" s="3">
-        <v>5513600</v>
+        <v>5386400</v>
       </c>
       <c r="I49" s="3">
-        <v>5661100</v>
+        <v>5530500</v>
       </c>
       <c r="J49" s="3">
-        <v>5842400</v>
+        <v>5707600</v>
       </c>
       <c r="K49" s="3">
         <v>5997000</v>
@@ -3519,25 +3519,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>225200</v>
+        <v>220000</v>
       </c>
       <c r="E52" s="3">
-        <v>315500</v>
+        <v>308200</v>
       </c>
       <c r="F52" s="3">
-        <v>341400</v>
+        <v>333500</v>
       </c>
       <c r="G52" s="3">
-        <v>339800</v>
+        <v>332000</v>
       </c>
       <c r="H52" s="3">
-        <v>407300</v>
+        <v>397900</v>
       </c>
       <c r="I52" s="3">
-        <v>510100</v>
+        <v>498300</v>
       </c>
       <c r="J52" s="3">
-        <v>527300</v>
+        <v>515200</v>
       </c>
       <c r="K52" s="3">
         <v>430200</v>
@@ -3661,25 +3661,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>676182200</v>
+        <v>660586100</v>
       </c>
       <c r="E54" s="3">
-        <v>657363400</v>
+        <v>642201300</v>
       </c>
       <c r="F54" s="3">
-        <v>632553000</v>
+        <v>617963200</v>
       </c>
       <c r="G54" s="3">
-        <v>614355700</v>
+        <v>600185600</v>
       </c>
       <c r="H54" s="3">
-        <v>614379200</v>
+        <v>600208600</v>
       </c>
       <c r="I54" s="3">
-        <v>603897500</v>
+        <v>589968600</v>
       </c>
       <c r="J54" s="3">
-        <v>603108000</v>
+        <v>589197300</v>
       </c>
       <c r="K54" s="3">
         <v>595959700</v>
@@ -4070,25 +4070,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4340400</v>
+        <v>4240300</v>
       </c>
       <c r="E61" s="3">
-        <v>4346700</v>
+        <v>4246400</v>
       </c>
       <c r="F61" s="3">
-        <v>4436100</v>
+        <v>4333800</v>
       </c>
       <c r="G61" s="3">
-        <v>4436100</v>
+        <v>4333800</v>
       </c>
       <c r="H61" s="3">
-        <v>3682800</v>
+        <v>3597800</v>
       </c>
       <c r="I61" s="3">
-        <v>4482400</v>
+        <v>4379000</v>
       </c>
       <c r="J61" s="3">
-        <v>4568800</v>
+        <v>4463400</v>
       </c>
       <c r="K61" s="3">
         <v>3782400</v>
@@ -4141,25 +4141,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34500</v>
+        <v>33700</v>
       </c>
       <c r="E62" s="3">
-        <v>29800</v>
+        <v>29100</v>
       </c>
       <c r="F62" s="3">
-        <v>27500</v>
+        <v>26800</v>
       </c>
       <c r="G62" s="3">
-        <v>27500</v>
+        <v>26800</v>
       </c>
       <c r="H62" s="3">
-        <v>27500</v>
+        <v>26800</v>
       </c>
       <c r="I62" s="3">
-        <v>25900</v>
+        <v>25300</v>
       </c>
       <c r="J62" s="3">
-        <v>26700</v>
+        <v>26100</v>
       </c>
       <c r="K62" s="3">
         <v>28300</v>
@@ -4425,25 +4425,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>639218600</v>
+        <v>624475000</v>
       </c>
       <c r="E66" s="3">
-        <v>621541500</v>
+        <v>607205700</v>
       </c>
       <c r="F66" s="3">
-        <v>597939700</v>
+        <v>584148200</v>
       </c>
       <c r="G66" s="3">
-        <v>580996400</v>
+        <v>567595700</v>
       </c>
       <c r="H66" s="3">
-        <v>581614800</v>
+        <v>568199800</v>
       </c>
       <c r="I66" s="3">
-        <v>571602300</v>
+        <v>558418300</v>
       </c>
       <c r="J66" s="3">
-        <v>571781200</v>
+        <v>558593100</v>
       </c>
       <c r="K66" s="3">
         <v>564503500</v>
@@ -4665,25 +4665,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3394000</v>
+        <v>3315700</v>
       </c>
       <c r="E70" s="3">
-        <v>3394000</v>
+        <v>3315700</v>
       </c>
       <c r="F70" s="3">
-        <v>2805400</v>
+        <v>2740700</v>
       </c>
       <c r="G70" s="3">
-        <v>2805400</v>
+        <v>2740700</v>
       </c>
       <c r="H70" s="3">
-        <v>2805400</v>
+        <v>2740700</v>
       </c>
       <c r="I70" s="3">
-        <v>2805400</v>
+        <v>2740700</v>
       </c>
       <c r="J70" s="3">
-        <v>2216900</v>
+        <v>2165800</v>
       </c>
       <c r="K70" s="3">
         <v>2217800</v>
@@ -4807,25 +4807,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21036500</v>
+        <v>20551300</v>
       </c>
       <c r="E72" s="3">
-        <v>20240800</v>
+        <v>19773900</v>
       </c>
       <c r="F72" s="3">
-        <v>19661700</v>
+        <v>19208200</v>
       </c>
       <c r="G72" s="3">
-        <v>18836100</v>
+        <v>18401700</v>
       </c>
       <c r="H72" s="3">
-        <v>18096100</v>
+        <v>17678700</v>
       </c>
       <c r="I72" s="3">
-        <v>17357700</v>
+        <v>16957300</v>
       </c>
       <c r="J72" s="3">
-        <v>17049300</v>
+        <v>16656000</v>
       </c>
       <c r="K72" s="3">
         <v>16672900</v>
@@ -5091,25 +5091,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33569600</v>
+        <v>32795300</v>
       </c>
       <c r="E76" s="3">
-        <v>32427800</v>
+        <v>31679900</v>
       </c>
       <c r="F76" s="3">
-        <v>31807900</v>
+        <v>31074200</v>
       </c>
       <c r="G76" s="3">
-        <v>30553900</v>
+        <v>29849100</v>
       </c>
       <c r="H76" s="3">
-        <v>29959000</v>
+        <v>29268000</v>
       </c>
       <c r="I76" s="3">
-        <v>29489700</v>
+        <v>28809600</v>
       </c>
       <c r="J76" s="3">
-        <v>29109900</v>
+        <v>28438500</v>
       </c>
       <c r="K76" s="3">
         <v>29238400</v>
@@ -5309,25 +5309,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1430600</v>
+        <v>1397600</v>
       </c>
       <c r="E81" s="3">
-        <v>1090000</v>
+        <v>1064900</v>
       </c>
       <c r="F81" s="3">
-        <v>1330100</v>
+        <v>1299500</v>
       </c>
       <c r="G81" s="3">
-        <v>1252400</v>
+        <v>1223600</v>
       </c>
       <c r="H81" s="3">
-        <v>1248500</v>
+        <v>1219700</v>
       </c>
       <c r="I81" s="3">
-        <v>773000</v>
+        <v>755100</v>
       </c>
       <c r="J81" s="3">
-        <v>893800</v>
+        <v>873200</v>
       </c>
       <c r="K81" s="3">
         <v>290500</v>
@@ -5407,25 +5407,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>198500</v>
+        <v>194000</v>
       </c>
       <c r="E83" s="3">
-        <v>225200</v>
+        <v>220000</v>
       </c>
       <c r="F83" s="3">
-        <v>191500</v>
+        <v>187100</v>
       </c>
       <c r="G83" s="3">
-        <v>195400</v>
+        <v>190900</v>
       </c>
       <c r="H83" s="3">
-        <v>186000</v>
+        <v>181700</v>
       </c>
       <c r="I83" s="3">
-        <v>248000</v>
+        <v>242300</v>
       </c>
       <c r="J83" s="3">
-        <v>195400</v>
+        <v>190900</v>
       </c>
       <c r="K83" s="3">
         <v>197800</v>
@@ -5833,25 +5833,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-763600</v>
+        <v>-745900</v>
       </c>
       <c r="E89" s="3">
-        <v>6516500</v>
+        <v>6366200</v>
       </c>
       <c r="F89" s="3">
-        <v>5676800</v>
+        <v>5545900</v>
       </c>
       <c r="G89" s="3">
-        <v>-13848300</v>
+        <v>-13528900</v>
       </c>
       <c r="H89" s="3">
-        <v>-959700</v>
+        <v>-937600</v>
       </c>
       <c r="I89" s="3">
-        <v>-2349500</v>
+        <v>-2295300</v>
       </c>
       <c r="J89" s="3">
-        <v>14576500</v>
+        <v>14240300</v>
       </c>
       <c r="K89" s="3">
         <v>34572800</v>
@@ -5931,25 +5931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-157700</v>
+        <v>-154100</v>
       </c>
       <c r="E91" s="3">
-        <v>-211900</v>
+        <v>-207000</v>
       </c>
       <c r="F91" s="3">
-        <v>-164800</v>
+        <v>-161000</v>
       </c>
       <c r="G91" s="3">
-        <v>-226000</v>
+        <v>-220800</v>
       </c>
       <c r="H91" s="3">
-        <v>-55700</v>
+        <v>-54400</v>
       </c>
       <c r="I91" s="3">
-        <v>-78500</v>
+        <v>-76700</v>
       </c>
       <c r="J91" s="3">
-        <v>-76900</v>
+        <v>-75100</v>
       </c>
       <c r="K91" s="3">
         <v>-38500</v>
@@ -6144,25 +6144,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7506000</v>
+        <v>-7332900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3131900</v>
+        <v>-3059700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2603800</v>
+        <v>-2543700</v>
       </c>
       <c r="G94" s="3">
-        <v>1051600</v>
+        <v>1027300</v>
       </c>
       <c r="H94" s="3">
-        <v>1932800</v>
+        <v>1888200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2230200</v>
+        <v>-2178800</v>
       </c>
       <c r="J94" s="3">
-        <v>-5640700</v>
+        <v>-5510600</v>
       </c>
       <c r="K94" s="3">
         <v>-8162200</v>
@@ -6242,25 +6242,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-573600</v>
+        <v>-560400</v>
       </c>
       <c r="E96" s="3">
-        <v>-525800</v>
+        <v>-513600</v>
       </c>
       <c r="F96" s="3">
-        <v>-514000</v>
+        <v>-502100</v>
       </c>
       <c r="G96" s="3">
-        <v>-528100</v>
+        <v>-515900</v>
       </c>
       <c r="H96" s="3">
-        <v>-510900</v>
+        <v>-499100</v>
       </c>
       <c r="I96" s="3">
-        <v>-510100</v>
+        <v>-498300</v>
       </c>
       <c r="J96" s="3">
-        <v>-503800</v>
+        <v>-492200</v>
       </c>
       <c r="K96" s="3">
         <v>-504800</v>
@@ -6526,25 +6526,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-665500</v>
+        <v>-650100</v>
       </c>
       <c r="E100" s="3">
-        <v>36900</v>
+        <v>36000</v>
       </c>
       <c r="F100" s="3">
-        <v>-506900</v>
+        <v>-495200</v>
       </c>
       <c r="G100" s="3">
-        <v>267600</v>
+        <v>261400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1323900</v>
+        <v>-1293300</v>
       </c>
       <c r="I100" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="J100" s="3">
-        <v>250300</v>
+        <v>244600</v>
       </c>
       <c r="K100" s="3">
         <v>-594300</v>
@@ -6597,25 +6597,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>56500</v>
+        <v>55200</v>
       </c>
       <c r="E101" s="3">
-        <v>-16500</v>
+        <v>-16100</v>
       </c>
       <c r="F101" s="3">
-        <v>31400</v>
+        <v>30700</v>
       </c>
       <c r="G101" s="3">
-        <v>-75300</v>
+        <v>-73600</v>
       </c>
       <c r="H101" s="3">
-        <v>-76900</v>
+        <v>-75100</v>
       </c>
       <c r="I101" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="J101" s="3">
-        <v>-80800</v>
+        <v>-79000</v>
       </c>
       <c r="K101" s="3">
         <v>101300</v>
@@ -6668,25 +6668,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8878500</v>
+        <v>-8673800</v>
       </c>
       <c r="E102" s="3">
-        <v>3405000</v>
+        <v>3326500</v>
       </c>
       <c r="F102" s="3">
-        <v>2597500</v>
+        <v>2537600</v>
       </c>
       <c r="G102" s="3">
-        <v>-12604500</v>
+        <v>-12313800</v>
       </c>
       <c r="H102" s="3">
-        <v>-427700</v>
+        <v>-417800</v>
       </c>
       <c r="I102" s="3">
-        <v>-4582900</v>
+        <v>-4477200</v>
       </c>
       <c r="J102" s="3">
-        <v>9105300</v>
+        <v>8895300</v>
       </c>
       <c r="K102" s="3">
         <v>25917600</v>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,175 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3021300</v>
+        <v>4487800</v>
       </c>
       <c r="E8" s="3">
-        <v>2864900</v>
+        <v>3285300</v>
       </c>
       <c r="F8" s="3">
-        <v>2805900</v>
+        <v>3049300</v>
       </c>
       <c r="G8" s="3">
-        <v>2739200</v>
+        <v>2891500</v>
       </c>
       <c r="H8" s="3">
-        <v>2891000</v>
+        <v>2831900</v>
       </c>
       <c r="I8" s="3">
+        <v>2764600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2917800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2913200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2942400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3691300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4068100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4114300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4369900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3868300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3944600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3441600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3429700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3183500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2964900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2846600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2543700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2426100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2452200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +903,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +980,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1013,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1086,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1163,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,8 +1240,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1317,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1347,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>677700</v>
+        <v>2171900</v>
       </c>
       <c r="E17" s="3">
-        <v>640100</v>
+        <v>1130400</v>
       </c>
       <c r="F17" s="3">
-        <v>512100</v>
+        <v>684000</v>
       </c>
       <c r="G17" s="3">
-        <v>657800</v>
+        <v>646100</v>
       </c>
       <c r="H17" s="3">
-        <v>827200</v>
+        <v>516900</v>
       </c>
       <c r="I17" s="3">
+        <v>663900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>834900</v>
+      </c>
+      <c r="K17" s="3">
         <v>995900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1252700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2631500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2105500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2243900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2377700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2170900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2206300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1788400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1671200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1479200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1238400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1183300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1005400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>954100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>969500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2343600</v>
+        <v>2315800</v>
       </c>
       <c r="E18" s="3">
-        <v>2224800</v>
+        <v>2154900</v>
       </c>
       <c r="F18" s="3">
-        <v>2293800</v>
+        <v>2365400</v>
       </c>
       <c r="G18" s="3">
-        <v>2081400</v>
+        <v>2245400</v>
       </c>
       <c r="H18" s="3">
-        <v>2063800</v>
+        <v>2315100</v>
       </c>
       <c r="I18" s="3">
+        <v>2100700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2082900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1917400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1689700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1059800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1962600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1870400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1992200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1697500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1738300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1653200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1758500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1704300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1726600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1663300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1538300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1471900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1482700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,150 +1530,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-503700</v>
+        <v>-656100</v>
       </c>
       <c r="E20" s="3">
-        <v>-805700</v>
+        <v>-639100</v>
       </c>
       <c r="F20" s="3">
-        <v>-578800</v>
+        <v>-508400</v>
       </c>
       <c r="G20" s="3">
-        <v>-437800</v>
+        <v>-813200</v>
       </c>
       <c r="H20" s="3">
-        <v>-461500</v>
+        <v>-584200</v>
       </c>
       <c r="I20" s="3">
+        <v>-441800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-465800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-830300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-554300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-697100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-762300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-676000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-524000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-389500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-608900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-492700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-453200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-464500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-440600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-569300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-464400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-516300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-159000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2033900</v>
+        <v>1860900</v>
       </c>
       <c r="E21" s="3">
-        <v>1639100</v>
+        <v>1713900</v>
       </c>
       <c r="F21" s="3">
-        <v>1902000</v>
+        <v>2052800</v>
       </c>
       <c r="G21" s="3">
-        <v>1834600</v>
+        <v>1654300</v>
       </c>
       <c r="H21" s="3">
-        <v>1784000</v>
+        <v>1919700</v>
       </c>
       <c r="I21" s="3">
+        <v>1851600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1800500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1329400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1326300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>560500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1393500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1437700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1615000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1445000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1278200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1431100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1361800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1409500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1207100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1180300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1053200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1415800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,150 +1757,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1839900</v>
+        <v>1659700</v>
       </c>
       <c r="E23" s="3">
-        <v>1419100</v>
+        <v>1515800</v>
       </c>
       <c r="F23" s="3">
-        <v>1715000</v>
+        <v>1857000</v>
       </c>
       <c r="G23" s="3">
-        <v>1643700</v>
+        <v>1432200</v>
       </c>
       <c r="H23" s="3">
-        <v>1602300</v>
+        <v>1730900</v>
       </c>
       <c r="I23" s="3">
+        <v>1658900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1617100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1087100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1135400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>362700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1200300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1194500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1468200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1307900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1129300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1160500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1305300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1239800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1286000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1094000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1073900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>955700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1323700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>407100</v>
+        <v>370600</v>
       </c>
       <c r="E24" s="3">
-        <v>315100</v>
+        <v>337400</v>
       </c>
       <c r="F24" s="3">
-        <v>388700</v>
+        <v>410900</v>
       </c>
       <c r="G24" s="3">
-        <v>378000</v>
+        <v>318000</v>
       </c>
       <c r="H24" s="3">
-        <v>356500</v>
+        <v>392300</v>
       </c>
       <c r="I24" s="3">
+        <v>381500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>359800</v>
+      </c>
+      <c r="K24" s="3">
         <v>308200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>236900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>248900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>264300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>309200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>270200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>219400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>239100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>274800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>246900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>232200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>227700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>257500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>149000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>242800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1988,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1432900</v>
+        <v>1289100</v>
       </c>
       <c r="E26" s="3">
-        <v>1104000</v>
+        <v>1178400</v>
       </c>
       <c r="F26" s="3">
-        <v>1326300</v>
+        <v>1446100</v>
       </c>
       <c r="G26" s="3">
-        <v>1265700</v>
+        <v>1114200</v>
       </c>
       <c r="H26" s="3">
-        <v>1245800</v>
+        <v>1338600</v>
       </c>
       <c r="I26" s="3">
+        <v>1277500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1257300</v>
+      </c>
+      <c r="K26" s="3">
         <v>778900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>898500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>307700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>951500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>930100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1159000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1037700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>909900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>921400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1030600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>992900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1053800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>866300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>816400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>806600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1080900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1397600</v>
+        <v>1248800</v>
       </c>
       <c r="E27" s="3">
-        <v>1064900</v>
+        <v>1138200</v>
       </c>
       <c r="F27" s="3">
-        <v>1299500</v>
+        <v>1410500</v>
       </c>
       <c r="G27" s="3">
-        <v>1223600</v>
+        <v>1074700</v>
       </c>
       <c r="H27" s="3">
-        <v>1219700</v>
+        <v>1311500</v>
       </c>
       <c r="I27" s="3">
+        <v>1234900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="K27" s="3">
         <v>755100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>873200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>290500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>921600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>899000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1130800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1010800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>889100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>902500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1010200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>970300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1036700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>844700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>806700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>795100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1070100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2219,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2140,11 +2260,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2158,15 +2278,15 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-65500</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2176,8 +2296,14 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2373,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2450,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>503700</v>
+        <v>656100</v>
       </c>
       <c r="E32" s="3">
-        <v>805700</v>
+        <v>639100</v>
       </c>
       <c r="F32" s="3">
-        <v>578800</v>
+        <v>508400</v>
       </c>
       <c r="G32" s="3">
-        <v>437800</v>
+        <v>813200</v>
       </c>
       <c r="H32" s="3">
-        <v>461500</v>
+        <v>584200</v>
       </c>
       <c r="I32" s="3">
+        <v>441800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>465800</v>
+      </c>
+      <c r="K32" s="3">
         <v>830300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>554300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>697100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>762300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>676000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>524000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>389500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>608900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>492700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>453200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>464500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>440600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>569300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>464400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>516300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>159000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1397600</v>
+        <v>1248800</v>
       </c>
       <c r="E33" s="3">
-        <v>1064900</v>
+        <v>1138200</v>
       </c>
       <c r="F33" s="3">
-        <v>1299500</v>
+        <v>1410500</v>
       </c>
       <c r="G33" s="3">
-        <v>1223600</v>
+        <v>1074700</v>
       </c>
       <c r="H33" s="3">
-        <v>1219700</v>
+        <v>1311500</v>
       </c>
       <c r="I33" s="3">
+        <v>1234900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="K33" s="3">
         <v>755100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>873200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>290500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>921600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>899000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1130800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1010800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>889100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>902500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1010200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>970300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>971200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>844700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>806700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>795100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1070100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2681,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1397600</v>
+        <v>1248800</v>
       </c>
       <c r="E35" s="3">
-        <v>1064900</v>
+        <v>1138200</v>
       </c>
       <c r="F35" s="3">
-        <v>1299500</v>
+        <v>1410500</v>
       </c>
       <c r="G35" s="3">
-        <v>1223600</v>
+        <v>1074700</v>
       </c>
       <c r="H35" s="3">
-        <v>1219700</v>
+        <v>1311500</v>
       </c>
       <c r="I35" s="3">
+        <v>1234900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="K35" s="3">
         <v>755100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>873200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>290500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>921600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>899000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1130800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1010800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>889100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>902500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1010200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>970300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>971200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>844700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>806700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>795100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1070100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2873,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,150 +2902,164 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17831300</v>
+        <v>20078800</v>
       </c>
       <c r="E41" s="3">
-        <v>26505000</v>
+        <v>16069200</v>
       </c>
       <c r="F41" s="3">
-        <v>23178600</v>
+        <v>17996700</v>
       </c>
       <c r="G41" s="3">
-        <v>20641000</v>
+        <v>26750900</v>
       </c>
       <c r="H41" s="3">
-        <v>32954800</v>
+        <v>23393600</v>
       </c>
       <c r="I41" s="3">
+        <v>20832400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>33260400</v>
+      </c>
+      <c r="K41" s="3">
         <v>33372600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>37849800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29649800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3732100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2993900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3267300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3216300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3147000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3182900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2757500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3848300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2456600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2560100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3130900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2777200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2446800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>164721000</v>
+        <v>139514100</v>
       </c>
       <c r="E42" s="3">
-        <v>161393800</v>
+        <v>170934500</v>
       </c>
       <c r="F42" s="3">
-        <v>155384100</v>
+        <v>166248700</v>
       </c>
       <c r="G42" s="3">
-        <v>155712300</v>
+        <v>162890600</v>
       </c>
       <c r="H42" s="3">
-        <v>151014300</v>
+        <v>156825200</v>
       </c>
       <c r="I42" s="3">
+        <v>157156400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>152414800</v>
+      </c>
+      <c r="K42" s="3">
         <v>144551500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>142144300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>147020200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>132310800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>118187100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>124243900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>114917200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>111240500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>99017300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>102777700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>104055200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>109982300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>97603900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>100635800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>107950900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>104933300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,8 +3129,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3206,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3283,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,221 +3360,245 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>522800</v>
+        <v>484400</v>
       </c>
       <c r="E47" s="3">
+        <v>477400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>527700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>509100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>506800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>496000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>509100</v>
+      </c>
+      <c r="K47" s="3">
         <v>504400</v>
       </c>
-      <c r="F47" s="3">
-        <v>502100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>491400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>504400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>504400</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>492200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>482000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>452200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>456900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>484200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>425700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>400300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>382200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>375600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>393700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>413000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>532100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>550700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>564600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>545400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2549100</v>
+        <v>2542500</v>
       </c>
       <c r="E48" s="3">
-        <v>2519200</v>
+        <v>2597500</v>
       </c>
       <c r="F48" s="3">
-        <v>2401900</v>
+        <v>2572700</v>
       </c>
       <c r="G48" s="3">
-        <v>2166500</v>
+        <v>2542500</v>
       </c>
       <c r="H48" s="3">
-        <v>2247800</v>
+        <v>2424200</v>
       </c>
       <c r="I48" s="3">
+        <v>2186600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2268600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2297600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2317600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2405400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2423400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1413500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1468200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1374900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1372600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1304400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1304600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1314400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1291200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1326900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1311300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1379700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1345900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5466100</v>
+        <v>5855700</v>
       </c>
       <c r="E49" s="3">
-        <v>5353400</v>
+        <v>5783000</v>
       </c>
       <c r="F49" s="3">
-        <v>5316600</v>
+        <v>5516800</v>
       </c>
       <c r="G49" s="3">
-        <v>5268400</v>
+        <v>5403100</v>
       </c>
       <c r="H49" s="3">
-        <v>5386400</v>
+        <v>5366000</v>
       </c>
       <c r="I49" s="3">
+        <v>5317200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5436400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5530500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5707600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5997000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5821900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5783600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6212100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5829100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5754400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5456700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5594000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5551800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5348600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5466200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5152200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2307000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2267000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3668,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3745,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>220000</v>
+        <v>246800</v>
       </c>
       <c r="E52" s="3">
-        <v>308200</v>
+        <v>232100</v>
       </c>
       <c r="F52" s="3">
-        <v>333500</v>
+        <v>222100</v>
       </c>
       <c r="G52" s="3">
-        <v>332000</v>
+        <v>311000</v>
       </c>
       <c r="H52" s="3">
-        <v>397900</v>
+        <v>336600</v>
       </c>
       <c r="I52" s="3">
+        <v>335000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>401600</v>
+      </c>
+      <c r="K52" s="3">
         <v>498300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>515200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>430200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>440400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>403100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>451000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>411100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>478100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>436700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>402700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>455400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>451700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>541000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>529900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>540100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>490900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3899,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>660586100</v>
+        <v>693891300</v>
       </c>
       <c r="E54" s="3">
-        <v>642201300</v>
+        <v>691847000</v>
       </c>
       <c r="F54" s="3">
-        <v>617963200</v>
+        <v>666712500</v>
       </c>
       <c r="G54" s="3">
-        <v>600185600</v>
+        <v>648157200</v>
       </c>
       <c r="H54" s="3">
-        <v>600208600</v>
+        <v>623694300</v>
       </c>
       <c r="I54" s="3">
+        <v>605751900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>605775100</v>
+      </c>
+      <c r="K54" s="3">
         <v>589968600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>589197300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>595959700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>527646200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>508036100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>532682900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>488149800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>473167600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>433905900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>447928900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>444550300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>436796900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>420675100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>417436300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>406079500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>394327800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +4009,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,8 +4038,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3851,8 +4111,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,8 +4188,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3993,8 +4265,14 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4342,168 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4240300</v>
+        <v>4920300</v>
       </c>
       <c r="E61" s="3">
-        <v>4246400</v>
+        <v>4867700</v>
       </c>
       <c r="F61" s="3">
-        <v>4333800</v>
+        <v>4279600</v>
       </c>
       <c r="G61" s="3">
-        <v>4333800</v>
+        <v>4285800</v>
       </c>
       <c r="H61" s="3">
-        <v>3597800</v>
+        <v>4374000</v>
       </c>
       <c r="I61" s="3">
+        <v>4374000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3631200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4379000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4463400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3782400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3685800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3652000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4659300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3210900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3204000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2964900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>12182400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>13819700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>13686800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>12593500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>11741400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>12597400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>11580300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33700</v>
+        <v>80500</v>
       </c>
       <c r="E62" s="3">
-        <v>29100</v>
+        <v>93600</v>
       </c>
       <c r="F62" s="3">
-        <v>26800</v>
+        <v>34000</v>
       </c>
       <c r="G62" s="3">
-        <v>26800</v>
+        <v>29400</v>
       </c>
       <c r="H62" s="3">
-        <v>26800</v>
+        <v>27100</v>
       </c>
       <c r="I62" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K62" s="3">
         <v>25300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>26100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>28300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>27500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>29600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>31500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>30800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>31600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>31200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>23300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>24100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>23800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>22300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>22300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>15400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>16900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4573,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4650,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4727,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>624475000</v>
+        <v>656264600</v>
       </c>
       <c r="E66" s="3">
-        <v>607205700</v>
+        <v>654897400</v>
       </c>
       <c r="F66" s="3">
-        <v>584148200</v>
+        <v>630266600</v>
       </c>
       <c r="G66" s="3">
-        <v>567595700</v>
+        <v>612837100</v>
       </c>
       <c r="H66" s="3">
-        <v>568199800</v>
+        <v>589565800</v>
       </c>
       <c r="I66" s="3">
+        <v>572859700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>573469500</v>
+      </c>
+      <c r="K66" s="3">
         <v>558418300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>558593100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>564503500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>496998700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>478101400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>501321600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>459643400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>445524100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>408513100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>422047200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>419432800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>412881800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>397578600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>395235000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>386360500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>375481600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4837,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4910,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,79 +4987,91 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3315700</v>
+        <v>3346500</v>
       </c>
       <c r="E70" s="3">
-        <v>3315700</v>
+        <v>3346500</v>
       </c>
       <c r="F70" s="3">
+        <v>3346500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3346500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2766200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2766200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2766200</v>
+      </c>
+      <c r="K70" s="3">
         <v>2740700</v>
       </c>
-      <c r="G70" s="3">
-        <v>2740700</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2740700</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2740700</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>2165800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>2217800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2217800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>2202600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>2342100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1982300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1982300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>1635100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>1693800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>1692300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>1671500</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>1337300</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="W70" s="3">
-        <v>768200</v>
-      </c>
-      <c r="X70" s="3">
-        <v>768200</v>
       </c>
       <c r="Y70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>768200</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +5141,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20551300</v>
+        <v>22004700</v>
       </c>
       <c r="E72" s="3">
-        <v>19773900</v>
+        <v>21330000</v>
       </c>
       <c r="F72" s="3">
-        <v>19208200</v>
+        <v>20741900</v>
       </c>
       <c r="G72" s="3">
-        <v>18401700</v>
+        <v>19957300</v>
       </c>
       <c r="H72" s="3">
-        <v>17678700</v>
+        <v>19386300</v>
       </c>
       <c r="I72" s="3">
+        <v>18572300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17842700</v>
+      </c>
+      <c r="K72" s="3">
         <v>16957300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16656000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16672900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>16912300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>16351200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>17024500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15237000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14704300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13470700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>13588600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13107600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>12429100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>11982500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>11561300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>11531900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>11126300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5295,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5372,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5449,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32795300</v>
+        <v>34280200</v>
       </c>
       <c r="E76" s="3">
-        <v>31679900</v>
+        <v>33603200</v>
       </c>
       <c r="F76" s="3">
-        <v>31074200</v>
+        <v>33099500</v>
       </c>
       <c r="G76" s="3">
-        <v>29849100</v>
+        <v>31973700</v>
       </c>
       <c r="H76" s="3">
-        <v>29268000</v>
+        <v>31362400</v>
       </c>
       <c r="I76" s="3">
+        <v>30126000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>29539500</v>
+      </c>
+      <c r="K76" s="3">
         <v>28809600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28438500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>29238400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28429800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27732100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>29019200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26524100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>25661200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>23757700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24187900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>23425300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>22243700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>21759200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>20864700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>18950700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>18078000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5603,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1397600</v>
+        <v>1248800</v>
       </c>
       <c r="E81" s="3">
-        <v>1064900</v>
+        <v>1138200</v>
       </c>
       <c r="F81" s="3">
-        <v>1299500</v>
+        <v>1410500</v>
       </c>
       <c r="G81" s="3">
-        <v>1223600</v>
+        <v>1074700</v>
       </c>
       <c r="H81" s="3">
-        <v>1219700</v>
+        <v>1311500</v>
       </c>
       <c r="I81" s="3">
+        <v>1234900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="K81" s="3">
         <v>755100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>873200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>290500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>921600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>899000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1130800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1010800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>889100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>902500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1010200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>970300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>971200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>844700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>806700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>795100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1070100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5795,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>194000</v>
+        <v>201200</v>
       </c>
       <c r="E83" s="3">
-        <v>220000</v>
+        <v>198100</v>
       </c>
       <c r="F83" s="3">
-        <v>187100</v>
+        <v>195800</v>
       </c>
       <c r="G83" s="3">
+        <v>222100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>188800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>192700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>183400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>242300</v>
+      </c>
+      <c r="L83" s="3">
         <v>190900</v>
       </c>
-      <c r="H83" s="3">
-        <v>181700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>242300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>190900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>197800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>193100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>243300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>146700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>137000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>131600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>117700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>125700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>122000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>123500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>113100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>106400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>97600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>92200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5945,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +6022,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +6099,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +6176,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6253,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-745900</v>
+        <v>6149800</v>
       </c>
       <c r="E89" s="3">
-        <v>6366200</v>
+        <v>5319500</v>
       </c>
       <c r="F89" s="3">
-        <v>5545900</v>
+        <v>-752900</v>
       </c>
       <c r="G89" s="3">
-        <v>-13528900</v>
+        <v>6425200</v>
       </c>
       <c r="H89" s="3">
-        <v>-937600</v>
+        <v>5597300</v>
       </c>
       <c r="I89" s="3">
+        <v>-13654400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-946300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2295300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14240300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>34572800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>529900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4656200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2110800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3311000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4477300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-880700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1409200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4979000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1929700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1486900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1329900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2179500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6363,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-154100</v>
+        <v>-210500</v>
       </c>
       <c r="E91" s="3">
-        <v>-207000</v>
+        <v>-188800</v>
       </c>
       <c r="F91" s="3">
-        <v>-161000</v>
+        <v>-155500</v>
       </c>
       <c r="G91" s="3">
-        <v>-220800</v>
+        <v>-208900</v>
       </c>
       <c r="H91" s="3">
-        <v>-54400</v>
+        <v>-162500</v>
       </c>
       <c r="I91" s="3">
+        <v>-222800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-76700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-75100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-38500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-48700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-82600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-44800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-43900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-95900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-28600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-33900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-29800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6513,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6590,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7332900</v>
+        <v>-1520400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3059700</v>
+        <v>-7448100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2543700</v>
+        <v>-7400900</v>
       </c>
       <c r="G94" s="3">
-        <v>1027300</v>
+        <v>-3088000</v>
       </c>
       <c r="H94" s="3">
-        <v>1888200</v>
+        <v>-2567300</v>
       </c>
       <c r="I94" s="3">
+        <v>1036800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1905700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2178800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5510600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8162200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>800000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3258200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1944600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>3186600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6700,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-560400</v>
+        <v>-584200</v>
       </c>
       <c r="E96" s="3">
-        <v>-513600</v>
+        <v>-569500</v>
       </c>
       <c r="F96" s="3">
-        <v>-502100</v>
+        <v>-565600</v>
       </c>
       <c r="G96" s="3">
-        <v>-515900</v>
+        <v>-518400</v>
       </c>
       <c r="H96" s="3">
-        <v>-499100</v>
+        <v>-506800</v>
       </c>
       <c r="I96" s="3">
+        <v>-520700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-503700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-498300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-492200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-504800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-499300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-485700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-507400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-463400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-420800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-426100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-428300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-294000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>115400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-416800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-397900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-385700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6850,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6927,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +7004,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-650100</v>
+        <v>-612000</v>
       </c>
       <c r="E100" s="3">
-        <v>36000</v>
+        <v>178000</v>
       </c>
       <c r="F100" s="3">
-        <v>-495200</v>
+        <v>-656100</v>
       </c>
       <c r="G100" s="3">
-        <v>261400</v>
+        <v>36400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1293300</v>
+        <v>-499800</v>
       </c>
       <c r="I100" s="3">
+        <v>263800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1305300</v>
+      </c>
+      <c r="K100" s="3">
         <v>6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>244600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-594300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-621800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1317600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>973300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-436500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-159400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-559600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-996700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>737000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>90800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-275400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>323000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-242800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-191300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55200</v>
+        <v>-7700</v>
       </c>
       <c r="E101" s="3">
-        <v>-16100</v>
+        <v>23200</v>
       </c>
       <c r="F101" s="3">
-        <v>30700</v>
+        <v>55700</v>
       </c>
       <c r="G101" s="3">
-        <v>-73600</v>
+        <v>-16200</v>
       </c>
       <c r="H101" s="3">
-        <v>-75100</v>
+        <v>31000</v>
       </c>
       <c r="I101" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-79000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>101300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-22400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>29300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>16700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>32400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>58000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-67000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>48400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-109400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>61500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-37600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8673800</v>
+        <v>4009600</v>
       </c>
       <c r="E102" s="3">
-        <v>3326500</v>
+        <v>-1927400</v>
       </c>
       <c r="F102" s="3">
-        <v>2537600</v>
+        <v>-8754200</v>
       </c>
       <c r="G102" s="3">
-        <v>-12313800</v>
+        <v>3357300</v>
       </c>
       <c r="H102" s="3">
-        <v>-417800</v>
+        <v>2561100</v>
       </c>
       <c r="I102" s="3">
+        <v>-12428000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-421700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4477200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8895300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>25917600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>717500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-78700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-196500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>69300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-224800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>521000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1363300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-103400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-570800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>440600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>330300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-242000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -761,25 +761,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4487800</v>
+        <v>4355000</v>
       </c>
       <c r="E8" s="3">
-        <v>3285300</v>
+        <v>3188200</v>
       </c>
       <c r="F8" s="3">
-        <v>3049300</v>
+        <v>2959100</v>
       </c>
       <c r="G8" s="3">
-        <v>2891500</v>
+        <v>2806000</v>
       </c>
       <c r="H8" s="3">
-        <v>2831900</v>
+        <v>2748100</v>
       </c>
       <c r="I8" s="3">
-        <v>2764600</v>
+        <v>2682800</v>
       </c>
       <c r="J8" s="3">
-        <v>2917800</v>
+        <v>2831500</v>
       </c>
       <c r="K8" s="3">
         <v>2913200</v>
@@ -1355,25 +1355,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2171900</v>
+        <v>2107700</v>
       </c>
       <c r="E17" s="3">
-        <v>1130400</v>
+        <v>1097000</v>
       </c>
       <c r="F17" s="3">
-        <v>684000</v>
+        <v>663800</v>
       </c>
       <c r="G17" s="3">
-        <v>646100</v>
+        <v>627000</v>
       </c>
       <c r="H17" s="3">
-        <v>516900</v>
+        <v>501600</v>
       </c>
       <c r="I17" s="3">
-        <v>663900</v>
+        <v>644200</v>
       </c>
       <c r="J17" s="3">
-        <v>834900</v>
+        <v>810200</v>
       </c>
       <c r="K17" s="3">
         <v>995900</v>
@@ -1432,25 +1432,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2315800</v>
+        <v>2247300</v>
       </c>
       <c r="E18" s="3">
-        <v>2154900</v>
+        <v>2091100</v>
       </c>
       <c r="F18" s="3">
-        <v>2365400</v>
+        <v>2295400</v>
       </c>
       <c r="G18" s="3">
-        <v>2245400</v>
+        <v>2179000</v>
       </c>
       <c r="H18" s="3">
-        <v>2315100</v>
+        <v>2246600</v>
       </c>
       <c r="I18" s="3">
-        <v>2100700</v>
+        <v>2038600</v>
       </c>
       <c r="J18" s="3">
-        <v>2082900</v>
+        <v>2021300</v>
       </c>
       <c r="K18" s="3">
         <v>1917400</v>
@@ -1538,25 +1538,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-656100</v>
+        <v>-636700</v>
       </c>
       <c r="E20" s="3">
-        <v>-639100</v>
+        <v>-620200</v>
       </c>
       <c r="F20" s="3">
-        <v>-508400</v>
+        <v>-493300</v>
       </c>
       <c r="G20" s="3">
-        <v>-813200</v>
+        <v>-789200</v>
       </c>
       <c r="H20" s="3">
-        <v>-584200</v>
+        <v>-566900</v>
       </c>
       <c r="I20" s="3">
-        <v>-441800</v>
+        <v>-428700</v>
       </c>
       <c r="J20" s="3">
-        <v>-465800</v>
+        <v>-452000</v>
       </c>
       <c r="K20" s="3">
         <v>-830300</v>
@@ -1615,25 +1615,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1860900</v>
+        <v>1805800</v>
       </c>
       <c r="E21" s="3">
-        <v>1713900</v>
+        <v>1663200</v>
       </c>
       <c r="F21" s="3">
-        <v>2052800</v>
+        <v>1992000</v>
       </c>
       <c r="G21" s="3">
-        <v>1654300</v>
+        <v>1605300</v>
       </c>
       <c r="H21" s="3">
-        <v>1919700</v>
+        <v>1862900</v>
       </c>
       <c r="I21" s="3">
-        <v>1851600</v>
+        <v>1796800</v>
       </c>
       <c r="J21" s="3">
-        <v>1800500</v>
+        <v>1747300</v>
       </c>
       <c r="K21" s="3">
         <v>1329400</v>
@@ -1769,25 +1769,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1659700</v>
+        <v>1610600</v>
       </c>
       <c r="E23" s="3">
-        <v>1515800</v>
+        <v>1470900</v>
       </c>
       <c r="F23" s="3">
-        <v>1857000</v>
+        <v>1802100</v>
       </c>
       <c r="G23" s="3">
-        <v>1432200</v>
+        <v>1389800</v>
       </c>
       <c r="H23" s="3">
-        <v>1730900</v>
+        <v>1679700</v>
       </c>
       <c r="I23" s="3">
-        <v>1658900</v>
+        <v>1609800</v>
       </c>
       <c r="J23" s="3">
-        <v>1617100</v>
+        <v>1569300</v>
       </c>
       <c r="K23" s="3">
         <v>1087100</v>
@@ -1846,25 +1846,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>370600</v>
+        <v>359700</v>
       </c>
       <c r="E24" s="3">
-        <v>337400</v>
+        <v>327400</v>
       </c>
       <c r="F24" s="3">
-        <v>410900</v>
+        <v>398700</v>
       </c>
       <c r="G24" s="3">
-        <v>318000</v>
+        <v>308600</v>
       </c>
       <c r="H24" s="3">
-        <v>392300</v>
+        <v>380700</v>
       </c>
       <c r="I24" s="3">
-        <v>381500</v>
+        <v>370200</v>
       </c>
       <c r="J24" s="3">
-        <v>359800</v>
+        <v>349100</v>
       </c>
       <c r="K24" s="3">
         <v>308200</v>
@@ -2000,25 +2000,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1289100</v>
+        <v>1250900</v>
       </c>
       <c r="E26" s="3">
-        <v>1178400</v>
+        <v>1143600</v>
       </c>
       <c r="F26" s="3">
-        <v>1446100</v>
+        <v>1403400</v>
       </c>
       <c r="G26" s="3">
-        <v>1114200</v>
+        <v>1081200</v>
       </c>
       <c r="H26" s="3">
-        <v>1338600</v>
+        <v>1299000</v>
       </c>
       <c r="I26" s="3">
-        <v>1277500</v>
+        <v>1239700</v>
       </c>
       <c r="J26" s="3">
-        <v>1257300</v>
+        <v>1220100</v>
       </c>
       <c r="K26" s="3">
         <v>778900</v>
@@ -2077,25 +2077,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1248800</v>
+        <v>1211900</v>
       </c>
       <c r="E27" s="3">
-        <v>1138200</v>
+        <v>1104500</v>
       </c>
       <c r="F27" s="3">
-        <v>1410500</v>
+        <v>1368800</v>
       </c>
       <c r="G27" s="3">
-        <v>1074700</v>
+        <v>1042900</v>
       </c>
       <c r="H27" s="3">
-        <v>1311500</v>
+        <v>1272700</v>
       </c>
       <c r="I27" s="3">
-        <v>1234900</v>
+        <v>1198400</v>
       </c>
       <c r="J27" s="3">
-        <v>1231000</v>
+        <v>1194600</v>
       </c>
       <c r="K27" s="3">
         <v>755100</v>
@@ -2462,25 +2462,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>656100</v>
+        <v>636700</v>
       </c>
       <c r="E32" s="3">
-        <v>639100</v>
+        <v>620200</v>
       </c>
       <c r="F32" s="3">
-        <v>508400</v>
+        <v>493300</v>
       </c>
       <c r="G32" s="3">
-        <v>813200</v>
+        <v>789200</v>
       </c>
       <c r="H32" s="3">
-        <v>584200</v>
+        <v>566900</v>
       </c>
       <c r="I32" s="3">
-        <v>441800</v>
+        <v>428700</v>
       </c>
       <c r="J32" s="3">
-        <v>465800</v>
+        <v>452000</v>
       </c>
       <c r="K32" s="3">
         <v>830300</v>
@@ -2539,25 +2539,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1248800</v>
+        <v>1211900</v>
       </c>
       <c r="E33" s="3">
-        <v>1138200</v>
+        <v>1104500</v>
       </c>
       <c r="F33" s="3">
-        <v>1410500</v>
+        <v>1368800</v>
       </c>
       <c r="G33" s="3">
-        <v>1074700</v>
+        <v>1042900</v>
       </c>
       <c r="H33" s="3">
-        <v>1311500</v>
+        <v>1272700</v>
       </c>
       <c r="I33" s="3">
-        <v>1234900</v>
+        <v>1198400</v>
       </c>
       <c r="J33" s="3">
-        <v>1231000</v>
+        <v>1194600</v>
       </c>
       <c r="K33" s="3">
         <v>755100</v>
@@ -2693,25 +2693,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1248800</v>
+        <v>1211900</v>
       </c>
       <c r="E35" s="3">
-        <v>1138200</v>
+        <v>1104500</v>
       </c>
       <c r="F35" s="3">
-        <v>1410500</v>
+        <v>1368800</v>
       </c>
       <c r="G35" s="3">
-        <v>1074700</v>
+        <v>1042900</v>
       </c>
       <c r="H35" s="3">
-        <v>1311500</v>
+        <v>1272700</v>
       </c>
       <c r="I35" s="3">
-        <v>1234900</v>
+        <v>1198400</v>
       </c>
       <c r="J35" s="3">
-        <v>1231000</v>
+        <v>1194600</v>
       </c>
       <c r="K35" s="3">
         <v>755100</v>
@@ -2910,25 +2910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20078800</v>
+        <v>19484800</v>
       </c>
       <c r="E41" s="3">
-        <v>16069200</v>
+        <v>15593900</v>
       </c>
       <c r="F41" s="3">
-        <v>17996700</v>
+        <v>17464300</v>
       </c>
       <c r="G41" s="3">
-        <v>26750900</v>
+        <v>25959500</v>
       </c>
       <c r="H41" s="3">
-        <v>23393600</v>
+        <v>22701500</v>
       </c>
       <c r="I41" s="3">
-        <v>20832400</v>
+        <v>20216200</v>
       </c>
       <c r="J41" s="3">
-        <v>33260400</v>
+        <v>32276500</v>
       </c>
       <c r="K41" s="3">
         <v>33372600</v>
@@ -2987,25 +2987,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>139514100</v>
+        <v>135386800</v>
       </c>
       <c r="E42" s="3">
-        <v>170934500</v>
+        <v>165877700</v>
       </c>
       <c r="F42" s="3">
-        <v>166248700</v>
+        <v>161330500</v>
       </c>
       <c r="G42" s="3">
-        <v>162890600</v>
+        <v>158071800</v>
       </c>
       <c r="H42" s="3">
-        <v>156825200</v>
+        <v>152185800</v>
       </c>
       <c r="I42" s="3">
-        <v>157156400</v>
+        <v>152507200</v>
       </c>
       <c r="J42" s="3">
-        <v>152414800</v>
+        <v>147905900</v>
       </c>
       <c r="K42" s="3">
         <v>144551500</v>
@@ -3372,25 +3372,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>484400</v>
+        <v>470000</v>
       </c>
       <c r="E47" s="3">
-        <v>477400</v>
+        <v>463300</v>
       </c>
       <c r="F47" s="3">
-        <v>527700</v>
+        <v>512100</v>
       </c>
       <c r="G47" s="3">
-        <v>509100</v>
+        <v>494100</v>
       </c>
       <c r="H47" s="3">
-        <v>506800</v>
+        <v>491800</v>
       </c>
       <c r="I47" s="3">
-        <v>496000</v>
+        <v>481300</v>
       </c>
       <c r="J47" s="3">
-        <v>509100</v>
+        <v>494100</v>
       </c>
       <c r="K47" s="3">
         <v>504400</v>
@@ -3449,25 +3449,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2542500</v>
+        <v>2467300</v>
       </c>
       <c r="E48" s="3">
-        <v>2597500</v>
+        <v>2520600</v>
       </c>
       <c r="F48" s="3">
-        <v>2572700</v>
+        <v>2496600</v>
       </c>
       <c r="G48" s="3">
-        <v>2542500</v>
+        <v>2467300</v>
       </c>
       <c r="H48" s="3">
-        <v>2424200</v>
+        <v>2352400</v>
       </c>
       <c r="I48" s="3">
-        <v>2186600</v>
+        <v>2121900</v>
       </c>
       <c r="J48" s="3">
-        <v>2268600</v>
+        <v>2201500</v>
       </c>
       <c r="K48" s="3">
         <v>2297600</v>
@@ -3526,25 +3526,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5855700</v>
+        <v>5682500</v>
       </c>
       <c r="E49" s="3">
-        <v>5783000</v>
+        <v>5611900</v>
       </c>
       <c r="F49" s="3">
-        <v>5516800</v>
+        <v>5353600</v>
       </c>
       <c r="G49" s="3">
-        <v>5403100</v>
+        <v>5243300</v>
       </c>
       <c r="H49" s="3">
-        <v>5366000</v>
+        <v>5207200</v>
       </c>
       <c r="I49" s="3">
-        <v>5317200</v>
+        <v>5159900</v>
       </c>
       <c r="J49" s="3">
-        <v>5436400</v>
+        <v>5275500</v>
       </c>
       <c r="K49" s="3">
         <v>5530500</v>
@@ -3757,25 +3757,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>246800</v>
+        <v>239500</v>
       </c>
       <c r="E52" s="3">
-        <v>232100</v>
+        <v>225300</v>
       </c>
       <c r="F52" s="3">
-        <v>222100</v>
+        <v>215500</v>
       </c>
       <c r="G52" s="3">
-        <v>311000</v>
+        <v>301800</v>
       </c>
       <c r="H52" s="3">
-        <v>336600</v>
+        <v>326600</v>
       </c>
       <c r="I52" s="3">
-        <v>335000</v>
+        <v>325100</v>
       </c>
       <c r="J52" s="3">
-        <v>401600</v>
+        <v>389700</v>
       </c>
       <c r="K52" s="3">
         <v>498300</v>
@@ -3911,25 +3911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>693891300</v>
+        <v>673363700</v>
       </c>
       <c r="E54" s="3">
-        <v>691847000</v>
+        <v>671380000</v>
       </c>
       <c r="F54" s="3">
-        <v>666712500</v>
+        <v>646989000</v>
       </c>
       <c r="G54" s="3">
-        <v>648157200</v>
+        <v>628982700</v>
       </c>
       <c r="H54" s="3">
-        <v>623694300</v>
+        <v>605243500</v>
       </c>
       <c r="I54" s="3">
-        <v>605751900</v>
+        <v>587831800</v>
       </c>
       <c r="J54" s="3">
-        <v>605775100</v>
+        <v>587854300</v>
       </c>
       <c r="K54" s="3">
         <v>589968600</v>
@@ -4354,25 +4354,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4920300</v>
+        <v>4774700</v>
       </c>
       <c r="E61" s="3">
-        <v>4867700</v>
+        <v>4723700</v>
       </c>
       <c r="F61" s="3">
-        <v>4279600</v>
+        <v>4153000</v>
       </c>
       <c r="G61" s="3">
-        <v>4285800</v>
+        <v>4159000</v>
       </c>
       <c r="H61" s="3">
-        <v>4374000</v>
+        <v>4244600</v>
       </c>
       <c r="I61" s="3">
-        <v>4374000</v>
+        <v>4244600</v>
       </c>
       <c r="J61" s="3">
-        <v>3631200</v>
+        <v>3523800</v>
       </c>
       <c r="K61" s="3">
         <v>4379000</v>
@@ -4431,25 +4431,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80500</v>
+        <v>78100</v>
       </c>
       <c r="E62" s="3">
-        <v>93600</v>
+        <v>90900</v>
       </c>
       <c r="F62" s="3">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="G62" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="H62" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="I62" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="J62" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="K62" s="3">
         <v>25300</v>
@@ -4739,25 +4739,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>656264600</v>
+        <v>636850200</v>
       </c>
       <c r="E66" s="3">
-        <v>654897400</v>
+        <v>635523400</v>
       </c>
       <c r="F66" s="3">
-        <v>630266600</v>
+        <v>611621300</v>
       </c>
       <c r="G66" s="3">
-        <v>612837100</v>
+        <v>594707400</v>
       </c>
       <c r="H66" s="3">
-        <v>589565800</v>
+        <v>572124500</v>
       </c>
       <c r="I66" s="3">
-        <v>572859700</v>
+        <v>555912700</v>
       </c>
       <c r="J66" s="3">
-        <v>573469500</v>
+        <v>556504400</v>
       </c>
       <c r="K66" s="3">
         <v>558418300</v>
@@ -4999,25 +4999,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3346500</v>
+        <v>3247500</v>
       </c>
       <c r="E70" s="3">
-        <v>3346500</v>
+        <v>3247500</v>
       </c>
       <c r="F70" s="3">
-        <v>3346500</v>
+        <v>3247500</v>
       </c>
       <c r="G70" s="3">
-        <v>3346500</v>
+        <v>3247500</v>
       </c>
       <c r="H70" s="3">
-        <v>2766200</v>
+        <v>2684300</v>
       </c>
       <c r="I70" s="3">
-        <v>2766200</v>
+        <v>2684300</v>
       </c>
       <c r="J70" s="3">
-        <v>2766200</v>
+        <v>2684300</v>
       </c>
       <c r="K70" s="3">
         <v>2740700</v>
@@ -5153,25 +5153,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22004700</v>
+        <v>21353700</v>
       </c>
       <c r="E72" s="3">
-        <v>21330000</v>
+        <v>20699000</v>
       </c>
       <c r="F72" s="3">
-        <v>20741900</v>
+        <v>20128300</v>
       </c>
       <c r="G72" s="3">
-        <v>19957300</v>
+        <v>19366900</v>
       </c>
       <c r="H72" s="3">
-        <v>19386300</v>
+        <v>18812800</v>
       </c>
       <c r="I72" s="3">
-        <v>18572300</v>
+        <v>18022900</v>
       </c>
       <c r="J72" s="3">
-        <v>17842700</v>
+        <v>17314800</v>
       </c>
       <c r="K72" s="3">
         <v>16957300</v>
@@ -5461,25 +5461,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34280200</v>
+        <v>33266100</v>
       </c>
       <c r="E76" s="3">
-        <v>33603200</v>
+        <v>32609100</v>
       </c>
       <c r="F76" s="3">
-        <v>33099500</v>
+        <v>32120300</v>
       </c>
       <c r="G76" s="3">
-        <v>31973700</v>
+        <v>31027800</v>
       </c>
       <c r="H76" s="3">
-        <v>31362400</v>
+        <v>30434600</v>
       </c>
       <c r="I76" s="3">
-        <v>30126000</v>
+        <v>29234700</v>
       </c>
       <c r="J76" s="3">
-        <v>29539500</v>
+        <v>28665600</v>
       </c>
       <c r="K76" s="3">
         <v>28809600</v>
@@ -5697,25 +5697,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1248800</v>
+        <v>1211900</v>
       </c>
       <c r="E81" s="3">
-        <v>1138200</v>
+        <v>1104500</v>
       </c>
       <c r="F81" s="3">
-        <v>1410500</v>
+        <v>1368800</v>
       </c>
       <c r="G81" s="3">
-        <v>1074700</v>
+        <v>1042900</v>
       </c>
       <c r="H81" s="3">
-        <v>1311500</v>
+        <v>1272700</v>
       </c>
       <c r="I81" s="3">
-        <v>1234900</v>
+        <v>1198400</v>
       </c>
       <c r="J81" s="3">
-        <v>1231000</v>
+        <v>1194600</v>
       </c>
       <c r="K81" s="3">
         <v>755100</v>
@@ -5803,25 +5803,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>201200</v>
+        <v>195200</v>
       </c>
       <c r="E83" s="3">
-        <v>198100</v>
+        <v>192200</v>
       </c>
       <c r="F83" s="3">
-        <v>195800</v>
+        <v>190000</v>
       </c>
       <c r="G83" s="3">
-        <v>222100</v>
+        <v>215500</v>
       </c>
       <c r="H83" s="3">
-        <v>188800</v>
+        <v>183200</v>
       </c>
       <c r="I83" s="3">
-        <v>192700</v>
+        <v>187000</v>
       </c>
       <c r="J83" s="3">
-        <v>183400</v>
+        <v>178000</v>
       </c>
       <c r="K83" s="3">
         <v>242300</v>
@@ -6265,25 +6265,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6149800</v>
+        <v>5967800</v>
       </c>
       <c r="E89" s="3">
-        <v>5319500</v>
+        <v>5162200</v>
       </c>
       <c r="F89" s="3">
-        <v>-752900</v>
+        <v>-730600</v>
       </c>
       <c r="G89" s="3">
-        <v>6425200</v>
+        <v>6235100</v>
       </c>
       <c r="H89" s="3">
-        <v>5597300</v>
+        <v>5431700</v>
       </c>
       <c r="I89" s="3">
-        <v>-13654400</v>
+        <v>-13250400</v>
       </c>
       <c r="J89" s="3">
-        <v>-946300</v>
+        <v>-918300</v>
       </c>
       <c r="K89" s="3">
         <v>-2295300</v>
@@ -6371,25 +6371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-210500</v>
+        <v>-204200</v>
       </c>
       <c r="E91" s="3">
-        <v>-188800</v>
+        <v>-183200</v>
       </c>
       <c r="F91" s="3">
-        <v>-155500</v>
+        <v>-150900</v>
       </c>
       <c r="G91" s="3">
-        <v>-208900</v>
+        <v>-202700</v>
       </c>
       <c r="H91" s="3">
-        <v>-162500</v>
+        <v>-157700</v>
       </c>
       <c r="I91" s="3">
-        <v>-222800</v>
+        <v>-216200</v>
       </c>
       <c r="J91" s="3">
-        <v>-54900</v>
+        <v>-53300</v>
       </c>
       <c r="K91" s="3">
         <v>-76700</v>
@@ -6602,25 +6602,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1520400</v>
+        <v>-1475400</v>
       </c>
       <c r="E94" s="3">
-        <v>-7448100</v>
+        <v>-7227800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7400900</v>
+        <v>-7182000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3088000</v>
+        <v>-2996700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2567300</v>
+        <v>-2491400</v>
       </c>
       <c r="I94" s="3">
-        <v>1036800</v>
+        <v>1006200</v>
       </c>
       <c r="J94" s="3">
-        <v>1905700</v>
+        <v>1849400</v>
       </c>
       <c r="K94" s="3">
         <v>-2178800</v>
@@ -6708,25 +6708,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-584200</v>
+        <v>-566900</v>
       </c>
       <c r="E96" s="3">
-        <v>-569500</v>
+        <v>-552600</v>
       </c>
       <c r="F96" s="3">
-        <v>-565600</v>
+        <v>-548900</v>
       </c>
       <c r="G96" s="3">
-        <v>-518400</v>
+        <v>-503100</v>
       </c>
       <c r="H96" s="3">
-        <v>-506800</v>
+        <v>-491800</v>
       </c>
       <c r="I96" s="3">
-        <v>-520700</v>
+        <v>-505300</v>
       </c>
       <c r="J96" s="3">
-        <v>-503700</v>
+        <v>-488800</v>
       </c>
       <c r="K96" s="3">
         <v>-498300</v>
@@ -7016,25 +7016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-612000</v>
+        <v>-593900</v>
       </c>
       <c r="E100" s="3">
-        <v>178000</v>
+        <v>172700</v>
       </c>
       <c r="F100" s="3">
-        <v>-656100</v>
+        <v>-636700</v>
       </c>
       <c r="G100" s="3">
-        <v>36400</v>
+        <v>35300</v>
       </c>
       <c r="H100" s="3">
-        <v>-499800</v>
+        <v>-485100</v>
       </c>
       <c r="I100" s="3">
-        <v>263800</v>
+        <v>256000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1305300</v>
+        <v>-1266700</v>
       </c>
       <c r="K100" s="3">
         <v>6900</v>
@@ -7093,25 +7093,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="E101" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="F101" s="3">
-        <v>55700</v>
+        <v>54100</v>
       </c>
       <c r="G101" s="3">
-        <v>-16200</v>
+        <v>-15800</v>
       </c>
       <c r="H101" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="I101" s="3">
-        <v>-74300</v>
+        <v>-72100</v>
       </c>
       <c r="J101" s="3">
-        <v>-75800</v>
+        <v>-73600</v>
       </c>
       <c r="K101" s="3">
         <v>-10000</v>
@@ -7170,25 +7170,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4009600</v>
+        <v>3891000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1927400</v>
+        <v>-1870400</v>
       </c>
       <c r="F102" s="3">
-        <v>-8754200</v>
+        <v>-8495200</v>
       </c>
       <c r="G102" s="3">
-        <v>3357300</v>
+        <v>3258000</v>
       </c>
       <c r="H102" s="3">
-        <v>2561100</v>
+        <v>2485300</v>
       </c>
       <c r="I102" s="3">
-        <v>-12428000</v>
+        <v>-12060300</v>
       </c>
       <c r="J102" s="3">
-        <v>-421700</v>
+        <v>-409200</v>
       </c>
       <c r="K102" s="3">
         <v>-4477200</v>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,187 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4355000</v>
+        <v>7420200</v>
       </c>
       <c r="E8" s="3">
-        <v>3188200</v>
+        <v>5924600</v>
       </c>
       <c r="F8" s="3">
-        <v>2959100</v>
+        <v>4194700</v>
       </c>
       <c r="G8" s="3">
-        <v>2806000</v>
+        <v>3070800</v>
       </c>
       <c r="H8" s="3">
-        <v>2748100</v>
+        <v>2850200</v>
       </c>
       <c r="I8" s="3">
+        <v>2702700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2647000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2682800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2831500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2913200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2942400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3691300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4068100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4114300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4369900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3868300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3944600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3441600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3429700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3183500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2964900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2846600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2543700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2426100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2452200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +921,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +1004,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1039,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1118,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1201,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,8 +1284,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1367,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1399,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2107700</v>
+        <v>5315700</v>
       </c>
       <c r="E17" s="3">
-        <v>1097000</v>
+        <v>3936500</v>
       </c>
       <c r="F17" s="3">
-        <v>663800</v>
+        <v>2030100</v>
       </c>
       <c r="G17" s="3">
-        <v>627000</v>
+        <v>1056600</v>
       </c>
       <c r="H17" s="3">
-        <v>501600</v>
+        <v>639300</v>
       </c>
       <c r="I17" s="3">
+        <v>603900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>483100</v>
+      </c>
+      <c r="K17" s="3">
         <v>644200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>810200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>995900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1252700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2631500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2105500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2243900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2377700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2170900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2206300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1788400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1671200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1479200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1238400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1183300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1005400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>954100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>969500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2247300</v>
+        <v>2104600</v>
       </c>
       <c r="E18" s="3">
-        <v>2091100</v>
+        <v>1988100</v>
       </c>
       <c r="F18" s="3">
-        <v>2295400</v>
+        <v>2164600</v>
       </c>
       <c r="G18" s="3">
-        <v>2179000</v>
+        <v>2014200</v>
       </c>
       <c r="H18" s="3">
-        <v>2246600</v>
+        <v>2210900</v>
       </c>
       <c r="I18" s="3">
+        <v>2098800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2163900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2038600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2021300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1917400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1689700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1059800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1962600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1870400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1992200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1697500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1738300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1653200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1758500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1704300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1726600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1663300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1538300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1471900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>1482700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,162 +1596,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-636700</v>
+        <v>-1258400</v>
       </c>
       <c r="E20" s="3">
-        <v>-620200</v>
+        <v>-925700</v>
       </c>
       <c r="F20" s="3">
-        <v>-493300</v>
+        <v>-613300</v>
       </c>
       <c r="G20" s="3">
-        <v>-789200</v>
+        <v>-597400</v>
       </c>
       <c r="H20" s="3">
-        <v>-566900</v>
+        <v>-475200</v>
       </c>
       <c r="I20" s="3">
+        <v>-760100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-428700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-452000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-830300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-554300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-697100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-762300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-676000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-524000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-389500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-608900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-492700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-453200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-464500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-440600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-569300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-464400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-516300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-159000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1805800</v>
+        <v>1046500</v>
       </c>
       <c r="E21" s="3">
-        <v>1663200</v>
+        <v>1263500</v>
       </c>
       <c r="F21" s="3">
-        <v>1992000</v>
+        <v>1739300</v>
       </c>
       <c r="G21" s="3">
-        <v>1605300</v>
+        <v>1601900</v>
       </c>
       <c r="H21" s="3">
-        <v>1862900</v>
+        <v>1918700</v>
       </c>
       <c r="I21" s="3">
+        <v>1546200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1794300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1796800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1747300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1329400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1326300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>560500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1393500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1437700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1445000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1261000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1278200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1431100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1361800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1409500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1207100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1180300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1053200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1415800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,162 +1841,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1610600</v>
+        <v>846200</v>
       </c>
       <c r="E23" s="3">
-        <v>1470900</v>
+        <v>1062400</v>
       </c>
       <c r="F23" s="3">
-        <v>1802100</v>
+        <v>1551300</v>
       </c>
       <c r="G23" s="3">
-        <v>1389800</v>
+        <v>1416800</v>
       </c>
       <c r="H23" s="3">
-        <v>1679700</v>
+        <v>1735700</v>
       </c>
       <c r="I23" s="3">
+        <v>1338700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1617800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1609800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1569300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1087100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1135400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>362700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1200300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1194500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1468200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1307900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1129300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1160500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1305300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1239800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1286000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1094000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1073900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>955700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1323700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>359700</v>
+        <v>533700</v>
       </c>
       <c r="E24" s="3">
-        <v>327400</v>
+        <v>205400</v>
       </c>
       <c r="F24" s="3">
-        <v>398700</v>
+        <v>346400</v>
       </c>
       <c r="G24" s="3">
-        <v>308600</v>
+        <v>315300</v>
       </c>
       <c r="H24" s="3">
-        <v>380700</v>
+        <v>384000</v>
       </c>
       <c r="I24" s="3">
+        <v>297200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>366700</v>
+      </c>
+      <c r="K24" s="3">
         <v>370200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>349100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>308200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>236900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>248900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>264300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>309200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>270200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>219400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>239100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>274800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>246900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>232200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>227700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>257500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>149000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>242800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2090,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1250900</v>
+        <v>312400</v>
       </c>
       <c r="E26" s="3">
-        <v>1143600</v>
+        <v>857000</v>
       </c>
       <c r="F26" s="3">
-        <v>1403400</v>
+        <v>1204900</v>
       </c>
       <c r="G26" s="3">
-        <v>1081200</v>
+        <v>1101500</v>
       </c>
       <c r="H26" s="3">
-        <v>1299000</v>
+        <v>1351700</v>
       </c>
       <c r="I26" s="3">
+        <v>1041400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1251200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1239700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1220100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>778900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>898500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>307700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>951500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>930100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1159000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1037700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>909900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>921400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1030600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>992900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1053800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>866300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>816400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>806600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1080900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1211900</v>
+        <v>253900</v>
       </c>
       <c r="E27" s="3">
-        <v>1104500</v>
+        <v>825200</v>
       </c>
       <c r="F27" s="3">
-        <v>1368800</v>
+        <v>1167300</v>
       </c>
       <c r="G27" s="3">
-        <v>1042900</v>
+        <v>1063900</v>
       </c>
       <c r="H27" s="3">
-        <v>1272700</v>
+        <v>1318400</v>
       </c>
       <c r="I27" s="3">
+        <v>1004600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1198400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1194600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>755100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>873200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>290500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>921600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>899000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1130800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1010800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>889100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>902500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1010200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>970300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1036700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>844700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>806700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>795100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1070100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2339,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2266,11 +2386,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2284,15 +2404,15 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-65500</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2302,8 +2422,14 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2505,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2588,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>636700</v>
+        <v>1258400</v>
       </c>
       <c r="E32" s="3">
-        <v>620200</v>
+        <v>925700</v>
       </c>
       <c r="F32" s="3">
-        <v>493300</v>
+        <v>613300</v>
       </c>
       <c r="G32" s="3">
-        <v>789200</v>
+        <v>597400</v>
       </c>
       <c r="H32" s="3">
-        <v>566900</v>
+        <v>475200</v>
       </c>
       <c r="I32" s="3">
+        <v>760100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K32" s="3">
         <v>428700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>452000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>830300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>554300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>697100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>762300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>676000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>524000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>389500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>608900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>492700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>453200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>464500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>440600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>569300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>464400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>516300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>159000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1211900</v>
+        <v>253900</v>
       </c>
       <c r="E33" s="3">
-        <v>1104500</v>
+        <v>825200</v>
       </c>
       <c r="F33" s="3">
-        <v>1368800</v>
+        <v>1167300</v>
       </c>
       <c r="G33" s="3">
-        <v>1042900</v>
+        <v>1063900</v>
       </c>
       <c r="H33" s="3">
-        <v>1272700</v>
+        <v>1318400</v>
       </c>
       <c r="I33" s="3">
+        <v>1004600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1198400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1194600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>755100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>873200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>290500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>921600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>899000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1130800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1010800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>889100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>902500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1010200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>970300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>971200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>844700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>806700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>795100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1070100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2837,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1211900</v>
+        <v>253900</v>
       </c>
       <c r="E35" s="3">
-        <v>1104500</v>
+        <v>825200</v>
       </c>
       <c r="F35" s="3">
-        <v>1368800</v>
+        <v>1167300</v>
       </c>
       <c r="G35" s="3">
-        <v>1042900</v>
+        <v>1063900</v>
       </c>
       <c r="H35" s="3">
-        <v>1272700</v>
+        <v>1318400</v>
       </c>
       <c r="I35" s="3">
+        <v>1004600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1198400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1194600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>755100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>873200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>290500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>921600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>899000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1130800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1010800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>889100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>902500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1010200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>970300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>971200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>844700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>806700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>795100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1070100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +3043,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,162 +3074,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19484800</v>
+        <v>16544400</v>
       </c>
       <c r="E41" s="3">
-        <v>15593900</v>
+        <v>22806700</v>
       </c>
       <c r="F41" s="3">
-        <v>17464300</v>
+        <v>18767600</v>
       </c>
       <c r="G41" s="3">
-        <v>25959500</v>
+        <v>15019800</v>
       </c>
       <c r="H41" s="3">
-        <v>22701500</v>
+        <v>16821400</v>
       </c>
       <c r="I41" s="3">
+        <v>25003900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>21865800</v>
+      </c>
+      <c r="K41" s="3">
         <v>20216200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>32276500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33372600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>37849800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29649800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3732100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2993900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3267300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3216300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3147000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3182900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2757500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3848300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2456600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2560100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3130900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2777200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2446800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135386800</v>
+        <v>149238600</v>
       </c>
       <c r="E42" s="3">
-        <v>165877700</v>
+        <v>164312700</v>
       </c>
       <c r="F42" s="3">
-        <v>161330500</v>
+        <v>130403100</v>
       </c>
       <c r="G42" s="3">
-        <v>158071800</v>
+        <v>159771600</v>
       </c>
       <c r="H42" s="3">
-        <v>152185800</v>
+        <v>155391800</v>
       </c>
       <c r="I42" s="3">
+        <v>152253000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>146583700</v>
+      </c>
+      <c r="K42" s="3">
         <v>152507200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>147905900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>144551500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>142144300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>147020200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>132310800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>118187100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>124243900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>114917200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>111240500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>99017300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>102777700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>104055200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>109982300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>97603900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>100635800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>107950900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>104933300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,8 +3319,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3402,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3485,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,239 +3568,263 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>470000</v>
+        <v>454900</v>
       </c>
       <c r="E47" s="3">
-        <v>463300</v>
+        <v>457100</v>
       </c>
       <c r="F47" s="3">
-        <v>512100</v>
+        <v>452700</v>
       </c>
       <c r="G47" s="3">
+        <v>446200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>493200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>475900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>473700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>481300</v>
+      </c>
+      <c r="L47" s="3">
         <v>494100</v>
       </c>
-      <c r="H47" s="3">
-        <v>491800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>481300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>494100</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>504400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>492200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>482000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>452200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>456900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>484200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>425700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>400300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>382200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>375600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>393700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>413000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>532100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>550700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>564600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>545400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2467300</v>
+        <v>2396800</v>
       </c>
       <c r="E48" s="3">
-        <v>2520600</v>
+        <v>2442300</v>
       </c>
       <c r="F48" s="3">
-        <v>2496600</v>
+        <v>2376500</v>
       </c>
       <c r="G48" s="3">
-        <v>2467300</v>
+        <v>2427800</v>
       </c>
       <c r="H48" s="3">
-        <v>2352400</v>
+        <v>2404700</v>
       </c>
       <c r="I48" s="3">
+        <v>2376500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2265800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2121900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2201500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2297600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2317600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2405400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2423400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1413500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1468200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1374900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1372600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1304400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1304600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1314400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1291200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1326900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1311300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1379700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1345900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5682500</v>
+        <v>5691700</v>
       </c>
       <c r="E49" s="3">
-        <v>5611900</v>
+        <v>5742400</v>
       </c>
       <c r="F49" s="3">
-        <v>5353600</v>
+        <v>5473300</v>
       </c>
       <c r="G49" s="3">
-        <v>5243300</v>
+        <v>5405300</v>
       </c>
       <c r="H49" s="3">
-        <v>5207200</v>
+        <v>5156600</v>
       </c>
       <c r="I49" s="3">
+        <v>5050200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5015500</v>
+      </c>
+      <c r="K49" s="3">
         <v>5159900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5275500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5530500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5707600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5997000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5821900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5783600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6212100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5829100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5754400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5456700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5594000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5551800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5348600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5466200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5152200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2307000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2267000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3900,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3983,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>239500</v>
+        <v>567000</v>
       </c>
       <c r="E52" s="3">
-        <v>225300</v>
+        <v>347100</v>
       </c>
       <c r="F52" s="3">
-        <v>215500</v>
+        <v>230700</v>
       </c>
       <c r="G52" s="3">
-        <v>301800</v>
+        <v>217000</v>
       </c>
       <c r="H52" s="3">
-        <v>326600</v>
+        <v>207600</v>
       </c>
       <c r="I52" s="3">
+        <v>290700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K52" s="3">
         <v>325100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>389700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>498300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>515200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>430200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>440400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>403100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>451000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>411100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>478100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>436700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>402700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>455400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>451700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>541000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>529900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>540100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>490900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4149,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>673363700</v>
+        <v>666802300</v>
       </c>
       <c r="E54" s="3">
-        <v>671380000</v>
+        <v>682428200</v>
       </c>
       <c r="F54" s="3">
-        <v>646989000</v>
+        <v>648576500</v>
       </c>
       <c r="G54" s="3">
-        <v>628982700</v>
+        <v>646665700</v>
       </c>
       <c r="H54" s="3">
-        <v>605243500</v>
+        <v>623172600</v>
       </c>
       <c r="I54" s="3">
+        <v>605829100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>582963800</v>
+      </c>
+      <c r="K54" s="3">
         <v>587831800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>587854300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>589968600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>589197300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>595959700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>527646200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>508036100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>532682900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>488149800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>473167600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>433905900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>447928900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>444550300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>436796900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>420675100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>417436300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>406079500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>394327800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4267,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4298,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4117,8 +4377,14 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4194,8 +4460,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4271,8 +4543,14 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4626,180 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4774700</v>
+        <v>5291800</v>
       </c>
       <c r="E61" s="3">
-        <v>4723700</v>
+        <v>4550500</v>
       </c>
       <c r="F61" s="3">
-        <v>4153000</v>
+        <v>4599000</v>
       </c>
       <c r="G61" s="3">
-        <v>4159000</v>
+        <v>4549800</v>
       </c>
       <c r="H61" s="3">
+        <v>4000100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4005900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4088400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4244600</v>
       </c>
-      <c r="I61" s="3">
-        <v>4244600</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3523800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4379000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4463400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3782400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3685800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3652000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4659300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3210900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3204000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2964900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>12182400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>13819700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>13686800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>12593500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>11741400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>12597400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>11580300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78100</v>
+        <v>42700</v>
       </c>
       <c r="E62" s="3">
-        <v>90900</v>
+        <v>32500</v>
       </c>
       <c r="F62" s="3">
-        <v>33000</v>
+        <v>75200</v>
       </c>
       <c r="G62" s="3">
-        <v>28500</v>
+        <v>87500</v>
       </c>
       <c r="H62" s="3">
+        <v>31800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K62" s="3">
         <v>26300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>26300</v>
       </c>
-      <c r="J62" s="3">
-        <v>26300</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>26100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>28300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>27500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>29600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>31500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>30800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>31600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>31200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>23300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>24100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>23800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>22300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>22300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>15400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>16900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4875,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4958,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +5041,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>636850200</v>
+        <v>630854700</v>
       </c>
       <c r="E66" s="3">
-        <v>635523400</v>
+        <v>646136300</v>
       </c>
       <c r="F66" s="3">
-        <v>611621300</v>
+        <v>613407000</v>
       </c>
       <c r="G66" s="3">
-        <v>594707400</v>
+        <v>612129100</v>
       </c>
       <c r="H66" s="3">
-        <v>572124500</v>
+        <v>589106800</v>
       </c>
       <c r="I66" s="3">
+        <v>572815600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>551064000</v>
+      </c>
+      <c r="K66" s="3">
         <v>555912700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>556504400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>558418300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>558593100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>564503500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>496998700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>478101400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>501321600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>459643400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>445524100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>408513100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>422047200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>419432800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>412881800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>397578600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>395235000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>386360500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>375481600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +5159,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5238,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,85 +5321,97 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3247500</v>
+        <v>3561900</v>
       </c>
       <c r="E70" s="3">
-        <v>3247500</v>
+        <v>3560400</v>
       </c>
       <c r="F70" s="3">
-        <v>3247500</v>
+        <v>3127900</v>
       </c>
       <c r="G70" s="3">
-        <v>3247500</v>
+        <v>3127900</v>
       </c>
       <c r="H70" s="3">
+        <v>3127900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3127900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2585500</v>
+      </c>
+      <c r="K70" s="3">
         <v>2684300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="L70" s="3">
         <v>2684300</v>
       </c>
-      <c r="J70" s="3">
-        <v>2684300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>2740700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2165800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>2217800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>2217800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>2202600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>2342100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>1982300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>1982300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>1635100</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>1693800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>1692300</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>1671500</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>1337300</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>768200</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>768200</v>
       </c>
       <c r="AA70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>768200</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5487,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21353700</v>
+        <v>20541600</v>
       </c>
       <c r="E72" s="3">
-        <v>20699000</v>
+        <v>20845400</v>
       </c>
       <c r="F72" s="3">
-        <v>20128300</v>
+        <v>20567700</v>
       </c>
       <c r="G72" s="3">
-        <v>19366900</v>
+        <v>19937000</v>
       </c>
       <c r="H72" s="3">
-        <v>18812800</v>
+        <v>19387400</v>
       </c>
       <c r="I72" s="3">
+        <v>18654000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>18120300</v>
+      </c>
+      <c r="K72" s="3">
         <v>18022900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17314800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16957300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>16656000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>16672900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>16912300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>16351200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>17024500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>15237000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>14704300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13470700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13588600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13107600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>12429100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>11982500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>11561300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>11531900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>11126300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5653,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5736,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5819,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33266100</v>
+        <v>32385800</v>
       </c>
       <c r="E76" s="3">
-        <v>32609100</v>
+        <v>32731500</v>
       </c>
       <c r="F76" s="3">
-        <v>32120300</v>
+        <v>32041500</v>
       </c>
       <c r="G76" s="3">
-        <v>31027800</v>
+        <v>31408700</v>
       </c>
       <c r="H76" s="3">
-        <v>30434600</v>
+        <v>30937900</v>
       </c>
       <c r="I76" s="3">
+        <v>29885600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>29314300</v>
+      </c>
+      <c r="K76" s="3">
         <v>29234700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28665600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28809600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28438500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>29238400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>28429800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>27732100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>29019200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>26524100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>25661200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>23757700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>24187900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>23425300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>22243700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>21759200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>20864700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>18950700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>18078000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5985,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1211900</v>
+        <v>253900</v>
       </c>
       <c r="E81" s="3">
-        <v>1104500</v>
+        <v>825200</v>
       </c>
       <c r="F81" s="3">
-        <v>1368800</v>
+        <v>1167300</v>
       </c>
       <c r="G81" s="3">
-        <v>1042900</v>
+        <v>1063900</v>
       </c>
       <c r="H81" s="3">
-        <v>1272700</v>
+        <v>1318400</v>
       </c>
       <c r="I81" s="3">
+        <v>1004600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1198400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1194600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>755100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>873200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>290500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>921600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>899000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1130800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1010800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>889100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>902500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1010200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>970300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>971200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>844700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>806700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>795100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1070100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +6191,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>195200</v>
+        <v>200300</v>
       </c>
       <c r="E83" s="3">
-        <v>192200</v>
+        <v>201100</v>
       </c>
       <c r="F83" s="3">
-        <v>190000</v>
+        <v>188000</v>
       </c>
       <c r="G83" s="3">
-        <v>215500</v>
+        <v>185100</v>
       </c>
       <c r="H83" s="3">
-        <v>183200</v>
+        <v>183000</v>
       </c>
       <c r="I83" s="3">
+        <v>207600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K83" s="3">
         <v>187000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>178000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>242300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>190900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>197800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>193100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>243300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>146700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>137000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>131600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>117700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>125700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>122000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>123500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>113100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>106400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>97600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>92200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6353,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6436,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6519,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6602,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6685,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5967800</v>
+        <v>102000</v>
       </c>
       <c r="E89" s="3">
-        <v>5162200</v>
+        <v>6411300</v>
       </c>
       <c r="F89" s="3">
-        <v>-730600</v>
+        <v>5748200</v>
       </c>
       <c r="G89" s="3">
-        <v>6235100</v>
+        <v>4972100</v>
       </c>
       <c r="H89" s="3">
-        <v>5431700</v>
+        <v>-703700</v>
       </c>
       <c r="I89" s="3">
+        <v>6005600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5231800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-13250400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-918300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2295300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>14240300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>34572800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>529900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4656200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2110800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3311000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4477300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-880700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1409200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>4979000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1929700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1486900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1329900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>2179500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6803,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-204200</v>
+        <v>-177900</v>
       </c>
       <c r="E91" s="3">
-        <v>-183200</v>
+        <v>-283500</v>
       </c>
       <c r="F91" s="3">
-        <v>-150900</v>
+        <v>-196700</v>
       </c>
       <c r="G91" s="3">
-        <v>-202700</v>
+        <v>-176500</v>
       </c>
       <c r="H91" s="3">
-        <v>-157700</v>
+        <v>-145400</v>
       </c>
       <c r="I91" s="3">
+        <v>-195300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-216200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-53300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-76700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-75100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-38500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-48700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-82600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-43900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-42300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-95900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-28600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-33900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-29800</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6965,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +7048,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1475400</v>
+        <v>-6621100</v>
       </c>
       <c r="E94" s="3">
-        <v>-7227800</v>
+        <v>-2339600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7182000</v>
+        <v>-1421100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2996700</v>
+        <v>-6961700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2491400</v>
+        <v>-6917600</v>
       </c>
       <c r="I94" s="3">
+        <v>-2886400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2399600</v>
+      </c>
+      <c r="K94" s="3">
         <v>1006200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1849400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2178800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5510600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8162200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>800000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3258200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>1944600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>3186600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +7166,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-566900</v>
+        <v>-413000</v>
       </c>
       <c r="E96" s="3">
-        <v>-552600</v>
+        <v>-515700</v>
       </c>
       <c r="F96" s="3">
-        <v>-548900</v>
+        <v>-449100</v>
       </c>
       <c r="G96" s="3">
-        <v>-503100</v>
+        <v>-532300</v>
       </c>
       <c r="H96" s="3">
-        <v>-491800</v>
+        <v>-528700</v>
       </c>
       <c r="I96" s="3">
+        <v>-484600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-473700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-505300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-488800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-498300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-492200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-504800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-499300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-485700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-507400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-463400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-438000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-420800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-426100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-428300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-294000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>115400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-416800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-397900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-385700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7328,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7411,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7494,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-593900</v>
+        <v>285700</v>
       </c>
       <c r="E100" s="3">
-        <v>172700</v>
+        <v>-145400</v>
       </c>
       <c r="F100" s="3">
-        <v>-636700</v>
+        <v>-572100</v>
       </c>
       <c r="G100" s="3">
-        <v>35300</v>
+        <v>166300</v>
       </c>
       <c r="H100" s="3">
-        <v>-485100</v>
+        <v>-613300</v>
       </c>
       <c r="I100" s="3">
+        <v>34000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-467200</v>
+      </c>
+      <c r="K100" s="3">
         <v>256000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1266700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>244600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-594300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-621800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1317600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>973300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-436500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-159400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-559600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-996700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>737000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>90800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-275400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>323000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-242800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-191300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7500</v>
+        <v>-28900</v>
       </c>
       <c r="E101" s="3">
-        <v>22500</v>
+        <v>112800</v>
       </c>
       <c r="F101" s="3">
-        <v>54100</v>
+        <v>-7200</v>
       </c>
       <c r="G101" s="3">
-        <v>-15800</v>
+        <v>21700</v>
       </c>
       <c r="H101" s="3">
-        <v>30000</v>
+        <v>52100</v>
       </c>
       <c r="I101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-72100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-73600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-79000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>101300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>9400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>29300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>16700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>32400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>58000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-67000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>48400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-109400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>61500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-37600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3891000</v>
+        <v>-6262400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1870400</v>
+        <v>4039200</v>
       </c>
       <c r="F102" s="3">
-        <v>-8495200</v>
+        <v>3747700</v>
       </c>
       <c r="G102" s="3">
-        <v>3258000</v>
+        <v>-1801500</v>
       </c>
       <c r="H102" s="3">
-        <v>2485300</v>
+        <v>-8182500</v>
       </c>
       <c r="I102" s="3">
+        <v>3138100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2393900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12060300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-409200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4477200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8895300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>25917600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>717500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-78700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-196500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>69300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-224800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>521000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1363300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-103400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-570800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>440600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>330300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-242000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7420200</v>
+        <v>7600000</v>
       </c>
       <c r="E8" s="3">
-        <v>5924600</v>
+        <v>6068100</v>
       </c>
       <c r="F8" s="3">
-        <v>4194700</v>
+        <v>4296300</v>
       </c>
       <c r="G8" s="3">
-        <v>3070800</v>
+        <v>3145200</v>
       </c>
       <c r="H8" s="3">
-        <v>2850200</v>
+        <v>2919300</v>
       </c>
       <c r="I8" s="3">
-        <v>2702700</v>
+        <v>2768100</v>
       </c>
       <c r="J8" s="3">
-        <v>2647000</v>
+        <v>2711100</v>
       </c>
       <c r="K8" s="3">
         <v>2682800</v>
@@ -1407,25 +1407,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5315700</v>
+        <v>5444400</v>
       </c>
       <c r="E17" s="3">
-        <v>3936500</v>
+        <v>4031800</v>
       </c>
       <c r="F17" s="3">
-        <v>2030100</v>
+        <v>2079300</v>
       </c>
       <c r="G17" s="3">
-        <v>1056600</v>
+        <v>1082200</v>
       </c>
       <c r="H17" s="3">
-        <v>639300</v>
+        <v>654800</v>
       </c>
       <c r="I17" s="3">
-        <v>603900</v>
+        <v>618500</v>
       </c>
       <c r="J17" s="3">
-        <v>483100</v>
+        <v>494800</v>
       </c>
       <c r="K17" s="3">
         <v>644200</v>
@@ -1490,25 +1490,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2104600</v>
+        <v>2155600</v>
       </c>
       <c r="E18" s="3">
-        <v>1988100</v>
+        <v>2036300</v>
       </c>
       <c r="F18" s="3">
-        <v>2164600</v>
+        <v>2217000</v>
       </c>
       <c r="G18" s="3">
-        <v>2014200</v>
+        <v>2063000</v>
       </c>
       <c r="H18" s="3">
-        <v>2210900</v>
+        <v>2264400</v>
       </c>
       <c r="I18" s="3">
-        <v>2098800</v>
+        <v>2149600</v>
       </c>
       <c r="J18" s="3">
-        <v>2163900</v>
+        <v>2216300</v>
       </c>
       <c r="K18" s="3">
         <v>2038600</v>
@@ -1604,25 +1604,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1258400</v>
+        <v>-1288900</v>
       </c>
       <c r="E20" s="3">
-        <v>-925700</v>
+        <v>-948100</v>
       </c>
       <c r="F20" s="3">
-        <v>-613300</v>
+        <v>-628100</v>
       </c>
       <c r="G20" s="3">
-        <v>-597400</v>
+        <v>-611900</v>
       </c>
       <c r="H20" s="3">
-        <v>-475200</v>
+        <v>-486700</v>
       </c>
       <c r="I20" s="3">
-        <v>-760100</v>
+        <v>-778500</v>
       </c>
       <c r="J20" s="3">
-        <v>-546000</v>
+        <v>-559300</v>
       </c>
       <c r="K20" s="3">
         <v>-428700</v>
@@ -1687,25 +1687,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1046500</v>
+        <v>1071900</v>
       </c>
       <c r="E21" s="3">
-        <v>1263500</v>
+        <v>1294100</v>
       </c>
       <c r="F21" s="3">
-        <v>1739300</v>
+        <v>1781500</v>
       </c>
       <c r="G21" s="3">
-        <v>1601900</v>
+        <v>1640700</v>
       </c>
       <c r="H21" s="3">
-        <v>1918700</v>
+        <v>1965200</v>
       </c>
       <c r="I21" s="3">
-        <v>1546200</v>
+        <v>1583700</v>
       </c>
       <c r="J21" s="3">
-        <v>1794300</v>
+        <v>1837800</v>
       </c>
       <c r="K21" s="3">
         <v>1796800</v>
@@ -1853,25 +1853,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>846200</v>
+        <v>866700</v>
       </c>
       <c r="E23" s="3">
-        <v>1062400</v>
+        <v>1088100</v>
       </c>
       <c r="F23" s="3">
-        <v>1551300</v>
+        <v>1588900</v>
       </c>
       <c r="G23" s="3">
-        <v>1416800</v>
+        <v>1451100</v>
       </c>
       <c r="H23" s="3">
-        <v>1735700</v>
+        <v>1777800</v>
       </c>
       <c r="I23" s="3">
-        <v>1338700</v>
+        <v>1371100</v>
       </c>
       <c r="J23" s="3">
-        <v>1617800</v>
+        <v>1657000</v>
       </c>
       <c r="K23" s="3">
         <v>1609800</v>
@@ -1936,25 +1936,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>533700</v>
+        <v>546700</v>
       </c>
       <c r="E24" s="3">
-        <v>205400</v>
+        <v>210400</v>
       </c>
       <c r="F24" s="3">
-        <v>346400</v>
+        <v>354800</v>
       </c>
       <c r="G24" s="3">
-        <v>315300</v>
+        <v>323000</v>
       </c>
       <c r="H24" s="3">
-        <v>384000</v>
+        <v>393300</v>
       </c>
       <c r="I24" s="3">
-        <v>297200</v>
+        <v>304400</v>
       </c>
       <c r="J24" s="3">
-        <v>366700</v>
+        <v>375600</v>
       </c>
       <c r="K24" s="3">
         <v>370200</v>
@@ -2102,25 +2102,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>312400</v>
+        <v>320000</v>
       </c>
       <c r="E26" s="3">
-        <v>857000</v>
+        <v>877800</v>
       </c>
       <c r="F26" s="3">
-        <v>1204900</v>
+        <v>1234100</v>
       </c>
       <c r="G26" s="3">
-        <v>1101500</v>
+        <v>1128100</v>
       </c>
       <c r="H26" s="3">
-        <v>1351700</v>
+        <v>1384400</v>
       </c>
       <c r="I26" s="3">
-        <v>1041400</v>
+        <v>1066700</v>
       </c>
       <c r="J26" s="3">
-        <v>1251200</v>
+        <v>1281500</v>
       </c>
       <c r="K26" s="3">
         <v>1239700</v>
@@ -2185,25 +2185,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>253900</v>
+        <v>260000</v>
       </c>
       <c r="E27" s="3">
-        <v>825200</v>
+        <v>845200</v>
       </c>
       <c r="F27" s="3">
-        <v>1167300</v>
+        <v>1195600</v>
       </c>
       <c r="G27" s="3">
-        <v>1063900</v>
+        <v>1089600</v>
       </c>
       <c r="H27" s="3">
-        <v>1318400</v>
+        <v>1350400</v>
       </c>
       <c r="I27" s="3">
-        <v>1004600</v>
+        <v>1028900</v>
       </c>
       <c r="J27" s="3">
-        <v>1225900</v>
+        <v>1255600</v>
       </c>
       <c r="K27" s="3">
         <v>1198400</v>
@@ -2600,25 +2600,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1258400</v>
+        <v>1288900</v>
       </c>
       <c r="E32" s="3">
-        <v>925700</v>
+        <v>948100</v>
       </c>
       <c r="F32" s="3">
-        <v>613300</v>
+        <v>628100</v>
       </c>
       <c r="G32" s="3">
-        <v>597400</v>
+        <v>611900</v>
       </c>
       <c r="H32" s="3">
-        <v>475200</v>
+        <v>486700</v>
       </c>
       <c r="I32" s="3">
-        <v>760100</v>
+        <v>778500</v>
       </c>
       <c r="J32" s="3">
-        <v>546000</v>
+        <v>559300</v>
       </c>
       <c r="K32" s="3">
         <v>428700</v>
@@ -2683,25 +2683,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>253900</v>
+        <v>260000</v>
       </c>
       <c r="E33" s="3">
-        <v>825200</v>
+        <v>845200</v>
       </c>
       <c r="F33" s="3">
-        <v>1167300</v>
+        <v>1195600</v>
       </c>
       <c r="G33" s="3">
-        <v>1063900</v>
+        <v>1089600</v>
       </c>
       <c r="H33" s="3">
-        <v>1318400</v>
+        <v>1350400</v>
       </c>
       <c r="I33" s="3">
-        <v>1004600</v>
+        <v>1028900</v>
       </c>
       <c r="J33" s="3">
-        <v>1225900</v>
+        <v>1255600</v>
       </c>
       <c r="K33" s="3">
         <v>1198400</v>
@@ -2849,25 +2849,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>253900</v>
+        <v>260000</v>
       </c>
       <c r="E35" s="3">
-        <v>825200</v>
+        <v>845200</v>
       </c>
       <c r="F35" s="3">
-        <v>1167300</v>
+        <v>1195600</v>
       </c>
       <c r="G35" s="3">
-        <v>1063900</v>
+        <v>1089600</v>
       </c>
       <c r="H35" s="3">
-        <v>1318400</v>
+        <v>1350400</v>
       </c>
       <c r="I35" s="3">
-        <v>1004600</v>
+        <v>1028900</v>
       </c>
       <c r="J35" s="3">
-        <v>1225900</v>
+        <v>1255600</v>
       </c>
       <c r="K35" s="3">
         <v>1198400</v>
@@ -3082,25 +3082,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16544400</v>
+        <v>16945200</v>
       </c>
       <c r="E41" s="3">
-        <v>22806700</v>
+        <v>23359200</v>
       </c>
       <c r="F41" s="3">
-        <v>18767600</v>
+        <v>19222200</v>
       </c>
       <c r="G41" s="3">
-        <v>15019800</v>
+        <v>15383700</v>
       </c>
       <c r="H41" s="3">
-        <v>16821400</v>
+        <v>17228900</v>
       </c>
       <c r="I41" s="3">
-        <v>25003900</v>
+        <v>25609600</v>
       </c>
       <c r="J41" s="3">
-        <v>21865800</v>
+        <v>22395500</v>
       </c>
       <c r="K41" s="3">
         <v>20216200</v>
@@ -3165,25 +3165,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149238600</v>
+        <v>152853900</v>
       </c>
       <c r="E42" s="3">
-        <v>164312700</v>
+        <v>168293200</v>
       </c>
       <c r="F42" s="3">
-        <v>130403100</v>
+        <v>133562100</v>
       </c>
       <c r="G42" s="3">
-        <v>159771600</v>
+        <v>163642100</v>
       </c>
       <c r="H42" s="3">
-        <v>155391800</v>
+        <v>159156100</v>
       </c>
       <c r="I42" s="3">
-        <v>152253000</v>
+        <v>155941300</v>
       </c>
       <c r="J42" s="3">
-        <v>146583700</v>
+        <v>150134700</v>
       </c>
       <c r="K42" s="3">
         <v>152507200</v>
@@ -3580,25 +3580,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>454900</v>
+        <v>465900</v>
       </c>
       <c r="E47" s="3">
-        <v>457100</v>
+        <v>468100</v>
       </c>
       <c r="F47" s="3">
-        <v>452700</v>
+        <v>463700</v>
       </c>
       <c r="G47" s="3">
-        <v>446200</v>
+        <v>457000</v>
       </c>
       <c r="H47" s="3">
-        <v>493200</v>
+        <v>505200</v>
       </c>
       <c r="I47" s="3">
-        <v>475900</v>
+        <v>487400</v>
       </c>
       <c r="J47" s="3">
-        <v>473700</v>
+        <v>485200</v>
       </c>
       <c r="K47" s="3">
         <v>481300</v>
@@ -3663,25 +3663,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2396800</v>
+        <v>2454800</v>
       </c>
       <c r="E48" s="3">
-        <v>2442300</v>
+        <v>2501500</v>
       </c>
       <c r="F48" s="3">
-        <v>2376500</v>
+        <v>2434100</v>
       </c>
       <c r="G48" s="3">
-        <v>2427800</v>
+        <v>2486700</v>
       </c>
       <c r="H48" s="3">
-        <v>2404700</v>
+        <v>2463000</v>
       </c>
       <c r="I48" s="3">
-        <v>2376500</v>
+        <v>2434100</v>
       </c>
       <c r="J48" s="3">
-        <v>2265800</v>
+        <v>2320700</v>
       </c>
       <c r="K48" s="3">
         <v>2121900</v>
@@ -3746,25 +3746,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5691700</v>
+        <v>5829600</v>
       </c>
       <c r="E49" s="3">
-        <v>5742400</v>
+        <v>5881500</v>
       </c>
       <c r="F49" s="3">
-        <v>5473300</v>
+        <v>5605900</v>
       </c>
       <c r="G49" s="3">
-        <v>5405300</v>
+        <v>5536300</v>
       </c>
       <c r="H49" s="3">
-        <v>5156600</v>
+        <v>5281500</v>
       </c>
       <c r="I49" s="3">
-        <v>5050200</v>
+        <v>5172600</v>
       </c>
       <c r="J49" s="3">
-        <v>5015500</v>
+        <v>5137000</v>
       </c>
       <c r="K49" s="3">
         <v>5159900</v>
@@ -3995,25 +3995,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>567000</v>
+        <v>580700</v>
       </c>
       <c r="E52" s="3">
-        <v>347100</v>
+        <v>355600</v>
       </c>
       <c r="F52" s="3">
-        <v>230700</v>
+        <v>236300</v>
       </c>
       <c r="G52" s="3">
-        <v>217000</v>
+        <v>222200</v>
       </c>
       <c r="H52" s="3">
-        <v>207600</v>
+        <v>212600</v>
       </c>
       <c r="I52" s="3">
-        <v>290700</v>
+        <v>297800</v>
       </c>
       <c r="J52" s="3">
-        <v>314600</v>
+        <v>322200</v>
       </c>
       <c r="K52" s="3">
         <v>325100</v>
@@ -4161,25 +4161,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>666802300</v>
+        <v>682955600</v>
       </c>
       <c r="E54" s="3">
-        <v>682428200</v>
+        <v>698960000</v>
       </c>
       <c r="F54" s="3">
-        <v>648576500</v>
+        <v>664288200</v>
       </c>
       <c r="G54" s="3">
-        <v>646665700</v>
+        <v>662331200</v>
       </c>
       <c r="H54" s="3">
-        <v>623172600</v>
+        <v>638269000</v>
       </c>
       <c r="I54" s="3">
-        <v>605829100</v>
+        <v>620505300</v>
       </c>
       <c r="J54" s="3">
-        <v>582963800</v>
+        <v>597086100</v>
       </c>
       <c r="K54" s="3">
         <v>587831800</v>
@@ -4638,25 +4638,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5291800</v>
+        <v>5420000</v>
       </c>
       <c r="E61" s="3">
-        <v>4550500</v>
+        <v>4660700</v>
       </c>
       <c r="F61" s="3">
-        <v>4599000</v>
+        <v>4710400</v>
       </c>
       <c r="G61" s="3">
-        <v>4549800</v>
+        <v>4660000</v>
       </c>
       <c r="H61" s="3">
-        <v>4000100</v>
+        <v>4097000</v>
       </c>
       <c r="I61" s="3">
-        <v>4005900</v>
+        <v>4103000</v>
       </c>
       <c r="J61" s="3">
-        <v>4088400</v>
+        <v>4187400</v>
       </c>
       <c r="K61" s="3">
         <v>4244600</v>
@@ -4721,25 +4721,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>42700</v>
+        <v>43700</v>
       </c>
       <c r="E62" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F62" s="3">
-        <v>75200</v>
+        <v>77000</v>
       </c>
       <c r="G62" s="3">
-        <v>87500</v>
+        <v>89600</v>
       </c>
       <c r="H62" s="3">
-        <v>31800</v>
+        <v>32600</v>
       </c>
       <c r="I62" s="3">
-        <v>27500</v>
+        <v>28100</v>
       </c>
       <c r="J62" s="3">
-        <v>25300</v>
+        <v>25900</v>
       </c>
       <c r="K62" s="3">
         <v>26300</v>
@@ -5053,25 +5053,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>630854700</v>
+        <v>646137100</v>
       </c>
       <c r="E66" s="3">
-        <v>646136300</v>
+        <v>661789000</v>
       </c>
       <c r="F66" s="3">
-        <v>613407000</v>
+        <v>628266800</v>
       </c>
       <c r="G66" s="3">
-        <v>612129100</v>
+        <v>626957900</v>
       </c>
       <c r="H66" s="3">
-        <v>589106800</v>
+        <v>603377900</v>
       </c>
       <c r="I66" s="3">
-        <v>572815600</v>
+        <v>586692000</v>
       </c>
       <c r="J66" s="3">
-        <v>551064000</v>
+        <v>564413500</v>
       </c>
       <c r="K66" s="3">
         <v>555912700</v>
@@ -5333,25 +5333,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3561900</v>
+        <v>3648100</v>
       </c>
       <c r="E70" s="3">
-        <v>3560400</v>
+        <v>3646700</v>
       </c>
       <c r="F70" s="3">
-        <v>3127900</v>
+        <v>3203700</v>
       </c>
       <c r="G70" s="3">
-        <v>3127900</v>
+        <v>3203700</v>
       </c>
       <c r="H70" s="3">
-        <v>3127900</v>
+        <v>3203700</v>
       </c>
       <c r="I70" s="3">
-        <v>3127900</v>
+        <v>3203700</v>
       </c>
       <c r="J70" s="3">
-        <v>2585500</v>
+        <v>2648100</v>
       </c>
       <c r="K70" s="3">
         <v>2684300</v>
@@ -5499,25 +5499,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20541600</v>
+        <v>21039200</v>
       </c>
       <c r="E72" s="3">
-        <v>20845400</v>
+        <v>21350300</v>
       </c>
       <c r="F72" s="3">
-        <v>20567700</v>
+        <v>21065900</v>
       </c>
       <c r="G72" s="3">
-        <v>19937000</v>
+        <v>20420000</v>
       </c>
       <c r="H72" s="3">
-        <v>19387400</v>
+        <v>19857000</v>
       </c>
       <c r="I72" s="3">
-        <v>18654000</v>
+        <v>19105900</v>
       </c>
       <c r="J72" s="3">
-        <v>18120300</v>
+        <v>18559200</v>
       </c>
       <c r="K72" s="3">
         <v>18022900</v>
@@ -5831,25 +5831,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32385800</v>
+        <v>33170300</v>
       </c>
       <c r="E76" s="3">
-        <v>32731500</v>
+        <v>33524400</v>
       </c>
       <c r="F76" s="3">
-        <v>32041500</v>
+        <v>32817700</v>
       </c>
       <c r="G76" s="3">
-        <v>31408700</v>
+        <v>32169600</v>
       </c>
       <c r="H76" s="3">
-        <v>30937900</v>
+        <v>31687400</v>
       </c>
       <c r="I76" s="3">
-        <v>29885600</v>
+        <v>30609600</v>
       </c>
       <c r="J76" s="3">
-        <v>29314300</v>
+        <v>30024400</v>
       </c>
       <c r="K76" s="3">
         <v>29234700</v>
@@ -6085,25 +6085,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>253900</v>
+        <v>260000</v>
       </c>
       <c r="E81" s="3">
-        <v>825200</v>
+        <v>845200</v>
       </c>
       <c r="F81" s="3">
-        <v>1167300</v>
+        <v>1195600</v>
       </c>
       <c r="G81" s="3">
-        <v>1063900</v>
+        <v>1089600</v>
       </c>
       <c r="H81" s="3">
-        <v>1318400</v>
+        <v>1350400</v>
       </c>
       <c r="I81" s="3">
-        <v>1004600</v>
+        <v>1028900</v>
       </c>
       <c r="J81" s="3">
-        <v>1225900</v>
+        <v>1255600</v>
       </c>
       <c r="K81" s="3">
         <v>1198400</v>
@@ -6199,25 +6199,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200300</v>
+        <v>205200</v>
       </c>
       <c r="E83" s="3">
-        <v>201100</v>
+        <v>205900</v>
       </c>
       <c r="F83" s="3">
-        <v>188000</v>
+        <v>192600</v>
       </c>
       <c r="G83" s="3">
-        <v>185100</v>
+        <v>189600</v>
       </c>
       <c r="H83" s="3">
-        <v>183000</v>
+        <v>187400</v>
       </c>
       <c r="I83" s="3">
-        <v>207600</v>
+        <v>212600</v>
       </c>
       <c r="J83" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="K83" s="3">
         <v>187000</v>
@@ -6697,25 +6697,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>102000</v>
+        <v>104400</v>
       </c>
       <c r="E89" s="3">
-        <v>6411300</v>
+        <v>6566700</v>
       </c>
       <c r="F89" s="3">
-        <v>5748200</v>
+        <v>5887400</v>
       </c>
       <c r="G89" s="3">
-        <v>4972100</v>
+        <v>5092600</v>
       </c>
       <c r="H89" s="3">
-        <v>-703700</v>
+        <v>-720700</v>
       </c>
       <c r="I89" s="3">
-        <v>6005600</v>
+        <v>6151100</v>
       </c>
       <c r="J89" s="3">
-        <v>5231800</v>
+        <v>5358500</v>
       </c>
       <c r="K89" s="3">
         <v>-13250400</v>
@@ -6811,25 +6811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-177900</v>
+        <v>-246000</v>
       </c>
       <c r="E91" s="3">
-        <v>-283500</v>
+        <v>-392000</v>
       </c>
       <c r="F91" s="3">
-        <v>-196700</v>
+        <v>-272000</v>
       </c>
       <c r="G91" s="3">
-        <v>-176500</v>
+        <v>-244000</v>
       </c>
       <c r="H91" s="3">
-        <v>-145400</v>
+        <v>-201000</v>
       </c>
       <c r="I91" s="3">
-        <v>-195300</v>
+        <v>-270000</v>
       </c>
       <c r="J91" s="3">
-        <v>-151900</v>
+        <v>-210000</v>
       </c>
       <c r="K91" s="3">
         <v>-216200</v>
@@ -7060,25 +7060,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6621100</v>
+        <v>-6781500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2339600</v>
+        <v>-2396300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1421100</v>
+        <v>-1455600</v>
       </c>
       <c r="G94" s="3">
-        <v>-6961700</v>
+        <v>-7130400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6917600</v>
+        <v>-7085200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2886400</v>
+        <v>-2956300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2399600</v>
+        <v>-2457800</v>
       </c>
       <c r="K94" s="3">
         <v>1006200</v>
@@ -7174,25 +7174,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-413000</v>
+        <v>-423000</v>
       </c>
       <c r="E96" s="3">
-        <v>-515700</v>
+        <v>-528100</v>
       </c>
       <c r="F96" s="3">
-        <v>-449100</v>
+        <v>-460000</v>
       </c>
       <c r="G96" s="3">
-        <v>-532300</v>
+        <v>-545200</v>
       </c>
       <c r="H96" s="3">
-        <v>-528700</v>
+        <v>-541500</v>
       </c>
       <c r="I96" s="3">
-        <v>-484600</v>
+        <v>-496300</v>
       </c>
       <c r="J96" s="3">
-        <v>-473700</v>
+        <v>-485200</v>
       </c>
       <c r="K96" s="3">
         <v>-505300</v>
@@ -7506,25 +7506,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>285700</v>
+        <v>292600</v>
       </c>
       <c r="E100" s="3">
-        <v>-145400</v>
+        <v>-148900</v>
       </c>
       <c r="F100" s="3">
-        <v>-572100</v>
+        <v>-585900</v>
       </c>
       <c r="G100" s="3">
-        <v>166300</v>
+        <v>170400</v>
       </c>
       <c r="H100" s="3">
-        <v>-613300</v>
+        <v>-628100</v>
       </c>
       <c r="I100" s="3">
-        <v>34000</v>
+        <v>34800</v>
       </c>
       <c r="J100" s="3">
-        <v>-467200</v>
+        <v>-478500</v>
       </c>
       <c r="K100" s="3">
         <v>256000</v>
@@ -7589,25 +7589,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-28900</v>
+        <v>-29600</v>
       </c>
       <c r="E101" s="3">
-        <v>112800</v>
+        <v>115600</v>
       </c>
       <c r="F101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="G101" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="H101" s="3">
-        <v>52100</v>
+        <v>53300</v>
       </c>
       <c r="I101" s="3">
-        <v>-15200</v>
+        <v>-15600</v>
       </c>
       <c r="J101" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="K101" s="3">
         <v>-72100</v>
@@ -7672,25 +7672,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6262400</v>
+        <v>-6414100</v>
       </c>
       <c r="E102" s="3">
-        <v>4039200</v>
+        <v>4137000</v>
       </c>
       <c r="F102" s="3">
-        <v>3747700</v>
+        <v>3838500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1801500</v>
+        <v>-1845200</v>
       </c>
       <c r="H102" s="3">
-        <v>-8182500</v>
+        <v>-8380700</v>
       </c>
       <c r="I102" s="3">
-        <v>3138100</v>
+        <v>3214100</v>
       </c>
       <c r="J102" s="3">
-        <v>2393900</v>
+        <v>2451800</v>
       </c>
       <c r="K102" s="3">
         <v>-12060300</v>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,193 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7600000</v>
+        <v>7909300</v>
       </c>
       <c r="E8" s="3">
-        <v>6068100</v>
+        <v>7596100</v>
       </c>
       <c r="F8" s="3">
-        <v>4296300</v>
+        <v>6065000</v>
       </c>
       <c r="G8" s="3">
-        <v>3145200</v>
+        <v>4294100</v>
       </c>
       <c r="H8" s="3">
-        <v>2919300</v>
+        <v>3143600</v>
       </c>
       <c r="I8" s="3">
-        <v>2768100</v>
+        <v>2917800</v>
       </c>
       <c r="J8" s="3">
+        <v>2766700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2711100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2682800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2831500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2913200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2942400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3691300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4068100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4114300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4369900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3868300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3944600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3441600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3429700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3183500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2964900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2846600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2543700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2426100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2452200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +933,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1019,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,8 +1309,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1395,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5444400</v>
+        <v>5874000</v>
       </c>
       <c r="E17" s="3">
-        <v>4031800</v>
+        <v>5441600</v>
       </c>
       <c r="F17" s="3">
-        <v>2079300</v>
+        <v>4029800</v>
       </c>
       <c r="G17" s="3">
-        <v>1082200</v>
+        <v>2078200</v>
       </c>
       <c r="H17" s="3">
-        <v>654800</v>
+        <v>1081700</v>
       </c>
       <c r="I17" s="3">
-        <v>618500</v>
+        <v>654500</v>
       </c>
       <c r="J17" s="3">
+        <v>618200</v>
+      </c>
+      <c r="K17" s="3">
         <v>494800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>644200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>810200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>995900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1252700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2631500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2105500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2243900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2377700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2170900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2206300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1788400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1671200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1479200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1238400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1183300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1005400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>954100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>969500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2155600</v>
+        <v>2035200</v>
       </c>
       <c r="E18" s="3">
-        <v>2036300</v>
+        <v>2154400</v>
       </c>
       <c r="F18" s="3">
-        <v>2217000</v>
+        <v>2035200</v>
       </c>
       <c r="G18" s="3">
-        <v>2063000</v>
+        <v>2215900</v>
       </c>
       <c r="H18" s="3">
-        <v>2264400</v>
+        <v>2061900</v>
       </c>
       <c r="I18" s="3">
-        <v>2149600</v>
+        <v>2263300</v>
       </c>
       <c r="J18" s="3">
+        <v>2148500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2216300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2038600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2021300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1917400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1689700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1059800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1962600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1870400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1992200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1697500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1738300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1653200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1758500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1704300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1726600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1663300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1538300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1471900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1482700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,174 +1630,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1288900</v>
+        <v>-462700</v>
       </c>
       <c r="E20" s="3">
-        <v>-948100</v>
+        <v>-1288200</v>
       </c>
       <c r="F20" s="3">
-        <v>-628100</v>
+        <v>-947700</v>
       </c>
       <c r="G20" s="3">
-        <v>-611900</v>
+        <v>-627800</v>
       </c>
       <c r="H20" s="3">
-        <v>-486700</v>
+        <v>-611500</v>
       </c>
       <c r="I20" s="3">
-        <v>-778500</v>
+        <v>-486400</v>
       </c>
       <c r="J20" s="3">
+        <v>-778100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-559300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-428700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-452000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-830300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-554300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-697100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-762300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-676000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-524000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-389500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-608900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-492700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-453200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-464500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-440600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-569300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-464400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-516300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-159000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1071900</v>
+        <v>1781300</v>
       </c>
       <c r="E21" s="3">
-        <v>1294100</v>
+        <v>1071300</v>
       </c>
       <c r="F21" s="3">
-        <v>1781500</v>
+        <v>1293400</v>
       </c>
       <c r="G21" s="3">
-        <v>1640700</v>
+        <v>1780600</v>
       </c>
       <c r="H21" s="3">
-        <v>1965200</v>
+        <v>1639900</v>
       </c>
       <c r="I21" s="3">
-        <v>1583700</v>
+        <v>1964200</v>
       </c>
       <c r="J21" s="3">
+        <v>1582900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1837800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1796800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1747300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1329400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1326300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>560500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1393500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1437700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1615000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1445000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1261000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1278200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1431100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1361800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1409500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1207100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1180300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1053200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1415800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1847,174 +1886,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>866700</v>
+        <v>1572500</v>
       </c>
       <c r="E23" s="3">
-        <v>1088100</v>
+        <v>866200</v>
       </c>
       <c r="F23" s="3">
-        <v>1588900</v>
+        <v>1087600</v>
       </c>
       <c r="G23" s="3">
-        <v>1451100</v>
+        <v>1588100</v>
       </c>
       <c r="H23" s="3">
-        <v>1777800</v>
+        <v>1450400</v>
       </c>
       <c r="I23" s="3">
-        <v>1371100</v>
+        <v>1776900</v>
       </c>
       <c r="J23" s="3">
+        <v>1370400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1657000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1609800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1569300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1087100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1135400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>362700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1194500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1468200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1307900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1129300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1160500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1305300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1239800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1286000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1094000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1073900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>955700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1323700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>546700</v>
+        <v>322800</v>
       </c>
       <c r="E24" s="3">
-        <v>210400</v>
+        <v>546400</v>
       </c>
       <c r="F24" s="3">
-        <v>354800</v>
+        <v>210300</v>
       </c>
       <c r="G24" s="3">
-        <v>323000</v>
+        <v>354600</v>
       </c>
       <c r="H24" s="3">
-        <v>393300</v>
+        <v>322800</v>
       </c>
       <c r="I24" s="3">
-        <v>304400</v>
+        <v>393100</v>
       </c>
       <c r="J24" s="3">
+        <v>304300</v>
+      </c>
+      <c r="K24" s="3">
         <v>375600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>370200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>349100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>308200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>236900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>248900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>264300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>309200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>270200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>219400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>239100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>274800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>246900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>232200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>227700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>257500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>149000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>242800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>320000</v>
+        <v>1249700</v>
       </c>
       <c r="E26" s="3">
-        <v>877800</v>
+        <v>319800</v>
       </c>
       <c r="F26" s="3">
-        <v>1234100</v>
+        <v>877300</v>
       </c>
       <c r="G26" s="3">
-        <v>1128100</v>
+        <v>1233400</v>
       </c>
       <c r="H26" s="3">
-        <v>1384400</v>
+        <v>1127600</v>
       </c>
       <c r="I26" s="3">
-        <v>1066700</v>
+        <v>1383700</v>
       </c>
       <c r="J26" s="3">
+        <v>1066100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1281500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1239700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1220100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>778900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>898500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>307700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>951500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>930100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1159000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1037700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>909900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>921400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1030600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>992900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1053800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>866300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>816400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>806600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1080900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>260000</v>
+        <v>1192000</v>
       </c>
       <c r="E27" s="3">
-        <v>845200</v>
+        <v>259900</v>
       </c>
       <c r="F27" s="3">
-        <v>1195600</v>
+        <v>844800</v>
       </c>
       <c r="G27" s="3">
-        <v>1089600</v>
+        <v>1194900</v>
       </c>
       <c r="H27" s="3">
-        <v>1350400</v>
+        <v>1089100</v>
       </c>
       <c r="I27" s="3">
-        <v>1028900</v>
+        <v>1349700</v>
       </c>
       <c r="J27" s="3">
+        <v>1028400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1255600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1198400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1194600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>755100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>873200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>290500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>921600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>899000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1130800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1010800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>889100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>902500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1010200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>970300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1036700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>844700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>806700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>795100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1070100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2402,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2392,8 +2452,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2410,12 +2470,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-65500</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2428,8 +2488,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2660,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1288900</v>
+        <v>462700</v>
       </c>
       <c r="E32" s="3">
-        <v>948100</v>
+        <v>1288200</v>
       </c>
       <c r="F32" s="3">
-        <v>628100</v>
+        <v>947700</v>
       </c>
       <c r="G32" s="3">
-        <v>611900</v>
+        <v>627800</v>
       </c>
       <c r="H32" s="3">
-        <v>486700</v>
+        <v>611500</v>
       </c>
       <c r="I32" s="3">
-        <v>778500</v>
+        <v>486400</v>
       </c>
       <c r="J32" s="3">
+        <v>778100</v>
+      </c>
+      <c r="K32" s="3">
         <v>559300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>428700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>452000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>830300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>554300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>697100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>762300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>676000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>524000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>389500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>608900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>492700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>453200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>464500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>440600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>569300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>464400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>516300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>159000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>260000</v>
+        <v>1192000</v>
       </c>
       <c r="E33" s="3">
-        <v>845200</v>
+        <v>259900</v>
       </c>
       <c r="F33" s="3">
-        <v>1195600</v>
+        <v>844800</v>
       </c>
       <c r="G33" s="3">
-        <v>1089600</v>
+        <v>1194900</v>
       </c>
       <c r="H33" s="3">
-        <v>1350400</v>
+        <v>1089100</v>
       </c>
       <c r="I33" s="3">
-        <v>1028900</v>
+        <v>1349700</v>
       </c>
       <c r="J33" s="3">
+        <v>1028400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1255600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1198400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1194600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>755100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>873200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>290500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>921600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>899000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1130800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1010800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>889100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>902500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1010200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>970300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>971200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>844700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>806700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>795100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1070100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>260000</v>
+        <v>1192000</v>
       </c>
       <c r="E35" s="3">
-        <v>845200</v>
+        <v>259900</v>
       </c>
       <c r="F35" s="3">
-        <v>1195600</v>
+        <v>844800</v>
       </c>
       <c r="G35" s="3">
-        <v>1089600</v>
+        <v>1194900</v>
       </c>
       <c r="H35" s="3">
-        <v>1350400</v>
+        <v>1089100</v>
       </c>
       <c r="I35" s="3">
-        <v>1028900</v>
+        <v>1349700</v>
       </c>
       <c r="J35" s="3">
+        <v>1028400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1255600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1198400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1194600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>755100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>873200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>290500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>921600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>899000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1130800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1010800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>889100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>902500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1010200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>970300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>971200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>844700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>806700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>795100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1070100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,174 +3161,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16945200</v>
+        <v>16244200</v>
       </c>
       <c r="E41" s="3">
-        <v>23359200</v>
+        <v>16936500</v>
       </c>
       <c r="F41" s="3">
-        <v>19222200</v>
+        <v>23347300</v>
       </c>
       <c r="G41" s="3">
-        <v>15383700</v>
+        <v>19212300</v>
       </c>
       <c r="H41" s="3">
-        <v>17228900</v>
+        <v>15375800</v>
       </c>
       <c r="I41" s="3">
-        <v>25609600</v>
+        <v>17220000</v>
       </c>
       <c r="J41" s="3">
+        <v>25596500</v>
+      </c>
+      <c r="K41" s="3">
         <v>22395500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20216200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32276500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33372600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37849800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29649800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3732100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2993900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3267300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3216300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3147000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3182900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2757500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3848300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2456600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2560100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3130900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2777200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2446800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>152853900</v>
+        <v>155311200</v>
       </c>
       <c r="E42" s="3">
-        <v>168293200</v>
+        <v>152775500</v>
       </c>
       <c r="F42" s="3">
-        <v>133562100</v>
+        <v>168206800</v>
       </c>
       <c r="G42" s="3">
-        <v>163642100</v>
+        <v>133493600</v>
       </c>
       <c r="H42" s="3">
-        <v>159156100</v>
+        <v>163558100</v>
       </c>
       <c r="I42" s="3">
-        <v>155941300</v>
+        <v>159074500</v>
       </c>
       <c r="J42" s="3">
+        <v>155861300</v>
+      </c>
+      <c r="K42" s="3">
         <v>150134700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>152507200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>147905900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>144551500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>142144300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>147020200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>132310800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>118187100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>124243900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>114917200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>111240500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>99017300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>102777700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>104055200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>109982300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>97603900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>100635800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>107950900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>104933300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3325,8 +3417,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3408,8 +3503,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3491,8 +3589,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3574,257 +3675,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>465900</v>
+        <v>504900</v>
       </c>
       <c r="E47" s="3">
-        <v>468100</v>
+        <v>465700</v>
       </c>
       <c r="F47" s="3">
-        <v>463700</v>
+        <v>467900</v>
       </c>
       <c r="G47" s="3">
-        <v>457000</v>
+        <v>463500</v>
       </c>
       <c r="H47" s="3">
-        <v>505200</v>
+        <v>456800</v>
       </c>
       <c r="I47" s="3">
-        <v>487400</v>
+        <v>504900</v>
       </c>
       <c r="J47" s="3">
+        <v>487200</v>
+      </c>
+      <c r="K47" s="3">
         <v>485200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>481300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>494100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>504400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>492200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>482000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>452200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>456900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>484200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>425700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>400300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>382200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>375600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>393700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>413000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>532100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>550700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>564600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>545400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2454800</v>
+        <v>2448400</v>
       </c>
       <c r="E48" s="3">
-        <v>2501500</v>
+        <v>2453600</v>
       </c>
       <c r="F48" s="3">
-        <v>2434100</v>
+        <v>2500200</v>
       </c>
       <c r="G48" s="3">
-        <v>2486700</v>
+        <v>2432800</v>
       </c>
       <c r="H48" s="3">
-        <v>2463000</v>
+        <v>2485400</v>
       </c>
       <c r="I48" s="3">
-        <v>2434100</v>
+        <v>2461700</v>
       </c>
       <c r="J48" s="3">
+        <v>2432800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2320700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2121900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2201500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2297600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2317600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2405400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2423400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1413500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1468200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1374900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1372600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1304400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1304600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1314400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1291200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1326900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1311300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1379700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1345900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5829600</v>
+        <v>5923600</v>
       </c>
       <c r="E49" s="3">
-        <v>5881500</v>
+        <v>5826600</v>
       </c>
       <c r="F49" s="3">
-        <v>5605900</v>
+        <v>5878500</v>
       </c>
       <c r="G49" s="3">
-        <v>5536300</v>
+        <v>5603000</v>
       </c>
       <c r="H49" s="3">
-        <v>5281500</v>
+        <v>5533500</v>
       </c>
       <c r="I49" s="3">
-        <v>5172600</v>
+        <v>5278800</v>
       </c>
       <c r="J49" s="3">
+        <v>5169900</v>
+      </c>
+      <c r="K49" s="3">
         <v>5137000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5159900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5275500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5530500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5707600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5997000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5821900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5783600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6212100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5829100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5754400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5456700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5594000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5551800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5348600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5466200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5152200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2307000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2267000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>580700</v>
+        <v>419000</v>
       </c>
       <c r="E52" s="3">
-        <v>355600</v>
+        <v>580400</v>
       </c>
       <c r="F52" s="3">
-        <v>236300</v>
+        <v>355400</v>
       </c>
       <c r="G52" s="3">
-        <v>222200</v>
+        <v>236200</v>
       </c>
       <c r="H52" s="3">
-        <v>212600</v>
+        <v>222100</v>
       </c>
       <c r="I52" s="3">
-        <v>297800</v>
+        <v>212500</v>
       </c>
       <c r="J52" s="3">
+        <v>297600</v>
+      </c>
+      <c r="K52" s="3">
         <v>322200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>325100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>389700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>498300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>515200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>430200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>440400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>403100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>451000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>411100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>478100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>436700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>402700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>455400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>451700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>541000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>529900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>540100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>490900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>682955600</v>
+        <v>692413500</v>
       </c>
       <c r="E54" s="3">
-        <v>698960000</v>
+        <v>682605300</v>
       </c>
       <c r="F54" s="3">
-        <v>664288200</v>
+        <v>698601500</v>
       </c>
       <c r="G54" s="3">
-        <v>662331200</v>
+        <v>663947400</v>
       </c>
       <c r="H54" s="3">
-        <v>638269000</v>
+        <v>661991400</v>
       </c>
       <c r="I54" s="3">
-        <v>620505300</v>
+        <v>637941600</v>
       </c>
       <c r="J54" s="3">
+        <v>620187000</v>
+      </c>
+      <c r="K54" s="3">
         <v>597086100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>587831800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>587854300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>589968600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>589197300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>595959700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>527646200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>508036100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>532682900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>488149800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>473167600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>433905900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>447928900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>444550300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>436796900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>420675100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>417436300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>406079500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>394327800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,8 +4429,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4383,8 +4513,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4466,8 +4599,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4549,8 +4685,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4632,174 +4771,183 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5420000</v>
+        <v>4897500</v>
       </c>
       <c r="E61" s="3">
-        <v>4660700</v>
+        <v>5417200</v>
       </c>
       <c r="F61" s="3">
-        <v>4710400</v>
+        <v>4658300</v>
       </c>
       <c r="G61" s="3">
-        <v>4660000</v>
+        <v>4707900</v>
       </c>
       <c r="H61" s="3">
-        <v>4097000</v>
+        <v>4657600</v>
       </c>
       <c r="I61" s="3">
-        <v>4103000</v>
+        <v>4094900</v>
       </c>
       <c r="J61" s="3">
+        <v>4100900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4187400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4244600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3523800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4379000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4463400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3782400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3685800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3652000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4659300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3210900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3204000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2964900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12182400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13819700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13686800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12593500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11741400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12597400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11580300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E62" s="3">
         <v>43700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>77000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>26300</v>
       </c>
       <c r="L62" s="3">
         <v>26300</v>
       </c>
       <c r="M62" s="3">
+        <v>26300</v>
+      </c>
+      <c r="N62" s="3">
         <v>25300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>31500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>30800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>31600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>31200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>24100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23800</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>22300</v>
       </c>
       <c r="Z62" s="3">
         <v>22300</v>
       </c>
       <c r="AA62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="AB62" s="3">
         <v>15400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>646137100</v>
+        <v>654439700</v>
       </c>
       <c r="E66" s="3">
-        <v>661789000</v>
+        <v>645805700</v>
       </c>
       <c r="F66" s="3">
-        <v>628266800</v>
+        <v>661449500</v>
       </c>
       <c r="G66" s="3">
-        <v>626957900</v>
+        <v>627944500</v>
       </c>
       <c r="H66" s="3">
-        <v>603377900</v>
+        <v>626636300</v>
       </c>
       <c r="I66" s="3">
-        <v>586692000</v>
+        <v>603068400</v>
       </c>
       <c r="J66" s="3">
+        <v>586391000</v>
+      </c>
+      <c r="K66" s="3">
         <v>564413500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>555912700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>556504400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>558418300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>558593100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>564503500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>496998700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>478101400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>501321600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>459643400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>445524100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>408513100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>422047200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>419432800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>412881800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>397578600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>395235000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>386360500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>375481600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,82 +5491,85 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3648100</v>
+        <v>3646300</v>
       </c>
       <c r="E70" s="3">
-        <v>3646700</v>
+        <v>3646300</v>
       </c>
       <c r="F70" s="3">
-        <v>3203700</v>
+        <v>3644800</v>
       </c>
       <c r="G70" s="3">
-        <v>3203700</v>
+        <v>3202100</v>
       </c>
       <c r="H70" s="3">
-        <v>3203700</v>
+        <v>3202100</v>
       </c>
       <c r="I70" s="3">
-        <v>3203700</v>
+        <v>3202100</v>
       </c>
       <c r="J70" s="3">
+        <v>3202100</v>
+      </c>
+      <c r="K70" s="3">
         <v>2648100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>2684300</v>
       </c>
       <c r="L70" s="3">
         <v>2684300</v>
       </c>
       <c r="M70" s="3">
+        <v>2684300</v>
+      </c>
+      <c r="N70" s="3">
         <v>2740700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2165800</v>
-      </c>
-      <c r="O70" s="3">
-        <v>2217800</v>
       </c>
       <c r="P70" s="3">
         <v>2217800</v>
       </c>
       <c r="Q70" s="3">
+        <v>2217800</v>
+      </c>
+      <c r="R70" s="3">
         <v>2202600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>2342100</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1982300</v>
       </c>
       <c r="T70" s="3">
         <v>1982300</v>
       </c>
       <c r="U70" s="3">
+        <v>1982300</v>
+      </c>
+      <c r="V70" s="3">
         <v>1635100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1693800</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>1692300</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>1671500</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>1337300</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>768200</v>
       </c>
       <c r="AB70" s="3">
         <v>768200</v>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21039200</v>
+        <v>21648100</v>
       </c>
       <c r="E72" s="3">
-        <v>21350300</v>
+        <v>21028400</v>
       </c>
       <c r="F72" s="3">
-        <v>21065900</v>
+        <v>21339400</v>
       </c>
       <c r="G72" s="3">
-        <v>20420000</v>
+        <v>21055100</v>
       </c>
       <c r="H72" s="3">
-        <v>19857000</v>
+        <v>20409500</v>
       </c>
       <c r="I72" s="3">
-        <v>19105900</v>
+        <v>19846800</v>
       </c>
       <c r="J72" s="3">
+        <v>19096100</v>
+      </c>
+      <c r="K72" s="3">
         <v>18559200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18022900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17314800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16957300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16656000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16672900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16912300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16351200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17024500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15237000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14704300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13470700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13588600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13107600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12429100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11982500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11561300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11531900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11126300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33170300</v>
+        <v>34327500</v>
       </c>
       <c r="E76" s="3">
-        <v>33524400</v>
+        <v>33153300</v>
       </c>
       <c r="F76" s="3">
-        <v>32817700</v>
+        <v>33507200</v>
       </c>
       <c r="G76" s="3">
-        <v>32169600</v>
+        <v>32800900</v>
       </c>
       <c r="H76" s="3">
-        <v>31687400</v>
+        <v>32153100</v>
       </c>
       <c r="I76" s="3">
-        <v>30609600</v>
+        <v>31671100</v>
       </c>
       <c r="J76" s="3">
+        <v>30593900</v>
+      </c>
+      <c r="K76" s="3">
         <v>30024400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29234700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28665600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28809600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28438500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29238400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28429800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27732100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29019200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26524100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25661200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23757700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24187900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23425300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>22243700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21759200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20864700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18950700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18078000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>260000</v>
+        <v>1192000</v>
       </c>
       <c r="E81" s="3">
-        <v>845200</v>
+        <v>259900</v>
       </c>
       <c r="F81" s="3">
-        <v>1195600</v>
+        <v>844800</v>
       </c>
       <c r="G81" s="3">
-        <v>1089600</v>
+        <v>1194900</v>
       </c>
       <c r="H81" s="3">
-        <v>1350400</v>
+        <v>1089100</v>
       </c>
       <c r="I81" s="3">
-        <v>1028900</v>
+        <v>1349700</v>
       </c>
       <c r="J81" s="3">
+        <v>1028400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1255600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1198400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1194600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>755100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>873200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>290500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>921600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>899000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1130800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1010800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>889100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>902500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1010200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>970300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>971200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>844700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>806700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>795100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1070100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6390,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>205200</v>
+        <v>208800</v>
       </c>
       <c r="E83" s="3">
-        <v>205900</v>
+        <v>205100</v>
       </c>
       <c r="F83" s="3">
-        <v>192600</v>
+        <v>205800</v>
       </c>
       <c r="G83" s="3">
-        <v>189600</v>
+        <v>192500</v>
       </c>
       <c r="H83" s="3">
-        <v>187400</v>
+        <v>189500</v>
       </c>
       <c r="I83" s="3">
-        <v>212600</v>
+        <v>187300</v>
       </c>
       <c r="J83" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K83" s="3">
         <v>180700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>187000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>178000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>242300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>190900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>197800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>193100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>243300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>146700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>137000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>131600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>117700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>125700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>122000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>123500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>113100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>106400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>97600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>92200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4739800</v>
+      </c>
+      <c r="E89" s="3">
         <v>104400</v>
       </c>
-      <c r="E89" s="3">
-        <v>6566700</v>
-      </c>
       <c r="F89" s="3">
-        <v>5887400</v>
+        <v>6563300</v>
       </c>
       <c r="G89" s="3">
-        <v>5092600</v>
+        <v>5884400</v>
       </c>
       <c r="H89" s="3">
-        <v>-720700</v>
+        <v>5090000</v>
       </c>
       <c r="I89" s="3">
-        <v>6151100</v>
+        <v>-720400</v>
       </c>
       <c r="J89" s="3">
+        <v>6147900</v>
+      </c>
+      <c r="K89" s="3">
         <v>5358500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13250400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-918300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2295300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14240300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34572800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>529900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4656200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2110800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3311000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4477300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-880700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1409200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4979000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1929700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1486900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1329900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2179500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,77 +7024,78 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-246000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-392000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-272000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-244000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-201000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-270000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-210000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-216200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-82600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-95900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-33900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6885,11 +7105,14 @@
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6781500</v>
+        <v>-4481400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2396300</v>
+        <v>-6778000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1455600</v>
+        <v>-2395100</v>
       </c>
       <c r="G94" s="3">
-        <v>-7130400</v>
+        <v>-1454800</v>
       </c>
       <c r="H94" s="3">
-        <v>-7085200</v>
+        <v>-7126700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2956300</v>
+        <v>-7081500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2954800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2457800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1006200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1849400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2178800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5510600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8162200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3258200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1944600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>3186600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7400,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-423000</v>
+        <v>-354600</v>
       </c>
       <c r="E96" s="3">
-        <v>-528100</v>
+        <v>-369400</v>
       </c>
       <c r="F96" s="3">
-        <v>-460000</v>
+        <v>-527900</v>
       </c>
       <c r="G96" s="3">
-        <v>-545200</v>
+        <v>-459800</v>
       </c>
       <c r="H96" s="3">
-        <v>-541500</v>
+        <v>-544900</v>
       </c>
       <c r="I96" s="3">
-        <v>-496300</v>
+        <v>-541200</v>
       </c>
       <c r="J96" s="3">
+        <v>-496000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-485200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-505300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-488800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-498300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-492200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-504800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-499300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-485700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-507400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-463400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-438000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-420800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-426100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-428300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-294000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>115400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-416800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-397900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-385700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7742,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>292600</v>
+        <v>-986900</v>
       </c>
       <c r="E100" s="3">
-        <v>-148900</v>
+        <v>292400</v>
       </c>
       <c r="F100" s="3">
-        <v>-585900</v>
+        <v>-148800</v>
       </c>
       <c r="G100" s="3">
-        <v>170400</v>
+        <v>-585600</v>
       </c>
       <c r="H100" s="3">
-        <v>-628100</v>
+        <v>170300</v>
       </c>
       <c r="I100" s="3">
+        <v>-627800</v>
+      </c>
+      <c r="J100" s="3">
         <v>34800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-478500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>256000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1266700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>244600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-594300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-621800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1317600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>973300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-436500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-159400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-559600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-996700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>737000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>90800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-275400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>323000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-242800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-191300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-29600</v>
       </c>
-      <c r="E101" s="3">
-        <v>115600</v>
-      </c>
       <c r="F101" s="3">
+        <v>115500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-7400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>53300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-15600</v>
-      </c>
       <c r="J101" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K101" s="3">
         <v>29600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-72100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-73600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-79000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>101300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>29300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>16700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>32400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>58000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-67000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>48400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-109400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>61500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-37600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6414100</v>
+        <v>-692200</v>
       </c>
       <c r="E102" s="3">
-        <v>4137000</v>
+        <v>-6410800</v>
       </c>
       <c r="F102" s="3">
-        <v>3838500</v>
+        <v>4134900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1845200</v>
+        <v>3836500</v>
       </c>
       <c r="H102" s="3">
-        <v>-8380700</v>
+        <v>-1844200</v>
       </c>
       <c r="I102" s="3">
-        <v>3214100</v>
+        <v>-8376400</v>
       </c>
       <c r="J102" s="3">
+        <v>3212400</v>
+      </c>
+      <c r="K102" s="3">
         <v>2451800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12060300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-409200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4477200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8895300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25917600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>717500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-78700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-196500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>69300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-224800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>521000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1363300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-103400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-570800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>440600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>330300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-242000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>428700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,199 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7909300</v>
+        <v>8447100</v>
       </c>
       <c r="E8" s="3">
-        <v>7596100</v>
+        <v>7766600</v>
       </c>
       <c r="F8" s="3">
-        <v>6065000</v>
+        <v>7459100</v>
       </c>
       <c r="G8" s="3">
-        <v>4294100</v>
+        <v>5955700</v>
       </c>
       <c r="H8" s="3">
-        <v>3143600</v>
+        <v>4216700</v>
       </c>
       <c r="I8" s="3">
-        <v>2917800</v>
+        <v>3086900</v>
       </c>
       <c r="J8" s="3">
+        <v>2865100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2766700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2711100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2682800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2831500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2913200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2942400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3691300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4068100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4114300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4369900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3868300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3944600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3441600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3429700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3183500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2964900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2846600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2543700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2426100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2452200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2393000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,8 +1331,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,8 +1420,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5874000</v>
+        <v>6629600</v>
       </c>
       <c r="E17" s="3">
-        <v>5441600</v>
+        <v>5768100</v>
       </c>
       <c r="F17" s="3">
-        <v>4029800</v>
+        <v>5343500</v>
       </c>
       <c r="G17" s="3">
-        <v>2078200</v>
+        <v>3957100</v>
       </c>
       <c r="H17" s="3">
-        <v>1081700</v>
+        <v>2040700</v>
       </c>
       <c r="I17" s="3">
-        <v>654500</v>
+        <v>1062200</v>
       </c>
       <c r="J17" s="3">
+        <v>642700</v>
+      </c>
+      <c r="K17" s="3">
         <v>618200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>494800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>644200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>810200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>995900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1252700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2631500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2105500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2243900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2377700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2170900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2206300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1788400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1671200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1479200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1238400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1183300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1005400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>954100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>969500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2035200</v>
+        <v>1817500</v>
       </c>
       <c r="E18" s="3">
-        <v>2154400</v>
+        <v>1998600</v>
       </c>
       <c r="F18" s="3">
-        <v>2035200</v>
+        <v>2115600</v>
       </c>
       <c r="G18" s="3">
-        <v>2215900</v>
+        <v>1998600</v>
       </c>
       <c r="H18" s="3">
-        <v>2061900</v>
+        <v>2175900</v>
       </c>
       <c r="I18" s="3">
-        <v>2263300</v>
+        <v>2024700</v>
       </c>
       <c r="J18" s="3">
+        <v>2222500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2148500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2216300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2038600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2021300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1917400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1689700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1059800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1962600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1870400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1992200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1697500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1738300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1653200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1758500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1704300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1726600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1663300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1538300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1471900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1482700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1450400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,180 +1663,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-462700</v>
+        <v>-503800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1288200</v>
+        <v>-454400</v>
       </c>
       <c r="F20" s="3">
-        <v>-947700</v>
+        <v>-1265000</v>
       </c>
       <c r="G20" s="3">
-        <v>-627800</v>
+        <v>-930600</v>
       </c>
       <c r="H20" s="3">
-        <v>-611500</v>
+        <v>-616500</v>
       </c>
       <c r="I20" s="3">
-        <v>-486400</v>
+        <v>-600500</v>
       </c>
       <c r="J20" s="3">
+        <v>-477600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-778100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-559300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-428700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-452000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-830300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-554300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-697100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-762300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-676000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-524000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-389500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-608900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-492700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-453200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-464500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-440600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-569300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-464400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-516300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-159000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-596100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1781300</v>
+        <v>1512900</v>
       </c>
       <c r="E21" s="3">
-        <v>1071300</v>
+        <v>1749200</v>
       </c>
       <c r="F21" s="3">
-        <v>1293400</v>
+        <v>1052000</v>
       </c>
       <c r="G21" s="3">
-        <v>1780600</v>
+        <v>1270100</v>
       </c>
       <c r="H21" s="3">
-        <v>1639900</v>
+        <v>1748500</v>
       </c>
       <c r="I21" s="3">
-        <v>1964200</v>
+        <v>1610300</v>
       </c>
       <c r="J21" s="3">
+        <v>1928800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1582900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1837800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1796800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1747300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1329400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1326300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>560500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1393500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1437700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1615000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1445000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1261000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1278200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1431100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1361800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1409500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1207100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1180300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1053200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1415800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>953400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1889,180 +1928,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1572500</v>
+        <v>1313700</v>
       </c>
       <c r="E23" s="3">
-        <v>866200</v>
+        <v>1544200</v>
       </c>
       <c r="F23" s="3">
-        <v>1087600</v>
+        <v>850600</v>
       </c>
       <c r="G23" s="3">
-        <v>1588100</v>
+        <v>1068000</v>
       </c>
       <c r="H23" s="3">
-        <v>1450400</v>
+        <v>1559400</v>
       </c>
       <c r="I23" s="3">
-        <v>1776900</v>
+        <v>1424200</v>
       </c>
       <c r="J23" s="3">
+        <v>1744800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1370400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1657000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1609800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1569300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1087100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1135400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>362700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1194500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1468200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1307900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1129300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1160500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1305300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1239800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1286000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1094000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1073900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>955700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1323700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>854300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>322800</v>
+        <v>274100</v>
       </c>
       <c r="E24" s="3">
-        <v>546400</v>
+        <v>317000</v>
       </c>
       <c r="F24" s="3">
-        <v>210300</v>
+        <v>536500</v>
       </c>
       <c r="G24" s="3">
-        <v>354600</v>
+        <v>206500</v>
       </c>
       <c r="H24" s="3">
-        <v>322800</v>
+        <v>348200</v>
       </c>
       <c r="I24" s="3">
-        <v>393100</v>
+        <v>317000</v>
       </c>
       <c r="J24" s="3">
+        <v>386000</v>
+      </c>
+      <c r="K24" s="3">
         <v>304300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>375600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>370200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>349100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>308200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>236900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>248900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>264300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>309200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>270200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>219400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>239100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>274800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>246900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>232200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>227700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>257500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>149000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>242800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1249700</v>
+        <v>1039600</v>
       </c>
       <c r="E26" s="3">
-        <v>319800</v>
+        <v>1227200</v>
       </c>
       <c r="F26" s="3">
-        <v>877300</v>
+        <v>314100</v>
       </c>
       <c r="G26" s="3">
-        <v>1233400</v>
+        <v>861500</v>
       </c>
       <c r="H26" s="3">
-        <v>1127600</v>
+        <v>1211200</v>
       </c>
       <c r="I26" s="3">
-        <v>1383700</v>
+        <v>1107200</v>
       </c>
       <c r="J26" s="3">
+        <v>1358800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1066100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1281500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1239700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1220100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>778900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>898500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>307700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>951500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>930100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1159000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1037700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>909900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>921400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1030600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>992900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1053800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>866300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>816400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>806600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1080900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>715200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1192000</v>
+        <v>984400</v>
       </c>
       <c r="E27" s="3">
-        <v>259900</v>
+        <v>1170500</v>
       </c>
       <c r="F27" s="3">
-        <v>844800</v>
+        <v>255200</v>
       </c>
       <c r="G27" s="3">
-        <v>1194900</v>
+        <v>829500</v>
       </c>
       <c r="H27" s="3">
-        <v>1089100</v>
+        <v>1173400</v>
       </c>
       <c r="I27" s="3">
-        <v>1349700</v>
+        <v>1069400</v>
       </c>
       <c r="J27" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1028400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1255600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1198400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1194600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>755100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>873200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>290500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>921600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>899000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1130800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1010800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>889100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>902500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1010200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>970300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1036700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>844700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>806700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>795100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1070100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2455,8 +2515,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2473,12 +2533,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-65500</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>462700</v>
+        <v>503800</v>
       </c>
       <c r="E32" s="3">
-        <v>1288200</v>
+        <v>454400</v>
       </c>
       <c r="F32" s="3">
-        <v>947700</v>
+        <v>1265000</v>
       </c>
       <c r="G32" s="3">
-        <v>627800</v>
+        <v>930600</v>
       </c>
       <c r="H32" s="3">
-        <v>611500</v>
+        <v>616500</v>
       </c>
       <c r="I32" s="3">
-        <v>486400</v>
+        <v>600500</v>
       </c>
       <c r="J32" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K32" s="3">
         <v>778100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>559300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>428700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>452000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>830300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>554300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>697100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>762300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>676000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>524000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>389500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>608900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>492700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>453200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>464500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>440600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>569300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>464400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>516300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>159000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>596100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1192000</v>
+        <v>984400</v>
       </c>
       <c r="E33" s="3">
-        <v>259900</v>
+        <v>1170500</v>
       </c>
       <c r="F33" s="3">
-        <v>844800</v>
+        <v>255200</v>
       </c>
       <c r="G33" s="3">
-        <v>1194900</v>
+        <v>829500</v>
       </c>
       <c r="H33" s="3">
-        <v>1089100</v>
+        <v>1173400</v>
       </c>
       <c r="I33" s="3">
-        <v>1349700</v>
+        <v>1069400</v>
       </c>
       <c r="J33" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1028400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1255600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1198400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1194600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>755100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>873200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>290500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>921600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>899000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1130800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1010800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>889100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>902500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1010200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>970300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>971200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>844700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>806700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>795100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1070100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1192000</v>
+        <v>984400</v>
       </c>
       <c r="E35" s="3">
-        <v>259900</v>
+        <v>1170500</v>
       </c>
       <c r="F35" s="3">
-        <v>844800</v>
+        <v>255200</v>
       </c>
       <c r="G35" s="3">
-        <v>1194900</v>
+        <v>829500</v>
       </c>
       <c r="H35" s="3">
-        <v>1089100</v>
+        <v>1173400</v>
       </c>
       <c r="I35" s="3">
-        <v>1349700</v>
+        <v>1069400</v>
       </c>
       <c r="J35" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1028400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1255600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1198400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1194600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>755100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>873200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>290500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>921600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>899000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1130800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1010800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>889100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>902500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1010200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>970300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>971200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>844700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>806700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>795100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1070100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,180 +3247,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16244200</v>
+        <v>9847400</v>
       </c>
       <c r="E41" s="3">
-        <v>16936500</v>
+        <v>15951300</v>
       </c>
       <c r="F41" s="3">
-        <v>23347300</v>
+        <v>16631100</v>
       </c>
       <c r="G41" s="3">
-        <v>19212300</v>
+        <v>22926300</v>
       </c>
       <c r="H41" s="3">
-        <v>15375800</v>
+        <v>18865900</v>
       </c>
       <c r="I41" s="3">
-        <v>17220000</v>
+        <v>15098500</v>
       </c>
       <c r="J41" s="3">
+        <v>16909500</v>
+      </c>
+      <c r="K41" s="3">
         <v>25596500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22395500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20216200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32276500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33372600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37849800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29649800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3732100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2993900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3267300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3216300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3147000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3182900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2757500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3848300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2456600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2560100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3130900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2777200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2446800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2688800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>155311200</v>
+        <v>164827000</v>
       </c>
       <c r="E42" s="3">
-        <v>152775500</v>
+        <v>152510700</v>
       </c>
       <c r="F42" s="3">
-        <v>168206800</v>
+        <v>150020700</v>
       </c>
       <c r="G42" s="3">
-        <v>133493600</v>
+        <v>165173800</v>
       </c>
       <c r="H42" s="3">
-        <v>163558100</v>
+        <v>131086400</v>
       </c>
       <c r="I42" s="3">
-        <v>159074500</v>
+        <v>160608900</v>
       </c>
       <c r="J42" s="3">
+        <v>156206100</v>
+      </c>
+      <c r="K42" s="3">
         <v>155861300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>150134700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>152507200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>147905900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>144551500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>142144300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>147020200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>132310800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>118187100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>124243900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>114917200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>111240500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>99017300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>102777700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>104055200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>109982300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>97603900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>100635800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>107950900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>104933300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>93840800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3420,8 +3512,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3506,8 +3601,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3592,8 +3690,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3678,266 +3779,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>504900</v>
+        <v>490700</v>
       </c>
       <c r="E47" s="3">
-        <v>465700</v>
+        <v>495800</v>
       </c>
       <c r="F47" s="3">
-        <v>467900</v>
+        <v>457300</v>
       </c>
       <c r="G47" s="3">
-        <v>463500</v>
+        <v>459500</v>
       </c>
       <c r="H47" s="3">
-        <v>456800</v>
+        <v>455100</v>
       </c>
       <c r="I47" s="3">
-        <v>504900</v>
+        <v>448600</v>
       </c>
       <c r="J47" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K47" s="3">
         <v>487200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>485200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>481300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>494100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>504400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>492200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>482000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>452200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>456900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>484200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>425700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>400300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>382200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>375600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>393700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>413000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>532100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>550700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>564600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>545400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>588500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2448400</v>
+        <v>2336600</v>
       </c>
       <c r="E48" s="3">
-        <v>2453600</v>
+        <v>2404200</v>
       </c>
       <c r="F48" s="3">
-        <v>2500200</v>
+        <v>2409300</v>
       </c>
       <c r="G48" s="3">
+        <v>2455100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2440600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2417300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2432800</v>
       </c>
-      <c r="H48" s="3">
-        <v>2485400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2461700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2432800</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2320700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2121900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2201500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2297600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2317600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2405400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2423400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1413500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1468200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1374900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1372600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1304400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1304600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1314400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1291200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1326900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1311300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1379700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1345900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1458100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5923600</v>
+        <v>5758600</v>
       </c>
       <c r="E49" s="3">
-        <v>5826600</v>
+        <v>5816800</v>
       </c>
       <c r="F49" s="3">
-        <v>5878500</v>
+        <v>5721600</v>
       </c>
       <c r="G49" s="3">
-        <v>5603000</v>
+        <v>5772500</v>
       </c>
       <c r="H49" s="3">
-        <v>5533500</v>
+        <v>5502000</v>
       </c>
       <c r="I49" s="3">
-        <v>5278800</v>
+        <v>5433700</v>
       </c>
       <c r="J49" s="3">
+        <v>5183600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5169900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5137000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5159900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5275500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5530500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5707600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5997000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5821900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5783600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6212100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5829100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5754400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5456700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5594000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5551800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5348600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5466200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5152200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2307000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2267000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2265500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>419000</v>
+        <v>450000</v>
       </c>
       <c r="E52" s="3">
-        <v>580400</v>
+        <v>411500</v>
       </c>
       <c r="F52" s="3">
-        <v>355400</v>
+        <v>570000</v>
       </c>
       <c r="G52" s="3">
-        <v>236200</v>
+        <v>349000</v>
       </c>
       <c r="H52" s="3">
-        <v>222100</v>
+        <v>231900</v>
       </c>
       <c r="I52" s="3">
-        <v>212500</v>
+        <v>218100</v>
       </c>
       <c r="J52" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K52" s="3">
         <v>297600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>322200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>325100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>389700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>498300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>515200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>430200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>440400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>403100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>451000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>411100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>478100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>436700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>402700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>455400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>451700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>541000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>529900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>540100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>490900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>692413500</v>
+        <v>685571200</v>
       </c>
       <c r="E54" s="3">
-        <v>682605300</v>
+        <v>679928100</v>
       </c>
       <c r="F54" s="3">
-        <v>698601500</v>
+        <v>670296700</v>
       </c>
       <c r="G54" s="3">
-        <v>663947400</v>
+        <v>686004500</v>
       </c>
       <c r="H54" s="3">
-        <v>661991400</v>
+        <v>651975300</v>
       </c>
       <c r="I54" s="3">
-        <v>637941600</v>
+        <v>650054500</v>
       </c>
       <c r="J54" s="3">
+        <v>626438300</v>
+      </c>
+      <c r="K54" s="3">
         <v>620187000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>597086100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>587831800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>587854300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>589968600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>589197300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>595959700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>527646200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>508036100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>532682900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>488149800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>473167600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>433905900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>447928900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>444550300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>436796900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>420675100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>417436300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>406079500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>394327800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>385157500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,8 +4559,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4516,8 +4646,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4602,8 +4735,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4688,8 +4824,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4774,180 +4913,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4897500</v>
+        <v>4692800</v>
       </c>
       <c r="E61" s="3">
-        <v>5417200</v>
+        <v>4809200</v>
       </c>
       <c r="F61" s="3">
-        <v>4658300</v>
+        <v>5319500</v>
       </c>
       <c r="G61" s="3">
-        <v>4707900</v>
+        <v>4574300</v>
       </c>
       <c r="H61" s="3">
-        <v>4657600</v>
+        <v>4623100</v>
       </c>
       <c r="I61" s="3">
-        <v>4094900</v>
+        <v>4573600</v>
       </c>
       <c r="J61" s="3">
+        <v>4021100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4100900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4187400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4244600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3523800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4379000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4463400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3782400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3685800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3652000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4659300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3210900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3204000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2964900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12182400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13819700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13686800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12593500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11741400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>12597400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11580300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>10527800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34800</v>
+        <v>30500</v>
       </c>
       <c r="E62" s="3">
-        <v>43700</v>
+        <v>34200</v>
       </c>
       <c r="F62" s="3">
-        <v>33300</v>
+        <v>42900</v>
       </c>
       <c r="G62" s="3">
-        <v>77000</v>
+        <v>32700</v>
       </c>
       <c r="H62" s="3">
-        <v>89600</v>
+        <v>75600</v>
       </c>
       <c r="I62" s="3">
-        <v>32600</v>
+        <v>88000</v>
       </c>
       <c r="J62" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K62" s="3">
         <v>28100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>26300</v>
       </c>
       <c r="M62" s="3">
         <v>26300</v>
       </c>
       <c r="N62" s="3">
+        <v>26300</v>
+      </c>
+      <c r="O62" s="3">
         <v>25300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>31500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>30800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>31600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>31200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>24100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23800</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>22300</v>
       </c>
       <c r="AA62" s="3">
         <v>22300</v>
       </c>
       <c r="AB62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="AC62" s="3">
         <v>15400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>654439700</v>
+        <v>648366400</v>
       </c>
       <c r="E66" s="3">
-        <v>645805700</v>
+        <v>642639000</v>
       </c>
       <c r="F66" s="3">
-        <v>661449500</v>
+        <v>634160600</v>
       </c>
       <c r="G66" s="3">
-        <v>627944500</v>
+        <v>649522400</v>
       </c>
       <c r="H66" s="3">
-        <v>626636300</v>
+        <v>616621500</v>
       </c>
       <c r="I66" s="3">
-        <v>603068400</v>
+        <v>615336900</v>
       </c>
       <c r="J66" s="3">
+        <v>592194000</v>
+      </c>
+      <c r="K66" s="3">
         <v>586391000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>564413500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>555912700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>556504400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>558418300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>558593100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>564503500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>496998700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>478101400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>501321600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>459643400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>445524100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>408513100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>422047200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>419432800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>412881800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>397578600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>395235000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>386360500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>375481600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>367125600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,85 +5658,88 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3646300</v>
+        <v>3580500</v>
       </c>
       <c r="E70" s="3">
-        <v>3646300</v>
+        <v>3580500</v>
       </c>
       <c r="F70" s="3">
-        <v>3644800</v>
+        <v>3580500</v>
       </c>
       <c r="G70" s="3">
+        <v>3579100</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3144300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3144300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3144300</v>
+      </c>
+      <c r="K70" s="3">
         <v>3202100</v>
       </c>
-      <c r="H70" s="3">
-        <v>3202100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>3202100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3202100</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2648100</v>
-      </c>
-      <c r="L70" s="3">
-        <v>2684300</v>
       </c>
       <c r="M70" s="3">
         <v>2684300</v>
       </c>
       <c r="N70" s="3">
+        <v>2684300</v>
+      </c>
+      <c r="O70" s="3">
         <v>2740700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>2165800</v>
-      </c>
-      <c r="P70" s="3">
-        <v>2217800</v>
       </c>
       <c r="Q70" s="3">
         <v>2217800</v>
       </c>
       <c r="R70" s="3">
+        <v>2217800</v>
+      </c>
+      <c r="S70" s="3">
         <v>2202600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>2342100</v>
-      </c>
-      <c r="T70" s="3">
-        <v>1982300</v>
       </c>
       <c r="U70" s="3">
         <v>1982300</v>
       </c>
       <c r="V70" s="3">
+        <v>1982300</v>
+      </c>
+      <c r="W70" s="3">
         <v>1635100</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>1693800</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>1692300</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>1671500</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>1337300</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>1336600</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>768200</v>
       </c>
       <c r="AC70" s="3">
         <v>768200</v>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>768200</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>768200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21648100</v>
+        <v>21662000</v>
       </c>
       <c r="E72" s="3">
-        <v>21028400</v>
+        <v>21257800</v>
       </c>
       <c r="F72" s="3">
-        <v>21339400</v>
+        <v>20649300</v>
       </c>
       <c r="G72" s="3">
-        <v>21055100</v>
+        <v>20954600</v>
       </c>
       <c r="H72" s="3">
-        <v>20409500</v>
+        <v>20675400</v>
       </c>
       <c r="I72" s="3">
-        <v>19846800</v>
+        <v>20041500</v>
       </c>
       <c r="J72" s="3">
+        <v>19489000</v>
+      </c>
+      <c r="K72" s="3">
         <v>19096100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18559200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18022900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17314800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16957300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16656000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16672900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16912300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16351200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17024500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15237000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14704300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13470700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13588600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13107600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12429100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11982500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11561300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11531900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>11126300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>10435600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34327500</v>
+        <v>33624200</v>
       </c>
       <c r="E76" s="3">
-        <v>33153300</v>
+        <v>33708500</v>
       </c>
       <c r="F76" s="3">
-        <v>33507200</v>
+        <v>32555500</v>
       </c>
       <c r="G76" s="3">
-        <v>32800900</v>
+        <v>32903000</v>
       </c>
       <c r="H76" s="3">
-        <v>32153100</v>
+        <v>32209500</v>
       </c>
       <c r="I76" s="3">
-        <v>31671100</v>
+        <v>31573300</v>
       </c>
       <c r="J76" s="3">
+        <v>31100000</v>
+      </c>
+      <c r="K76" s="3">
         <v>30593900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30024400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29234700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28665600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28809600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28438500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29238400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28429800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27732100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29019200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26524100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25661200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23757700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24187900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23425300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22243700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21759200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>20864700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18950700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18078000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>17263700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1192000</v>
+        <v>984400</v>
       </c>
       <c r="E81" s="3">
-        <v>259900</v>
+        <v>1170500</v>
       </c>
       <c r="F81" s="3">
-        <v>844800</v>
+        <v>255200</v>
       </c>
       <c r="G81" s="3">
-        <v>1194900</v>
+        <v>829500</v>
       </c>
       <c r="H81" s="3">
-        <v>1089100</v>
+        <v>1173400</v>
       </c>
       <c r="I81" s="3">
-        <v>1349700</v>
+        <v>1069400</v>
       </c>
       <c r="J81" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1028400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1255600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1198400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1194600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>755100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>873200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>290500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>921600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>899000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1130800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1010800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>889100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>902500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1010200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>970300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>971200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>844700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>806700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>795100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1070100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208800</v>
+        <v>199200</v>
       </c>
       <c r="E83" s="3">
-        <v>205100</v>
+        <v>205000</v>
       </c>
       <c r="F83" s="3">
-        <v>205800</v>
+        <v>201400</v>
       </c>
       <c r="G83" s="3">
-        <v>192500</v>
+        <v>202100</v>
       </c>
       <c r="H83" s="3">
-        <v>189500</v>
+        <v>189000</v>
       </c>
       <c r="I83" s="3">
-        <v>187300</v>
+        <v>186100</v>
       </c>
       <c r="J83" s="3">
+        <v>183900</v>
+      </c>
+      <c r="K83" s="3">
         <v>212500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>180700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>187000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>178000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>242300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>190900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>197800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>193100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>243300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>146700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>137000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>131600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>117700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>125700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>122000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>123500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>113100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>106400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>97600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>92200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4739800</v>
+        <v>-4721900</v>
       </c>
       <c r="E89" s="3">
-        <v>104400</v>
+        <v>4654300</v>
       </c>
       <c r="F89" s="3">
-        <v>6563300</v>
+        <v>102500</v>
       </c>
       <c r="G89" s="3">
-        <v>5884400</v>
+        <v>6444900</v>
       </c>
       <c r="H89" s="3">
-        <v>5090000</v>
+        <v>5778300</v>
       </c>
       <c r="I89" s="3">
-        <v>-720400</v>
+        <v>4998200</v>
       </c>
       <c r="J89" s="3">
+        <v>-707400</v>
+      </c>
+      <c r="K89" s="3">
         <v>6147900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5358500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13250400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-918300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2295300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14240300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34572800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>529900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4656200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2110800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3311000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4477300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-880700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1409200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4979000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1929700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1486900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1329900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2179500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3199700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1977400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,80 +7244,81 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-240000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-246000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-392000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-272000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-244000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-201000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-270000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-210000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-216200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-75100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-95900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
@@ -7108,11 +7328,14 @@
       <c r="AC91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-57600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4481400</v>
+        <v>-875300</v>
       </c>
       <c r="E94" s="3">
-        <v>-6778000</v>
+        <v>-4400600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2395100</v>
+        <v>-6655800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1454800</v>
+        <v>-2351900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7126700</v>
+        <v>-1428600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7081500</v>
+        <v>-6998200</v>
       </c>
       <c r="J94" s="3">
+        <v>-6953900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2954800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2457800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1006200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1849400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2178800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5510600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8162200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3258200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2834500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4539600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1944600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1535700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4410600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2057000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1830800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1102900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1667800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>3186600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1363600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,94 +7633,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-354600</v>
+        <v>-367100</v>
       </c>
       <c r="E96" s="3">
-        <v>-369400</v>
+        <v>-348200</v>
       </c>
       <c r="F96" s="3">
-        <v>-527900</v>
+        <v>-362800</v>
       </c>
       <c r="G96" s="3">
-        <v>-459800</v>
+        <v>-518400</v>
       </c>
       <c r="H96" s="3">
-        <v>-544900</v>
+        <v>-451500</v>
       </c>
       <c r="I96" s="3">
-        <v>-541200</v>
+        <v>-535100</v>
       </c>
       <c r="J96" s="3">
+        <v>-531400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-496000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-485200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-505300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-488800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-498300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-492200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-504800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-499300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-485700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-507400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-463400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-438000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-420800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-426100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-428300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-294000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>115400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-416800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-397900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-385700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-374900</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-986900</v>
+        <v>-445700</v>
       </c>
       <c r="E100" s="3">
-        <v>292400</v>
+        <v>-969100</v>
       </c>
       <c r="F100" s="3">
-        <v>-148800</v>
+        <v>287200</v>
       </c>
       <c r="G100" s="3">
-        <v>-585600</v>
+        <v>-146100</v>
       </c>
       <c r="H100" s="3">
-        <v>170300</v>
+        <v>-575100</v>
       </c>
       <c r="I100" s="3">
-        <v>-627800</v>
+        <v>167200</v>
       </c>
       <c r="J100" s="3">
+        <v>-616500</v>
+      </c>
+      <c r="K100" s="3">
         <v>34800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-478500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>256000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1266700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>244600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-594300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-621800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1317600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>973300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-436500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-159400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-559600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-996700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>737000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>90800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-275400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>323000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-242800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-191300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-218200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36300</v>
+        <v>-61100</v>
       </c>
       <c r="E101" s="3">
-        <v>-29600</v>
+        <v>35600</v>
       </c>
       <c r="F101" s="3">
-        <v>115500</v>
+        <v>-29100</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>113400</v>
       </c>
       <c r="H101" s="3">
-        <v>22200</v>
+        <v>-7300</v>
       </c>
       <c r="I101" s="3">
-        <v>53300</v>
+        <v>21800</v>
       </c>
       <c r="J101" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>29600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-72100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-73600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-79000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>101300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>29300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>16700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>32400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>58000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-67000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>48400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-109400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>61500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-37600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-692200</v>
+        <v>-6104000</v>
       </c>
       <c r="E102" s="3">
-        <v>-6410800</v>
+        <v>-679800</v>
       </c>
       <c r="F102" s="3">
-        <v>4134900</v>
+        <v>-6295200</v>
       </c>
       <c r="G102" s="3">
-        <v>3836500</v>
+        <v>4060400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1844200</v>
+        <v>3767400</v>
       </c>
       <c r="I102" s="3">
-        <v>-8376400</v>
+        <v>-1811000</v>
       </c>
       <c r="J102" s="3">
+        <v>-8225400</v>
+      </c>
+      <c r="K102" s="3">
         <v>3212400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2451800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12060300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-409200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4477200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8895300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25917600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>717500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-78700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-196500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>69300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-224800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>521000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1090800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1363300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-103400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-570800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>440600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>330300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-242000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>428700</v>
       </c>
     </row>
